--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC440E17-1228-483C-976D-5584BE176EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DE04D0-B530-49FE-AADF-215E346D5C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HideProListProto" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{EF7082EF-B618-4D12-835E-0BC61E3B4B60}">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{EF7082EF-B618-4D12-835E-0BC61E3B4B60}">
       <text>
         <r>
           <rPr>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="91">
   <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -249,265 +249,277 @@
     <t>闪避等级</t>
   </si>
   <si>
-    <t>神圣抗性</t>
-  </si>
-  <si>
-    <t>暗影抗性</t>
-  </si>
-  <si>
-    <t>冰霜抗性</t>
-  </si>
-  <si>
-    <t>火焰抗性</t>
-  </si>
-  <si>
-    <t>闪电抗性</t>
-  </si>
-  <si>
-    <t>野兽攻击抗性</t>
-  </si>
-  <si>
-    <t>人物攻击抗性</t>
-  </si>
-  <si>
-    <t>恶魔攻击抗性</t>
-  </si>
-  <si>
-    <t>攻击野兽伤害</t>
-  </si>
-  <si>
-    <t>攻击人物伤害</t>
-  </si>
-  <si>
-    <t>攻击恶魔伤害</t>
-  </si>
-  <si>
-    <t>专注</t>
+    <t>下一ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NtxtID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerPro</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropertyValueMin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否根据等级成长</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IfEquipLvUp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗炼属性出现部位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipSpace</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚弱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏属性最小值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropertyType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HideProValueType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11</t>
+  </si>
+  <si>
+    <t>幸运值</t>
+  </si>
+  <si>
+    <t>抗暴等级</t>
+  </si>
+  <si>
+    <t>暴击概率</t>
+  </si>
+  <si>
+    <t>命中概率</t>
+  </si>
+  <si>
+    <t>闪避概率</t>
+  </si>
+  <si>
+    <t>抗暴概率</t>
+  </si>
+  <si>
+    <t>物理伤害</t>
+  </si>
+  <si>
+    <t>魔法伤害</t>
+  </si>
+  <si>
+    <t>物理减免</t>
+  </si>
+  <si>
+    <t>魔法减免</t>
+  </si>
+  <si>
+    <t>伤害加成</t>
+  </si>
+  <si>
+    <t>伤害减免</t>
+  </si>
+  <si>
+    <t>真实伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击领主物理伤害加成</t>
+  </si>
+  <si>
+    <t>攻击领主魔法伤害加成</t>
+  </si>
+  <si>
+    <t>受到领主物理攻击减免</t>
+  </si>
+  <si>
+    <t>受到领主魔法攻击减免</t>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物防</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔防</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英勇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奋力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedXiLianLv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能冷却缩减</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要洗炼等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验加成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使复苏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>溅射</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助出战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不坏之身</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>渗透之伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓慢</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅捷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>百发百中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神集中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>招摇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐匿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽视目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪婪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>化解</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>珍宝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>简易</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>极品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>胜算</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>无级别</t>
-  </si>
-  <si>
-    <t>下一ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NtxtID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TriggerPro</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PropertyValueMin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>必中</t>
-  </si>
-  <si>
-    <t>再生</t>
-  </si>
-  <si>
-    <t>重生</t>
-  </si>
-  <si>
-    <t>溅射</t>
-  </si>
-  <si>
-    <t>邪灵</t>
-  </si>
-  <si>
-    <t>金刚</t>
-  </si>
-  <si>
-    <t>流血</t>
-  </si>
-  <si>
-    <t>缓慢</t>
-  </si>
-  <si>
-    <t>迷踪</t>
-  </si>
-  <si>
-    <t>药剂熟练</t>
-  </si>
-  <si>
-    <t>锻造熟练</t>
-  </si>
-  <si>
-    <t>发现</t>
-  </si>
-  <si>
-    <t>隐匿</t>
-  </si>
-  <si>
-    <t>灾难</t>
-  </si>
-  <si>
-    <t>药剂大师</t>
-  </si>
-  <si>
-    <t>锻造大师</t>
-  </si>
-  <si>
-    <t>宝石大师</t>
-  </si>
-  <si>
-    <t>是否根据等级成长</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IfEquipLvUp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗炼属性出现部位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EquipSpace</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神农</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚弱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>极品大师</t>
-  </si>
-  <si>
-    <t>狩猎</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐藏属性最小值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PropertyType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HideProValueType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11</t>
-  </si>
-  <si>
-    <t>幸运值</t>
-  </si>
-  <si>
-    <t>抗暴等级</t>
-  </si>
-  <si>
-    <t>暴击概率</t>
-  </si>
-  <si>
-    <t>命中概率</t>
-  </si>
-  <si>
-    <t>闪避概率</t>
-  </si>
-  <si>
-    <t>抗暴概率</t>
-  </si>
-  <si>
-    <t>物理伤害</t>
-  </si>
-  <si>
-    <t>魔法伤害</t>
-  </si>
-  <si>
-    <t>物理减免</t>
-  </si>
-  <si>
-    <t>魔法减免</t>
-  </si>
-  <si>
-    <t>伤害加成</t>
-  </si>
-  <si>
-    <t>伤害减免</t>
-  </si>
-  <si>
-    <t>技能冷却时间缩减</t>
-  </si>
-  <si>
-    <t>真实伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击领主物理伤害加成</t>
-  </si>
-  <si>
-    <t>攻击领主魔法伤害加成</t>
-  </si>
-  <si>
-    <t>受到领主物理攻击减免</t>
-  </si>
-  <si>
-    <t>受到领主魔法攻击减免</t>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>物防</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔防</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>英勇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奋力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石专精</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗恢复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击之手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御之手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复之手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>急速</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +527,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,14 +749,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -2179,7 +2183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2199,16 +2203,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="353">
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -2928,7 +2923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L78"/>
+  <dimension ref="C1:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
@@ -2936,85 +2931,91 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="9"/>
     <col min="3" max="3" width="11.375" customWidth="1"/>
     <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="22.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="9" customWidth="1"/>
-    <col min="11" max="12" width="17.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="13" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="3:12" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="3:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="3:13" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="L3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:13" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="10" t="s">
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:13" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -3025,13 +3026,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>0</v>
@@ -3040,141 +3041,156 @@
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="3:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="6">
         <v>1001</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="E6" s="6">
         <v>1002</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G6" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H6" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I6" s="6">
         <v>100202</v>
       </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
       <c r="J6" s="6">
         <v>0</v>
       </c>
       <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L6" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M6" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="6">
         <v>1002</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="E7" s="6">
         <v>1003</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G7" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H7" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I7" s="6">
         <v>100402</v>
       </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
       <c r="J7" s="6">
         <v>0</v>
       </c>
       <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L7" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M7" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="6">
         <v>1003</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="E8" s="6">
         <v>1004</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G8" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H8" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I8" s="6">
         <v>100602</v>
       </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
       <c r="J8" s="6">
         <v>0</v>
       </c>
       <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L8" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M8" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="6">
         <v>1004</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="E9" s="6">
         <v>1005</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G9" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H9" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I9" s="6">
         <v>100802</v>
       </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
       <c r="J9" s="6">
         <v>0</v>
       </c>
       <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L9" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M9" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="6">
         <v>1005</v>
       </c>
@@ -3185,16 +3201,16 @@
         <v>1006</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G10" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H10" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I10" s="6">
         <v>110101</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1</v>
       </c>
       <c r="J10" s="6">
         <v>1</v>
@@ -3203,10 +3219,13 @@
         <v>1</v>
       </c>
       <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="3:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:13" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="6">
         <v>1006</v>
       </c>
@@ -3217,28 +3236,31 @@
         <v>1007</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G11" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H11" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I11" s="6">
         <v>110201</v>
-      </c>
-      <c r="I11" s="6">
-        <v>1</v>
       </c>
       <c r="J11" s="6">
         <v>1</v>
       </c>
       <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6">
         <v>10</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="3:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:13" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="6">
         <v>1007</v>
       </c>
@@ -3249,48 +3271,51 @@
         <v>1008</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G12" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H12" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I12" s="6">
         <v>202101</v>
       </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
       <c r="J12" s="6">
         <v>0</v>
       </c>
       <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L12" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M12" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="6">
         <v>1008</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="E13" s="6">
         <v>1009</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G13" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H13" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I13" s="6">
         <v>110301</v>
-      </c>
-      <c r="I13" s="6">
-        <v>1</v>
       </c>
       <c r="J13" s="6">
         <v>1</v>
@@ -3299,30 +3324,33 @@
         <v>1</v>
       </c>
       <c r="L13" s="6">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="6">
         <v>1009</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="E14" s="6">
         <v>1010</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G14" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H14" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I14" s="6">
         <v>110501</v>
-      </c>
-      <c r="I14" s="6">
-        <v>1</v>
       </c>
       <c r="J14" s="6">
         <v>1</v>
@@ -3331,10 +3359,13 @@
         <v>1</v>
       </c>
       <c r="L14" s="6">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="6">
         <v>1010</v>
       </c>
@@ -3345,16 +3376,16 @@
         <v>1011</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G15" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H15" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I15" s="6">
         <v>118101</v>
-      </c>
-      <c r="I15" s="6">
-        <v>1</v>
       </c>
       <c r="J15" s="6">
         <v>1</v>
@@ -3363,10 +3394,13 @@
         <v>1</v>
       </c>
       <c r="L15" s="6">
+        <v>1</v>
+      </c>
+      <c r="M15" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="6">
         <v>1011</v>
       </c>
@@ -3377,16 +3411,16 @@
         <v>1012</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G16" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H16" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I16" s="6">
         <v>118201</v>
-      </c>
-      <c r="I16" s="6">
-        <v>1</v>
       </c>
       <c r="J16" s="6">
         <v>1</v>
@@ -3395,33 +3429,36 @@
         <v>1</v>
       </c>
       <c r="L16" s="6">
+        <v>1</v>
+      </c>
+      <c r="M16" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="6">
         <v>1012</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E17" s="6">
         <v>1013</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G17" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H17" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="I17" s="6">
         <v>120101</v>
       </c>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
       <c r="J17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="6">
         <v>1</v>
@@ -3429,8 +3466,11 @@
       <c r="L17" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="6">
         <v>1013</v>
       </c>
@@ -3441,16 +3481,16 @@
         <v>1014</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G18" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H18" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I18" s="6">
         <v>119101</v>
-      </c>
-      <c r="I18" s="6">
-        <v>1</v>
       </c>
       <c r="J18" s="6">
         <v>1</v>
@@ -3459,10 +3499,13 @@
         <v>1</v>
       </c>
       <c r="L18" s="6">
+        <v>1</v>
+      </c>
+      <c r="M18" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="6">
         <v>1014</v>
       </c>
@@ -3473,16 +3516,16 @@
         <v>1015</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G19" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H19" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I19" s="6">
         <v>119301</v>
-      </c>
-      <c r="I19" s="6">
-        <v>1</v>
       </c>
       <c r="J19" s="6">
         <v>1</v>
@@ -3491,10 +3534,13 @@
         <v>1</v>
       </c>
       <c r="L19" s="6">
+        <v>1</v>
+      </c>
+      <c r="M19" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="6">
         <v>1015</v>
       </c>
@@ -3505,16 +3551,16 @@
         <v>1016</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G20" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H20" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I20" s="6">
         <v>119401</v>
-      </c>
-      <c r="I20" s="6">
-        <v>1</v>
       </c>
       <c r="J20" s="6">
         <v>1</v>
@@ -3523,30 +3569,33 @@
         <v>1</v>
       </c>
       <c r="L20" s="6">
+        <v>1</v>
+      </c>
+      <c r="M20" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="6">
         <v>1016</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E21" s="6">
         <v>1017</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G21" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H21" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I21" s="6">
         <v>119201</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1</v>
       </c>
       <c r="J21" s="6">
         <v>1</v>
@@ -3555,330 +3604,363 @@
         <v>1</v>
       </c>
       <c r="L21" s="6">
+        <v>1</v>
+      </c>
+      <c r="M21" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="6">
         <v>1017</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E22" s="6">
         <v>1018</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G22" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H22" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I22" s="6">
         <v>200101</v>
       </c>
-      <c r="I22" s="6">
-        <v>0</v>
-      </c>
       <c r="J22" s="6">
         <v>0</v>
       </c>
       <c r="K22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L22" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M22" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="6">
         <v>1018</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="E23" s="6">
         <v>1019</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G23" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H23" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I23" s="6">
         <v>200201</v>
       </c>
-      <c r="I23" s="6">
-        <v>0</v>
-      </c>
       <c r="J23" s="6">
         <v>0</v>
       </c>
       <c r="K23" s="6">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L23" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M23" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="6">
         <v>1019</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E24" s="6">
         <v>1020</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G24" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H24" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I24" s="6">
         <v>200301</v>
       </c>
-      <c r="I24" s="6">
-        <v>0</v>
-      </c>
       <c r="J24" s="6">
         <v>0</v>
       </c>
       <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L24" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M24" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="6">
         <v>1020</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="E25" s="6">
         <v>1021</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G25" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H25" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I25" s="6">
         <v>200401</v>
       </c>
-      <c r="I25" s="6">
-        <v>0</v>
-      </c>
       <c r="J25" s="6">
         <v>0</v>
       </c>
       <c r="K25" s="6">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L25" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M25" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="6">
         <v>1021</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="E26" s="6">
         <v>1022</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G26" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H26" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I26" s="6">
         <v>200501</v>
       </c>
-      <c r="I26" s="6">
-        <v>0</v>
-      </c>
       <c r="J26" s="6">
         <v>0</v>
       </c>
       <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L26" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M26" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="6">
         <v>1022</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="E27" s="6">
         <v>1023</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G27" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H27" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I27" s="6">
         <v>200601</v>
       </c>
-      <c r="I27" s="6">
-        <v>0</v>
-      </c>
       <c r="J27" s="6">
         <v>0</v>
       </c>
       <c r="K27" s="6">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L27" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M27" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="6">
         <v>1023</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="E28" s="6">
         <v>1024</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G28" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H28" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I28" s="6">
         <v>200701</v>
       </c>
-      <c r="I28" s="6">
-        <v>0</v>
-      </c>
       <c r="J28" s="6">
         <v>0</v>
       </c>
       <c r="K28" s="6">
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L28" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M28" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="6">
         <v>1024</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E29" s="6">
         <v>1025</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G29" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H29" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I29" s="6">
         <v>200801</v>
       </c>
-      <c r="I29" s="6">
-        <v>0</v>
-      </c>
       <c r="J29" s="6">
         <v>0</v>
       </c>
       <c r="K29" s="6">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L29" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M29" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="6">
         <v>1025</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="E30" s="6">
         <v>1026</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G30" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H30" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I30" s="6">
         <v>200901</v>
       </c>
-      <c r="I30" s="6">
-        <v>0</v>
-      </c>
       <c r="J30" s="6">
         <v>0</v>
       </c>
       <c r="K30" s="6">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L30" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M30" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="6">
         <v>1026</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="E31" s="6">
         <v>1027</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G31" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H31" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I31" s="6">
         <v>201001</v>
       </c>
-      <c r="I31" s="6">
-        <v>0</v>
-      </c>
       <c r="J31" s="6">
         <v>0</v>
       </c>
       <c r="K31" s="6">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L31" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M31" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="6">
         <v>1027</v>
       </c>
@@ -3889,28 +3971,31 @@
         <v>1028</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G32" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H32" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I32" s="6">
         <v>202201</v>
       </c>
-      <c r="I32" s="6">
-        <v>0</v>
-      </c>
       <c r="J32" s="6">
         <v>0</v>
       </c>
       <c r="K32" s="6">
+        <v>0</v>
+      </c>
+      <c r="L32" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L32" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M32" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="6">
         <v>1028</v>
       </c>
@@ -3921,1040 +4006,1136 @@
         <v>1030</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G33" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H33" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I33" s="6">
         <v>202301</v>
       </c>
-      <c r="I33" s="6">
-        <v>0</v>
-      </c>
       <c r="J33" s="6">
         <v>0</v>
       </c>
       <c r="K33" s="6">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L33" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="34" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M33" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="6">
         <v>1030</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="E34" s="6">
         <v>1031</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G34" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H34" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I34" s="6">
         <v>203001</v>
       </c>
-      <c r="I34" s="6">
-        <v>0</v>
-      </c>
       <c r="J34" s="6">
         <v>0</v>
       </c>
       <c r="K34" s="6">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L34" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M34" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="6">
         <v>1031</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="E35" s="6">
         <v>1032</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G35" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H35" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I35" s="6">
         <v>203101</v>
       </c>
-      <c r="I35" s="6">
-        <v>0</v>
-      </c>
       <c r="J35" s="6">
         <v>0</v>
       </c>
       <c r="K35" s="6">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L35" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M35" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="6">
         <v>1032</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="E36" s="6">
         <v>1033</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G36" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H36" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I36" s="6">
         <v>203201</v>
       </c>
-      <c r="I36" s="6">
-        <v>0</v>
-      </c>
       <c r="J36" s="6">
         <v>0</v>
       </c>
       <c r="K36" s="6">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L36" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="37" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M36" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="6">
         <v>1033</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="E37" s="6">
         <v>1034</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G37" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H37" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I37" s="6">
         <v>203301</v>
       </c>
-      <c r="I37" s="6">
-        <v>0</v>
-      </c>
       <c r="J37" s="6">
         <v>0</v>
       </c>
       <c r="K37" s="6">
+        <v>0</v>
+      </c>
+      <c r="L37" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L37" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="38" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M37" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="6">
         <v>1034</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1035</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I38" s="6">
+        <v>203601</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="6">
+        <v>1035</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I39" s="6">
+        <v>220101</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0</v>
+      </c>
+      <c r="L39" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="M39" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="6">
+        <v>2001</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="6">
+        <v>2002</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="I40" s="6">
+        <v>67000001</v>
+      </c>
+      <c r="J40" s="6">
+        <v>0</v>
+      </c>
+      <c r="K40" s="6">
+        <v>0</v>
+      </c>
+      <c r="L40" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="M40" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="6">
+        <v>2002</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="6">
+        <v>2003</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="I41" s="6">
+        <v>67000002</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="6">
+        <v>2003</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="6">
+        <v>2004</v>
+      </c>
+      <c r="F42" s="6">
+        <v>2</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="I42" s="6">
+        <v>67000003</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="M42" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="6">
+        <v>2004</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="6">
+        <v>2005</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="I43" s="6">
+        <v>67000004</v>
+      </c>
+      <c r="J43" s="6">
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0</v>
+      </c>
+      <c r="L43" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="M43" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="6">
+        <v>2005</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="6">
+        <v>2006</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="I44" s="6">
+        <v>67000005</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0</v>
+      </c>
+      <c r="L44" s="6">
+        <v>0</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="6">
+        <v>2006</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="6">
+        <v>2007</v>
+      </c>
+      <c r="F45" s="6">
+        <v>3</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="I45" s="6">
+        <v>67000006</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="6">
+        <v>2007</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="6">
+        <v>2008</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="I46" s="6">
+        <v>67000007</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C47" s="6">
+        <v>2008</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="6">
+        <v>2009</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="I47" s="6">
+        <v>67000008</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
+      <c r="L47" s="6">
+        <v>0</v>
+      </c>
+      <c r="M47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="6">
+        <v>2009</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="6">
+        <v>2010</v>
+      </c>
+      <c r="F48" s="6">
+        <v>6</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="I48" s="6">
+        <v>67000009</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0</v>
+      </c>
+      <c r="L48" s="6">
+        <v>0</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="6">
+        <v>2011</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="I49" s="6">
+        <v>67000010</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0</v>
+      </c>
+      <c r="L49" s="6">
+        <v>0</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="6">
+        <v>2011</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="6">
+        <v>2012</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="I50" s="6">
+        <v>67000011</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0</v>
+      </c>
+      <c r="L50" s="6">
+        <v>0</v>
+      </c>
+      <c r="M50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="6">
+        <v>2012</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="6">
+        <v>2013</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="I51" s="6">
+        <v>67000012</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="6">
+        <v>2014</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="I52" s="6">
+        <v>67000013</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="6">
+        <v>2015</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="I53" s="6">
+        <v>67000014</v>
+      </c>
+      <c r="J53" s="6">
+        <v>0</v>
+      </c>
+      <c r="K53" s="6">
+        <v>0</v>
+      </c>
+      <c r="L53" s="6">
+        <v>0</v>
+      </c>
+      <c r="M53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="6">
+        <v>2016</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="I54" s="6">
+        <v>67000015</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0</v>
+      </c>
+      <c r="L54" s="6">
+        <v>0</v>
+      </c>
+      <c r="M54" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C55" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="6">
+        <v>2017</v>
+      </c>
+      <c r="F55" s="6">
+        <v>1</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="I55" s="6">
+        <v>67000016</v>
+      </c>
+      <c r="J55" s="6">
+        <v>0</v>
+      </c>
+      <c r="K55" s="6">
+        <v>0</v>
+      </c>
+      <c r="L55" s="6">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C56" s="6">
+        <v>2017</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="6">
+        <v>2101</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="I56" s="6">
+        <v>67000017</v>
+      </c>
+      <c r="J56" s="6">
+        <v>0</v>
+      </c>
+      <c r="K56" s="6">
+        <v>0</v>
+      </c>
+      <c r="L56" s="6">
+        <v>0</v>
+      </c>
+      <c r="M56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C57" s="6">
+        <v>2101</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="6">
+        <v>2102</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I57" s="6">
+        <v>67000101</v>
+      </c>
+      <c r="J57" s="6">
+        <v>0</v>
+      </c>
+      <c r="K57" s="6">
+        <v>0</v>
+      </c>
+      <c r="L57" s="6">
+        <v>0</v>
+      </c>
+      <c r="M57" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="6">
+        <v>2102</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" s="6">
+        <v>2103</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="I58" s="6">
+        <v>67000102</v>
+      </c>
+      <c r="J58" s="6">
+        <v>0</v>
+      </c>
+      <c r="K58" s="6">
+        <v>0</v>
+      </c>
+      <c r="L58" s="6">
+        <v>0</v>
+      </c>
+      <c r="M58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C59" s="6">
+        <v>2103</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="6">
+        <v>2104</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="I59" s="6">
+        <v>67000103</v>
+      </c>
+      <c r="J59" s="6">
+        <v>0</v>
+      </c>
+      <c r="K59" s="6">
+        <v>0</v>
+      </c>
+      <c r="L59" s="6">
+        <v>0</v>
+      </c>
+      <c r="M59" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C60" s="6">
+        <v>2104</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="6">
+        <v>2105</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="I60" s="6">
+        <v>67000104</v>
+      </c>
+      <c r="J60" s="6">
+        <v>0</v>
+      </c>
+      <c r="K60" s="6">
+        <v>0</v>
+      </c>
+      <c r="L60" s="6">
+        <v>0</v>
+      </c>
+      <c r="M60" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C61" s="6">
+        <v>2105</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="H38" s="6">
-        <v>203601</v>
-      </c>
-      <c r="I38" s="6">
-        <v>0</v>
-      </c>
-      <c r="J38" s="6">
-        <v>0</v>
-      </c>
-      <c r="K38" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="L38" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="12">
-        <v>1035</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="12">
-        <v>1036</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G39" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="H39" s="12">
-        <v>210101</v>
-      </c>
-      <c r="I39" s="12">
-        <v>0</v>
-      </c>
-      <c r="J39" s="12">
-        <v>0</v>
-      </c>
-      <c r="K39" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="L39" s="12">
+      <c r="E61" s="6">
+        <v>2106</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I61" s="6">
+        <v>67000105</v>
+      </c>
+      <c r="J61" s="6">
+        <v>0</v>
+      </c>
+      <c r="K61" s="6">
+        <v>0</v>
+      </c>
+      <c r="L61" s="6">
+        <v>0</v>
+      </c>
+      <c r="M61" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C62" s="6">
+        <v>2106</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="6">
+        <v>2107</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0</v>
+      </c>
+      <c r="H62" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I62" s="6">
+        <v>67000106</v>
+      </c>
+      <c r="J62" s="6">
+        <v>0</v>
+      </c>
+      <c r="K62" s="6">
+        <v>0</v>
+      </c>
+      <c r="L62" s="6">
+        <v>0</v>
+      </c>
+      <c r="M62" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C63" s="6">
+        <v>2107</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="6">
+        <v>2108</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0</v>
+      </c>
+      <c r="H63" s="6">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="40" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="12">
-        <v>1036</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="12">
-        <v>1037</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G40" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="H40" s="12">
-        <v>210201</v>
-      </c>
-      <c r="I40" s="12">
-        <v>0</v>
-      </c>
-      <c r="J40" s="12">
-        <v>0</v>
-      </c>
-      <c r="K40" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="L40" s="12">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="41" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="12">
-        <v>1037</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="12">
-        <v>1038</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="H41" s="12">
-        <v>210301</v>
-      </c>
-      <c r="I41" s="12">
-        <v>0</v>
-      </c>
-      <c r="J41" s="12">
-        <v>0</v>
-      </c>
-      <c r="K41" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="L41" s="12">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="42" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="12">
-        <v>1038</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="12">
-        <v>1039</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G42" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="H42" s="12">
-        <v>210401</v>
-      </c>
-      <c r="I42" s="12">
-        <v>0</v>
-      </c>
-      <c r="J42" s="12">
-        <v>0</v>
-      </c>
-      <c r="K42" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="L42" s="12">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="43" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="12">
-        <v>1039</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="12">
-        <v>1040</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="H43" s="12">
-        <v>210501</v>
-      </c>
-      <c r="I43" s="12">
-        <v>0</v>
-      </c>
-      <c r="J43" s="12">
-        <v>0</v>
-      </c>
-      <c r="K43" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="L43" s="12">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="44" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C44" s="12">
-        <v>1040</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="12">
-        <v>1041</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G44" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="H44" s="12">
-        <v>211101</v>
-      </c>
-      <c r="I44" s="12">
-        <v>0</v>
-      </c>
-      <c r="J44" s="12">
-        <v>0</v>
-      </c>
-      <c r="K44" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="L44" s="12">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="45" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="12">
-        <v>1041</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="12">
-        <v>1042</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G45" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="H45" s="12">
-        <v>211201</v>
-      </c>
-      <c r="I45" s="12">
-        <v>0</v>
-      </c>
-      <c r="J45" s="12">
-        <v>0</v>
-      </c>
-      <c r="K45" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="L45" s="12">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="46" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="12">
-        <v>1042</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="12">
-        <v>1043</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G46" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="H46" s="12">
-        <v>211301</v>
-      </c>
-      <c r="I46" s="12">
-        <v>0</v>
-      </c>
-      <c r="J46" s="12">
-        <v>0</v>
-      </c>
-      <c r="K46" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="L46" s="12">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="47" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C47" s="12">
-        <v>1043</v>
-      </c>
-      <c r="D47" s="12" t="s">
+      <c r="I63" s="6">
+        <v>67000107</v>
+      </c>
+      <c r="J63" s="6">
+        <v>0</v>
+      </c>
+      <c r="K63" s="6">
+        <v>0</v>
+      </c>
+      <c r="L63" s="6">
+        <v>0</v>
+      </c>
+      <c r="M63" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="6">
+        <v>2108</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="6">
+        <v>2109</v>
+      </c>
+      <c r="F64" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="12">
-        <v>1044</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="H47" s="12">
-        <v>212101</v>
-      </c>
-      <c r="I47" s="12">
-        <v>0</v>
-      </c>
-      <c r="J47" s="12">
-        <v>0</v>
-      </c>
-      <c r="K47" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="L47" s="12">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="48" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C48" s="12">
-        <v>1044</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="12">
-        <v>1045</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G48" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="H48" s="12">
-        <v>212201</v>
-      </c>
-      <c r="I48" s="12">
-        <v>0</v>
-      </c>
-      <c r="J48" s="12">
-        <v>0</v>
-      </c>
-      <c r="K48" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="L48" s="12">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="12">
-        <v>1045</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="12">
-        <v>0</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="H49" s="12">
-        <v>212301</v>
-      </c>
-      <c r="I49" s="12">
-        <v>0</v>
-      </c>
-      <c r="J49" s="12">
-        <v>0</v>
-      </c>
-      <c r="K49" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="L49" s="12">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="12">
-        <v>2001</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E50" s="12">
-        <v>2002</v>
-      </c>
-      <c r="F50" s="12">
-        <v>1</v>
-      </c>
-      <c r="G50" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H50" s="12">
-        <v>60020001</v>
-      </c>
-      <c r="I50" s="12">
-        <v>0</v>
-      </c>
-      <c r="J50" s="6">
-        <v>0</v>
-      </c>
-      <c r="K50" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="L50" s="6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="51" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C51" s="12">
-        <v>2002</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="12">
-        <v>2003</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G51" s="12">
+      <c r="G64" s="6">
+        <v>0</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I64" s="6">
+        <v>67000108</v>
+      </c>
+      <c r="J64" s="6">
+        <v>0</v>
+      </c>
+      <c r="K64" s="6">
+        <v>0</v>
+      </c>
+      <c r="L64" s="6">
+        <v>0</v>
+      </c>
+      <c r="M64" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="6">
+        <v>2109</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65" s="6">
+        <v>2110</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0</v>
+      </c>
+      <c r="H65" s="6">
         <v>0.04</v>
       </c>
-      <c r="H51" s="12">
-        <v>60020002</v>
-      </c>
-      <c r="I51" s="12">
-        <v>0</v>
-      </c>
-      <c r="J51" s="6">
-        <v>0</v>
-      </c>
-      <c r="K51" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="L51" s="6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="52" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C52" s="12">
-        <v>2003</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E52" s="12">
-        <v>2004</v>
-      </c>
-      <c r="F52" s="12">
-        <v>2</v>
-      </c>
-      <c r="G52" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H52" s="12">
-        <v>60020003</v>
-      </c>
-      <c r="I52" s="12">
-        <v>0</v>
-      </c>
-      <c r="J52" s="6">
-        <v>0</v>
-      </c>
-      <c r="K52" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="L52" s="6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="12">
-        <v>2004</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" s="12">
-        <v>2005</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="H53" s="12">
-        <v>60020004</v>
-      </c>
-      <c r="I53" s="12">
-        <v>0</v>
-      </c>
-      <c r="J53" s="6">
-        <v>0</v>
-      </c>
-      <c r="K53" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="L53" s="6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="54" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C54" s="12">
-        <v>2005</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" s="12">
-        <v>2006</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H54" s="12">
-        <v>60020005</v>
-      </c>
-      <c r="I54" s="12">
-        <v>0</v>
-      </c>
-      <c r="J54" s="6">
-        <v>0</v>
-      </c>
-      <c r="K54" s="6">
-        <v>0</v>
-      </c>
-      <c r="L54" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C55" s="12">
-        <v>2006</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" s="12">
-        <v>2007</v>
-      </c>
-      <c r="F55" s="12">
-        <v>3</v>
-      </c>
-      <c r="G55" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="H55" s="12">
-        <v>60020006</v>
-      </c>
-      <c r="I55" s="12">
-        <v>0</v>
-      </c>
-      <c r="J55" s="6">
-        <v>0</v>
-      </c>
-      <c r="K55" s="6">
-        <v>0</v>
-      </c>
-      <c r="L55" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C56" s="12">
-        <v>2007</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E56" s="12">
-        <v>2008</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G56" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="H56" s="12">
-        <v>60020007</v>
-      </c>
-      <c r="I56" s="12">
-        <v>0</v>
-      </c>
-      <c r="J56" s="6">
-        <v>0</v>
-      </c>
-      <c r="K56" s="6">
-        <v>0</v>
-      </c>
-      <c r="L56" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C57" s="12">
-        <v>2008</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E57" s="12">
-        <v>2009</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G57" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="H57" s="12">
-        <v>60020008</v>
-      </c>
-      <c r="I57" s="12">
-        <v>0</v>
-      </c>
-      <c r="J57" s="6">
-        <v>0</v>
-      </c>
-      <c r="K57" s="6">
-        <v>0</v>
-      </c>
-      <c r="L57" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="12">
-        <v>2009</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E58" s="12">
-        <v>2010</v>
-      </c>
-      <c r="F58" s="12">
-        <v>6</v>
-      </c>
-      <c r="G58" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H58" s="12">
-        <v>60020009</v>
-      </c>
-      <c r="I58" s="12">
-        <v>0</v>
-      </c>
-      <c r="J58" s="6">
-        <v>0</v>
-      </c>
-      <c r="K58" s="6">
-        <v>0</v>
-      </c>
-      <c r="L58" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C59" s="12">
-        <v>2010</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E59" s="12">
-        <v>2011</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G59" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="H59" s="12">
-        <v>60020010</v>
-      </c>
-      <c r="I59" s="12">
-        <v>0</v>
-      </c>
-      <c r="J59" s="6">
-        <v>0</v>
-      </c>
-      <c r="K59" s="6">
-        <v>0</v>
-      </c>
-      <c r="L59" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C60" s="12">
-        <v>2011</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E60" s="12">
-        <v>2012</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G60" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="H60" s="12">
-        <v>60020011</v>
-      </c>
-      <c r="I60" s="12">
-        <v>0</v>
-      </c>
-      <c r="J60" s="6">
-        <v>0</v>
-      </c>
-      <c r="K60" s="6">
-        <v>0</v>
-      </c>
-      <c r="L60" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="12">
-        <v>2012</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E61" s="12">
-        <v>2013</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G61" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H61" s="12">
-        <v>60020012</v>
-      </c>
-      <c r="I61" s="12">
-        <v>0</v>
-      </c>
-      <c r="J61" s="6">
-        <v>0</v>
-      </c>
-      <c r="K61" s="6">
-        <v>0</v>
-      </c>
-      <c r="L61" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C62" s="12">
-        <v>2013</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E62" s="12">
-        <v>2014</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G62" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="H62" s="12">
-        <v>60020013</v>
-      </c>
-      <c r="I62" s="12">
-        <v>0</v>
-      </c>
-      <c r="J62" s="6">
-        <v>0</v>
-      </c>
-      <c r="K62" s="6">
-        <v>0</v>
-      </c>
-      <c r="L62" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C63" s="12">
-        <v>2014</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E63" s="12">
-        <v>2015</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G63" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="H63" s="12">
-        <v>60020014</v>
-      </c>
-      <c r="I63" s="12">
-        <v>0</v>
-      </c>
-      <c r="J63" s="6">
-        <v>0</v>
-      </c>
-      <c r="K63" s="6">
-        <v>0</v>
-      </c>
-      <c r="L63" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="12">
-        <v>2015</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E64" s="12">
-        <v>2016</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G64" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="H64" s="12">
-        <v>60020015</v>
-      </c>
-      <c r="I64" s="12">
-        <v>0</v>
-      </c>
-      <c r="J64" s="6">
-        <v>0</v>
-      </c>
-      <c r="K64" s="6">
-        <v>0</v>
-      </c>
-      <c r="L64" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C65" s="12">
-        <v>2016</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E65" s="12">
-        <v>2017</v>
-      </c>
-      <c r="F65" s="12">
-        <v>1</v>
-      </c>
-      <c r="G65" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H65" s="12">
-        <v>60020016</v>
-      </c>
-      <c r="I65" s="12">
-        <v>0</v>
+      <c r="I65" s="6">
+        <v>67000109</v>
       </c>
       <c r="J65" s="6">
         <v>0</v>
@@ -4965,28 +5146,31 @@
       <c r="L65" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C66" s="12">
-        <v>2017</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E66" s="12">
-        <v>2018</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G66" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="H66" s="12">
-        <v>60020017</v>
-      </c>
-      <c r="I66" s="12">
-        <v>0</v>
+      <c r="M65" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="6">
+        <v>2110</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="6">
+        <v>2111</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I66" s="6">
+        <v>67000110</v>
       </c>
       <c r="J66" s="6">
         <v>0</v>
@@ -4997,28 +5181,31 @@
       <c r="L66" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="12">
-        <v>2018</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E67" s="12">
-        <v>2019</v>
-      </c>
-      <c r="F67" s="12">
-        <v>11</v>
-      </c>
-      <c r="G67" s="12">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H67" s="12">
-        <v>60020018</v>
-      </c>
-      <c r="I67" s="12">
-        <v>0</v>
+      <c r="M66" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="6">
+        <v>2111</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="6">
+        <v>2112</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I67" s="6">
+        <v>67000111</v>
       </c>
       <c r="J67" s="6">
         <v>0</v>
@@ -5029,28 +5216,31 @@
       <c r="L67" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C68" s="12">
-        <v>2019</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E68" s="12">
-        <v>2020</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G68" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H68" s="12">
-        <v>60020019</v>
-      </c>
-      <c r="I68" s="12">
-        <v>0</v>
+      <c r="M67" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="6">
+        <v>2112</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68" s="6">
+        <v>2113</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0</v>
+      </c>
+      <c r="H68" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I68" s="6">
+        <v>67000112</v>
       </c>
       <c r="J68" s="6">
         <v>0</v>
@@ -5061,28 +5251,31 @@
       <c r="L68" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C69" s="12">
-        <v>2020</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E69" s="12">
-        <v>2021</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G69" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H69" s="12">
-        <v>60020020</v>
-      </c>
-      <c r="I69" s="12">
-        <v>0</v>
+      <c r="M68" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="6">
+        <v>2113</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0</v>
+      </c>
+      <c r="H69" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I69" s="6">
+        <v>67000113</v>
       </c>
       <c r="J69" s="6">
         <v>0</v>
@@ -5093,292 +5286,7 @@
       <c r="L69" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="12">
-        <v>2021</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E70" s="12">
-        <v>2022</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G70" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="H70" s="12">
-        <v>60020021</v>
-      </c>
-      <c r="I70" s="12">
-        <v>0</v>
-      </c>
-      <c r="J70" s="6">
-        <v>0</v>
-      </c>
-      <c r="K70" s="6">
-        <v>0</v>
-      </c>
-      <c r="L70" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C71" s="12">
-        <v>2022</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E71" s="12">
-        <v>2023</v>
-      </c>
-      <c r="F71" s="12">
-        <v>4</v>
-      </c>
-      <c r="G71" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="H71" s="12">
-        <v>60020022</v>
-      </c>
-      <c r="I71" s="12">
-        <v>0</v>
-      </c>
-      <c r="J71" s="6">
-        <v>0</v>
-      </c>
-      <c r="K71" s="6">
-        <v>0</v>
-      </c>
-      <c r="L71" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C72" s="12">
-        <v>2023</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E72" s="12">
-        <v>2024</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G72" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="H72" s="12">
-        <v>60020023</v>
-      </c>
-      <c r="I72" s="12">
-        <v>0</v>
-      </c>
-      <c r="J72" s="6">
-        <v>0</v>
-      </c>
-      <c r="K72" s="6">
-        <v>0</v>
-      </c>
-      <c r="L72" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C73" s="12">
-        <v>2024</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E73" s="12">
-        <v>2025</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G73" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="H73" s="12">
-        <v>60020027</v>
-      </c>
-      <c r="I73" s="12">
-        <v>0</v>
-      </c>
-      <c r="J73" s="6">
-        <v>0</v>
-      </c>
-      <c r="K73" s="6">
-        <v>0</v>
-      </c>
-      <c r="L73" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="12">
-        <v>2025</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E74" s="12">
-        <v>2026</v>
-      </c>
-      <c r="F74" s="12">
-        <v>5</v>
-      </c>
-      <c r="G74" s="12">
-        <v>1E-4</v>
-      </c>
-      <c r="H74" s="12">
-        <v>60020024</v>
-      </c>
-      <c r="I74" s="12">
-        <v>0</v>
-      </c>
-      <c r="J74" s="6">
-        <v>0</v>
-      </c>
-      <c r="K74" s="6">
-        <v>0</v>
-      </c>
-      <c r="L74" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C75" s="12">
-        <v>2026</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E75" s="12">
-        <v>2027</v>
-      </c>
-      <c r="F75" s="12">
-        <v>5</v>
-      </c>
-      <c r="G75" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H75" s="12">
-        <v>60020025</v>
-      </c>
-      <c r="I75" s="12">
-        <v>0</v>
-      </c>
-      <c r="J75" s="6">
-        <v>0</v>
-      </c>
-      <c r="K75" s="6">
-        <v>0</v>
-      </c>
-      <c r="L75" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="12">
-        <v>2027</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E76" s="12">
-        <v>2028</v>
-      </c>
-      <c r="F76" s="12">
-        <v>5</v>
-      </c>
-      <c r="G76" s="12">
-        <v>0</v>
-      </c>
-      <c r="H76" s="12">
-        <v>60020026</v>
-      </c>
-      <c r="I76" s="12">
-        <v>0</v>
-      </c>
-      <c r="J76" s="6">
-        <v>0</v>
-      </c>
-      <c r="K76" s="6">
-        <v>0</v>
-      </c>
-      <c r="L76" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="12">
-        <v>2028</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E77" s="12">
-        <v>2029</v>
-      </c>
-      <c r="F77" s="12">
-        <v>5</v>
-      </c>
-      <c r="G77" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H77" s="12">
-        <v>60020028</v>
-      </c>
-      <c r="I77" s="12">
-        <v>0</v>
-      </c>
-      <c r="J77" s="6">
-        <v>0</v>
-      </c>
-      <c r="K77" s="6">
-        <v>0</v>
-      </c>
-      <c r="L77" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="3:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="12">
-        <v>2029</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E78" s="12">
-        <v>0</v>
-      </c>
-      <c r="F78" s="12">
-        <v>9</v>
-      </c>
-      <c r="G78" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="H78" s="12">
-        <v>60020029</v>
-      </c>
-      <c r="I78" s="12">
-        <v>0</v>
-      </c>
-      <c r="J78" s="6">
-        <v>0</v>
-      </c>
-      <c r="K78" s="6">
-        <v>0</v>
-      </c>
-      <c r="L78" s="6">
+      <c r="M69" s="6">
         <v>0</v>
       </c>
     </row>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DE04D0-B530-49FE-AADF-215E346D5C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A5060D-B3E9-4789-A811-B3F7EFCE5605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28980" yWindow="810" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HideProListProto" sheetId="1" r:id="rId1"/>
@@ -2925,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40:I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4260,7 +4260,7 @@
         <v>0.01</v>
       </c>
       <c r="I40" s="6">
-        <v>67000001</v>
+        <v>68000001</v>
       </c>
       <c r="J40" s="6">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0.03</v>
       </c>
       <c r="I41" s="6">
-        <v>67000002</v>
+        <v>68000002</v>
       </c>
       <c r="J41" s="6">
         <v>0</v>
@@ -4330,7 +4330,7 @@
         <v>0.01</v>
       </c>
       <c r="I42" s="6">
-        <v>67000003</v>
+        <v>68000003</v>
       </c>
       <c r="J42" s="6">
         <v>0</v>
@@ -4365,7 +4365,7 @@
         <v>0.03</v>
       </c>
       <c r="I43" s="6">
-        <v>67000004</v>
+        <v>68000004</v>
       </c>
       <c r="J43" s="6">
         <v>0</v>
@@ -4400,7 +4400,7 @@
         <v>0.03</v>
       </c>
       <c r="I44" s="6">
-        <v>67000005</v>
+        <v>68000005</v>
       </c>
       <c r="J44" s="6">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         <v>0.01</v>
       </c>
       <c r="I45" s="6">
-        <v>67000006</v>
+        <v>68000006</v>
       </c>
       <c r="J45" s="6">
         <v>0</v>
@@ -4470,7 +4470,7 @@
         <v>0.01</v>
       </c>
       <c r="I46" s="6">
-        <v>67000007</v>
+        <v>68000007</v>
       </c>
       <c r="J46" s="6">
         <v>0</v>
@@ -4505,7 +4505,7 @@
         <v>0.03</v>
       </c>
       <c r="I47" s="6">
-        <v>67000008</v>
+        <v>68000008</v>
       </c>
       <c r="J47" s="6">
         <v>0</v>
@@ -4540,7 +4540,7 @@
         <v>0.01</v>
       </c>
       <c r="I48" s="6">
-        <v>67000009</v>
+        <v>68000009</v>
       </c>
       <c r="J48" s="6">
         <v>0</v>
@@ -4575,7 +4575,7 @@
         <v>0.03</v>
       </c>
       <c r="I49" s="6">
-        <v>67000010</v>
+        <v>68000010</v>
       </c>
       <c r="J49" s="6">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         <v>0.01</v>
       </c>
       <c r="I50" s="6">
-        <v>67000011</v>
+        <v>68000011</v>
       </c>
       <c r="J50" s="6">
         <v>0</v>
@@ -4645,7 +4645,7 @@
         <v>0.03</v>
       </c>
       <c r="I51" s="6">
-        <v>67000012</v>
+        <v>68000012</v>
       </c>
       <c r="J51" s="6">
         <v>0</v>
@@ -4680,7 +4680,7 @@
         <v>0.03</v>
       </c>
       <c r="I52" s="6">
-        <v>67000013</v>
+        <v>68000013</v>
       </c>
       <c r="J52" s="6">
         <v>0</v>
@@ -4715,7 +4715,7 @@
         <v>0.03</v>
       </c>
       <c r="I53" s="6">
-        <v>67000014</v>
+        <v>68000014</v>
       </c>
       <c r="J53" s="6">
         <v>0</v>
@@ -4750,7 +4750,7 @@
         <v>0.03</v>
       </c>
       <c r="I54" s="6">
-        <v>67000015</v>
+        <v>68000015</v>
       </c>
       <c r="J54" s="6">
         <v>0</v>
@@ -4785,7 +4785,7 @@
         <v>0.03</v>
       </c>
       <c r="I55" s="6">
-        <v>67000016</v>
+        <v>68000016</v>
       </c>
       <c r="J55" s="6">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>0.01</v>
       </c>
       <c r="I56" s="6">
-        <v>67000017</v>
+        <v>68000017</v>
       </c>
       <c r="J56" s="6">
         <v>0</v>
@@ -4855,7 +4855,7 @@
         <v>0.02</v>
       </c>
       <c r="I57" s="6">
-        <v>67000101</v>
+        <v>68000101</v>
       </c>
       <c r="J57" s="6">
         <v>0</v>
@@ -4890,7 +4890,7 @@
         <v>0.05</v>
       </c>
       <c r="I58" s="6">
-        <v>67000102</v>
+        <v>68000102</v>
       </c>
       <c r="J58" s="6">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>0.05</v>
       </c>
       <c r="I59" s="6">
-        <v>67000103</v>
+        <v>68000103</v>
       </c>
       <c r="J59" s="6">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0.01</v>
       </c>
       <c r="I60" s="6">
-        <v>67000104</v>
+        <v>68000104</v>
       </c>
       <c r="J60" s="6">
         <v>0</v>
@@ -4995,7 +4995,7 @@
         <v>0.02</v>
       </c>
       <c r="I61" s="6">
-        <v>67000105</v>
+        <v>68000105</v>
       </c>
       <c r="J61" s="6">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>0.02</v>
       </c>
       <c r="I62" s="6">
-        <v>67000106</v>
+        <v>68000106</v>
       </c>
       <c r="J62" s="6">
         <v>0</v>
@@ -5065,7 +5065,7 @@
         <v>0.03</v>
       </c>
       <c r="I63" s="6">
-        <v>67000107</v>
+        <v>68000107</v>
       </c>
       <c r="J63" s="6">
         <v>0</v>
@@ -5100,7 +5100,7 @@
         <v>0.02</v>
       </c>
       <c r="I64" s="6">
-        <v>67000108</v>
+        <v>68000108</v>
       </c>
       <c r="J64" s="6">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>0.04</v>
       </c>
       <c r="I65" s="6">
-        <v>67000109</v>
+        <v>68000109</v>
       </c>
       <c r="J65" s="6">
         <v>0</v>
@@ -5170,7 +5170,7 @@
         <v>0.02</v>
       </c>
       <c r="I66" s="6">
-        <v>67000110</v>
+        <v>68000110</v>
       </c>
       <c r="J66" s="6">
         <v>0</v>
@@ -5205,7 +5205,7 @@
         <v>0.02</v>
       </c>
       <c r="I67" s="6">
-        <v>67000111</v>
+        <v>68000111</v>
       </c>
       <c r="J67" s="6">
         <v>0</v>
@@ -5240,7 +5240,7 @@
         <v>0.02</v>
       </c>
       <c r="I68" s="6">
-        <v>67000112</v>
+        <v>68000112</v>
       </c>
       <c r="J68" s="6">
         <v>0</v>
@@ -5275,7 +5275,7 @@
         <v>0.02</v>
       </c>
       <c r="I69" s="6">
-        <v>67000113</v>
+        <v>68000113</v>
       </c>
       <c r="J69" s="6">
         <v>0</v>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A5060D-B3E9-4789-A811-B3F7EFCE5605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0685F690-87B4-4BFB-A820-01961803F77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28980" yWindow="810" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HideProListProto" sheetId="1" r:id="rId1"/>
@@ -2925,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40:I69"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4254,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="6">
         <v>0.01</v>
@@ -4289,7 +4289,7 @@
         <v>26</v>
       </c>
       <c r="G41" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H41" s="6">
         <v>0.03</v>
@@ -4324,7 +4324,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H42" s="6">
         <v>0.01</v>
@@ -4359,7 +4359,7 @@
         <v>26</v>
       </c>
       <c r="G43" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="6">
         <v>0.03</v>
@@ -4464,7 +4464,7 @@
         <v>26</v>
       </c>
       <c r="G46" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" s="6">
         <v>0.01</v>
@@ -4499,7 +4499,7 @@
         <v>26</v>
       </c>
       <c r="G47" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H47" s="6">
         <v>0.03</v>
@@ -4534,7 +4534,7 @@
         <v>6</v>
       </c>
       <c r="G48" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48" s="6">
         <v>0.01</v>
@@ -4604,7 +4604,7 @@
         <v>26</v>
       </c>
       <c r="G50" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H50" s="6">
         <v>0.01</v>
@@ -4639,7 +4639,7 @@
         <v>26</v>
       </c>
       <c r="G51" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H51" s="6">
         <v>0.03</v>
@@ -4674,7 +4674,7 @@
         <v>26</v>
       </c>
       <c r="G52" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H52" s="6">
         <v>0.03</v>
@@ -4709,7 +4709,7 @@
         <v>26</v>
       </c>
       <c r="G53" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H53" s="6">
         <v>0.03</v>
@@ -4744,7 +4744,7 @@
         <v>26</v>
       </c>
       <c r="G54" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H54" s="6">
         <v>0.03</v>
@@ -4779,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H55" s="6">
         <v>0.03</v>
@@ -4814,7 +4814,7 @@
         <v>26</v>
       </c>
       <c r="G56" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H56" s="6">
         <v>0.01</v>
@@ -4884,7 +4884,7 @@
         <v>26</v>
       </c>
       <c r="G58" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="6">
         <v>0.05</v>
@@ -4919,7 +4919,7 @@
         <v>26</v>
       </c>
       <c r="G59" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H59" s="6">
         <v>0.05</v>
@@ -5164,7 +5164,7 @@
         <v>26</v>
       </c>
       <c r="G66" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H66" s="6">
         <v>0.02</v>
@@ -5199,7 +5199,7 @@
         <v>26</v>
       </c>
       <c r="G67" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H67" s="6">
         <v>0.02</v>
@@ -5234,7 +5234,7 @@
         <v>26</v>
       </c>
       <c r="G68" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H68" s="6">
         <v>0.02</v>
@@ -5269,7 +5269,7 @@
         <v>26</v>
       </c>
       <c r="G69" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H69" s="6">
         <v>0.02</v>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0685F690-87B4-4BFB-A820-01961803F77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ACE1B2-1252-48AD-9ED8-A7821198C123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29895" yWindow="930" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HideProListProto" sheetId="1" r:id="rId1"/>
@@ -2925,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ACE1B2-1252-48AD-9ED8-A7821198C123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF65365-5DDC-4E3D-8A04-A30F9D83BAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29895" yWindow="930" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HideProListProto" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
   <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -520,6 +520,26 @@
   </si>
   <si>
     <t>急速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2923,10 +2943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:M69"/>
+  <dimension ref="C1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4213,7 +4233,7 @@
         <v>64</v>
       </c>
       <c r="E39" s="6">
-        <v>0</v>
+        <v>1036</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>34</v>
@@ -4240,202 +4260,202 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="40" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:13" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="6">
-        <v>2001</v>
+        <v>1036</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E40" s="6">
-        <v>2002</v>
-      </c>
-      <c r="F40" s="6">
+        <v>1037</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I40" s="6">
+        <v>1051</v>
+      </c>
+      <c r="J40" s="6">
         <v>1</v>
       </c>
-      <c r="G40" s="6">
+      <c r="K40" s="6">
         <v>1</v>
       </c>
-      <c r="H40" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="I40" s="6">
-        <v>68000001</v>
-      </c>
-      <c r="J40" s="6">
-        <v>0</v>
-      </c>
-      <c r="K40" s="6">
-        <v>0</v>
-      </c>
       <c r="L40" s="6">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="M40" s="6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="41" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="6">
-        <v>2002</v>
+        <v>1037</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="E41" s="6">
-        <v>2003</v>
+        <v>1038</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G41" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H41" s="6">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I41" s="6">
-        <v>68000002</v>
+        <v>1053</v>
       </c>
       <c r="J41" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="6">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="M41" s="6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="42" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="6">
-        <v>2003</v>
+        <v>1038</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="E42" s="6">
-        <v>2004</v>
-      </c>
-      <c r="F42" s="6">
-        <v>2</v>
+        <v>1039</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="G42" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H42" s="6">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I42" s="6">
-        <v>68000003</v>
+        <v>1055</v>
       </c>
       <c r="J42" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="6">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="M42" s="6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="43" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="6">
-        <v>2004</v>
+        <v>1039</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="E43" s="6">
-        <v>2005</v>
+        <v>1039</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I43" s="6">
+        <v>1054</v>
+      </c>
+      <c r="J43" s="6">
         <v>1</v>
       </c>
-      <c r="H43" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="I43" s="6">
-        <v>68000004</v>
-      </c>
-      <c r="J43" s="6">
-        <v>0</v>
-      </c>
       <c r="K43" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="6">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="M43" s="6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="44" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="6">
-        <v>2005</v>
+        <v>1039</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="E44" s="6">
-        <v>2006</v>
+        <v>0</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
       </c>
       <c r="H44" s="6">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I44" s="6">
-        <v>68000005</v>
+        <v>1052</v>
       </c>
       <c r="J44" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="6">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E45" s="6">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="F45" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G45" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="6">
         <v>0.01</v>
       </c>
       <c r="I45" s="6">
-        <v>68000006</v>
+        <v>68000001</v>
       </c>
       <c r="J45" s="6">
         <v>0</v>
@@ -4444,33 +4464,33 @@
         <v>0</v>
       </c>
       <c r="L45" s="6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M45" s="6">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="46" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="6">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E46" s="6">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G46" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H46" s="6">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I46" s="6">
-        <v>68000007</v>
+        <v>68000002</v>
       </c>
       <c r="J46" s="6">
         <v>0</v>
@@ -4479,68 +4499,68 @@
         <v>0</v>
       </c>
       <c r="L46" s="6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M46" s="6">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="47" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="6">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E47" s="6">
-        <v>2009</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>26</v>
+        <v>2004</v>
+      </c>
+      <c r="F47" s="6">
+        <v>2</v>
       </c>
       <c r="G47" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H47" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="I47" s="6">
+        <v>68000003</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
+      <c r="L47" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="M47" s="6">
         <v>0.03</v>
-      </c>
-      <c r="I47" s="6">
-        <v>68000008</v>
-      </c>
-      <c r="J47" s="6">
-        <v>0</v>
-      </c>
-      <c r="K47" s="6">
-        <v>0</v>
-      </c>
-      <c r="L47" s="6">
-        <v>0</v>
-      </c>
-      <c r="M47" s="6">
-        <v>0</v>
       </c>
     </row>
     <row r="48" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="6">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E48" s="6">
-        <v>2010</v>
-      </c>
-      <c r="F48" s="6">
-        <v>6</v>
+        <v>2005</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="G48" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="6">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I48" s="6">
-        <v>68000009</v>
+        <v>68000004</v>
       </c>
       <c r="J48" s="6">
         <v>0</v>
@@ -4549,21 +4569,21 @@
         <v>0</v>
       </c>
       <c r="L48" s="6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M48" s="6">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="49" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="6">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E49" s="6">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>26</v>
@@ -4575,7 +4595,7 @@
         <v>0.03</v>
       </c>
       <c r="I49" s="6">
-        <v>68000010</v>
+        <v>68000005</v>
       </c>
       <c r="J49" s="6">
         <v>0</v>
@@ -4592,25 +4612,25 @@
     </row>
     <row r="50" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="6">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E50" s="6">
-        <v>2012</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>26</v>
+        <v>2007</v>
+      </c>
+      <c r="F50" s="6">
+        <v>3</v>
       </c>
       <c r="G50" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H50" s="6">
         <v>0.01</v>
       </c>
       <c r="I50" s="6">
-        <v>68000011</v>
+        <v>68000006</v>
       </c>
       <c r="J50" s="6">
         <v>0</v>
@@ -4627,25 +4647,25 @@
     </row>
     <row r="51" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="6">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E51" s="6">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G51" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I51" s="6">
-        <v>68000012</v>
+        <v>68000007</v>
       </c>
       <c r="J51" s="6">
         <v>0</v>
@@ -4662,25 +4682,25 @@
     </row>
     <row r="52" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="6">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E52" s="6">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G52" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H52" s="6">
         <v>0.03</v>
       </c>
       <c r="I52" s="6">
-        <v>68000013</v>
+        <v>68000008</v>
       </c>
       <c r="J52" s="6">
         <v>0</v>
@@ -4697,25 +4717,25 @@
     </row>
     <row r="53" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="6">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E53" s="6">
-        <v>2015</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>26</v>
+        <v>2010</v>
+      </c>
+      <c r="F53" s="6">
+        <v>6</v>
       </c>
       <c r="G53" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I53" s="6">
-        <v>68000014</v>
+        <v>68000009</v>
       </c>
       <c r="J53" s="6">
         <v>0</v>
@@ -4732,25 +4752,25 @@
     </row>
     <row r="54" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="6">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E54" s="6">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G54" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H54" s="6">
         <v>0.03</v>
       </c>
       <c r="I54" s="6">
-        <v>68000015</v>
+        <v>68000010</v>
       </c>
       <c r="J54" s="6">
         <v>0</v>
@@ -4767,25 +4787,25 @@
     </row>
     <row r="55" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="6">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E55" s="6">
-        <v>2017</v>
-      </c>
-      <c r="F55" s="6">
-        <v>1</v>
+        <v>2012</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="G55" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H55" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I55" s="6">
-        <v>68000016</v>
+        <v>68000011</v>
       </c>
       <c r="J55" s="6">
         <v>0</v>
@@ -4802,25 +4822,25 @@
     </row>
     <row r="56" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="6">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E56" s="6">
-        <v>2101</v>
+        <v>2013</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G56" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H56" s="6">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I56" s="6">
-        <v>68000017</v>
+        <v>68000012</v>
       </c>
       <c r="J56" s="6">
         <v>0</v>
@@ -4835,27 +4855,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="6">
-        <v>2101</v>
+        <v>2013</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="E57" s="6">
-        <v>2102</v>
+        <v>2014</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G57" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H57" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I57" s="6">
-        <v>68000101</v>
+        <v>68000013</v>
       </c>
       <c r="J57" s="6">
         <v>0</v>
@@ -4870,27 +4890,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="6">
-        <v>2102</v>
+        <v>2014</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E58" s="6">
-        <v>2103</v>
+        <v>2015</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G58" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H58" s="6">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I58" s="6">
-        <v>68000102</v>
+        <v>68000014</v>
       </c>
       <c r="J58" s="6">
         <v>0</v>
@@ -4905,27 +4925,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="6">
-        <v>2103</v>
+        <v>2015</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E59" s="6">
-        <v>2104</v>
+        <v>2016</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G59" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H59" s="6">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I59" s="6">
-        <v>68000103</v>
+        <v>68000015</v>
       </c>
       <c r="J59" s="6">
         <v>0</v>
@@ -4940,27 +4960,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="6">
-        <v>2104</v>
+        <v>2016</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E60" s="6">
-        <v>2105</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>26</v>
+        <v>2017</v>
+      </c>
+      <c r="F60" s="6">
+        <v>1</v>
       </c>
       <c r="G60" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H60" s="6">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I60" s="6">
-        <v>68000104</v>
+        <v>68000016</v>
       </c>
       <c r="J60" s="6">
         <v>0</v>
@@ -4975,27 +4995,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="6">
-        <v>2105</v>
+        <v>2017</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E61" s="6">
-        <v>2106</v>
+        <v>2101</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G61" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H61" s="6">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I61" s="6">
-        <v>68000105</v>
+        <v>68000017</v>
       </c>
       <c r="J61" s="6">
         <v>0</v>
@@ -5012,13 +5032,13 @@
     </row>
     <row r="62" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="6">
-        <v>2106</v>
+        <v>2101</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="E62" s="6">
-        <v>2107</v>
+        <v>2102</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>26</v>
@@ -5030,7 +5050,7 @@
         <v>0.02</v>
       </c>
       <c r="I62" s="6">
-        <v>68000106</v>
+        <v>68000101</v>
       </c>
       <c r="J62" s="6">
         <v>0</v>
@@ -5047,25 +5067,25 @@
     </row>
     <row r="63" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="6">
-        <v>2107</v>
+        <v>2102</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E63" s="6">
-        <v>2108</v>
+        <v>2103</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G63" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="6">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I63" s="6">
-        <v>68000107</v>
+        <v>68000102</v>
       </c>
       <c r="J63" s="6">
         <v>0</v>
@@ -5082,25 +5102,25 @@
     </row>
     <row r="64" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="6">
-        <v>2108</v>
+        <v>2103</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E64" s="6">
-        <v>2109</v>
+        <v>2104</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G64" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H64" s="6">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I64" s="6">
-        <v>68000108</v>
+        <v>68000103</v>
       </c>
       <c r="J64" s="6">
         <v>0</v>
@@ -5117,13 +5137,13 @@
     </row>
     <row r="65" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="6">
-        <v>2109</v>
+        <v>2104</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E65" s="6">
-        <v>2110</v>
+        <v>2105</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>26</v>
@@ -5132,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="H65" s="6">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I65" s="6">
-        <v>68000109</v>
+        <v>68000104</v>
       </c>
       <c r="J65" s="6">
         <v>0</v>
@@ -5152,25 +5172,25 @@
     </row>
     <row r="66" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="6">
-        <v>2110</v>
+        <v>2105</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E66" s="6">
-        <v>2111</v>
+        <v>2106</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G66" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H66" s="6">
         <v>0.02</v>
       </c>
       <c r="I66" s="6">
-        <v>68000110</v>
+        <v>68000105</v>
       </c>
       <c r="J66" s="6">
         <v>0</v>
@@ -5187,25 +5207,25 @@
     </row>
     <row r="67" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="6">
-        <v>2111</v>
+        <v>2106</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E67" s="6">
-        <v>2112</v>
+        <v>2107</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G67" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H67" s="6">
         <v>0.02</v>
       </c>
       <c r="I67" s="6">
-        <v>68000111</v>
+        <v>68000106</v>
       </c>
       <c r="J67" s="6">
         <v>0</v>
@@ -5222,25 +5242,25 @@
     </row>
     <row r="68" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="6">
-        <v>2112</v>
+        <v>2107</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="E68" s="6">
-        <v>2113</v>
+        <v>2108</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G68" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H68" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I68" s="6">
-        <v>68000112</v>
+        <v>68000107</v>
       </c>
       <c r="J68" s="6">
         <v>0</v>
@@ -5257,36 +5277,211 @@
     </row>
     <row r="69" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="6">
-        <v>2113</v>
+        <v>2108</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E69" s="6">
-        <v>0</v>
+        <v>2109</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G69" s="6">
+        <v>0</v>
+      </c>
+      <c r="H69" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I69" s="6">
+        <v>68000108</v>
+      </c>
+      <c r="J69" s="6">
+        <v>0</v>
+      </c>
+      <c r="K69" s="6">
+        <v>0</v>
+      </c>
+      <c r="L69" s="6">
+        <v>0</v>
+      </c>
+      <c r="M69" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="6">
+        <v>2109</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" s="6">
+        <v>2110</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="6">
+        <v>0</v>
+      </c>
+      <c r="H70" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="I70" s="6">
+        <v>68000109</v>
+      </c>
+      <c r="J70" s="6">
+        <v>0</v>
+      </c>
+      <c r="K70" s="6">
+        <v>0</v>
+      </c>
+      <c r="L70" s="6">
+        <v>0</v>
+      </c>
+      <c r="M70" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="6">
+        <v>2110</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71" s="6">
+        <v>2111</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" s="6">
+        <v>3</v>
+      </c>
+      <c r="H71" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I71" s="6">
+        <v>68000110</v>
+      </c>
+      <c r="J71" s="6">
+        <v>0</v>
+      </c>
+      <c r="K71" s="6">
+        <v>0</v>
+      </c>
+      <c r="L71" s="6">
+        <v>0</v>
+      </c>
+      <c r="M71" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="6">
+        <v>2111</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="6">
+        <v>2112</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="6">
+        <v>4</v>
+      </c>
+      <c r="H72" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I72" s="6">
+        <v>68000111</v>
+      </c>
+      <c r="J72" s="6">
+        <v>0</v>
+      </c>
+      <c r="K72" s="6">
+        <v>0</v>
+      </c>
+      <c r="L72" s="6">
+        <v>0</v>
+      </c>
+      <c r="M72" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="6">
+        <v>2112</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73" s="6">
+        <v>2113</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" s="6">
+        <v>5</v>
+      </c>
+      <c r="H73" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I73" s="6">
+        <v>68000112</v>
+      </c>
+      <c r="J73" s="6">
+        <v>0</v>
+      </c>
+      <c r="K73" s="6">
+        <v>0</v>
+      </c>
+      <c r="L73" s="6">
+        <v>0</v>
+      </c>
+      <c r="M73" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="6">
+        <v>2113</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="6">
         <v>6</v>
       </c>
-      <c r="H69" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="I69" s="6">
+      <c r="H74" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I74" s="6">
         <v>68000113</v>
       </c>
-      <c r="J69" s="6">
-        <v>0</v>
-      </c>
-      <c r="K69" s="6">
-        <v>0</v>
-      </c>
-      <c r="L69" s="6">
-        <v>0</v>
-      </c>
-      <c r="M69" s="6">
+      <c r="J74" s="6">
+        <v>0</v>
+      </c>
+      <c r="K74" s="6">
+        <v>0</v>
+      </c>
+      <c r="L74" s="6">
+        <v>0</v>
+      </c>
+      <c r="M74" s="6">
         <v>0</v>
       </c>
     </row>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF65365-5DDC-4E3D-8A04-A30F9D83BAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABF757B-9A12-4B0B-A603-E57B650AC05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HideProListProto" sheetId="1" r:id="rId1"/>
@@ -2946,7 +2946,7 @@
   <dimension ref="C1:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4373,7 +4373,7 @@
         <v>94</v>
       </c>
       <c r="E43" s="6">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>34</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="44" spans="3:13" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="6">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>95</v>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABF757B-9A12-4B0B-A603-E57B650AC05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334917F8-7486-4226-BEDE-6CD686740CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="225" windowWidth="27045" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HideProListProto" sheetId="1" r:id="rId1"/>
@@ -2945,8 +2945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4280,7 +4280,7 @@
         <v>0.02</v>
       </c>
       <c r="I40" s="6">
-        <v>1051</v>
+        <v>105101</v>
       </c>
       <c r="J40" s="6">
         <v>1</v>
@@ -4315,7 +4315,7 @@
         <v>0.02</v>
       </c>
       <c r="I41" s="6">
-        <v>1053</v>
+        <v>105301</v>
       </c>
       <c r="J41" s="6">
         <v>1</v>
@@ -4350,7 +4350,7 @@
         <v>0.02</v>
       </c>
       <c r="I42" s="6">
-        <v>1055</v>
+        <v>105501</v>
       </c>
       <c r="J42" s="6">
         <v>1</v>
@@ -4385,7 +4385,7 @@
         <v>0.02</v>
       </c>
       <c r="I43" s="6">
-        <v>1054</v>
+        <v>105401</v>
       </c>
       <c r="J43" s="6">
         <v>1</v>
@@ -4420,7 +4420,7 @@
         <v>0.02</v>
       </c>
       <c r="I44" s="6">
-        <v>1052</v>
+        <v>105201</v>
       </c>
       <c r="J44" s="6">
         <v>1</v>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334917F8-7486-4226-BEDE-6CD686740CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6DE630-D0DA-4C74-BC3A-57B030686975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="705" yWindow="225" windowWidth="27045" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2946,7 +2946,7 @@
   <dimension ref="C1:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6DE630-D0DA-4C74-BC3A-57B030686975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A113B8D-3FBD-41AF-8FC5-04EF00850A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="225" windowWidth="27045" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HideProListProto" sheetId="1" r:id="rId1"/>
@@ -228,318 +228,319 @@
     <t>重击附加伤害</t>
   </si>
   <si>
+    <t>忽视目标魔防值</t>
+  </si>
+  <si>
+    <t>攻击穿透</t>
+  </si>
+  <si>
+    <t>魔法穿透</t>
+  </si>
+  <si>
+    <t>暴击等级</t>
+  </si>
+  <si>
+    <t>命中等级</t>
+  </si>
+  <si>
+    <t>闪避等级</t>
+  </si>
+  <si>
+    <t>下一ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NtxtID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerPro</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropertyValueMin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否根据等级成长</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IfEquipLvUp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗炼属性出现部位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipSpace</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚弱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏属性最小值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropertyType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HideProValueType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11</t>
+  </si>
+  <si>
+    <t>幸运值</t>
+  </si>
+  <si>
+    <t>抗暴等级</t>
+  </si>
+  <si>
+    <t>暴击概率</t>
+  </si>
+  <si>
+    <t>命中概率</t>
+  </si>
+  <si>
+    <t>闪避概率</t>
+  </si>
+  <si>
+    <t>抗暴概率</t>
+  </si>
+  <si>
+    <t>物理伤害</t>
+  </si>
+  <si>
+    <t>魔法伤害</t>
+  </si>
+  <si>
+    <t>物理减免</t>
+  </si>
+  <si>
+    <t>魔法减免</t>
+  </si>
+  <si>
+    <t>伤害加成</t>
+  </si>
+  <si>
+    <t>伤害减免</t>
+  </si>
+  <si>
+    <t>真实伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击领主物理伤害加成</t>
+  </si>
+  <si>
+    <t>攻击领主魔法伤害加成</t>
+  </si>
+  <si>
+    <t>受到领主物理攻击减免</t>
+  </si>
+  <si>
+    <t>受到领主魔法攻击减免</t>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物防</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔防</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英勇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奋力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedXiLianLv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能冷却缩减</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要洗炼等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验加成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使复苏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>溅射</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助出战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不坏之身</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>渗透之伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓慢</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅捷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>百发百中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神集中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>招摇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐匿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽视目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪婪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>化解</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍宝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>简易</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜算</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无级别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石专精</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗恢复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击之手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御之手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复之手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>急速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>忽视目标防御值</t>
-  </si>
-  <si>
-    <t>忽视目标魔防值</t>
-  </si>
-  <si>
-    <t>攻击穿透</t>
-  </si>
-  <si>
-    <t>魔法穿透</t>
-  </si>
-  <si>
-    <t>暴击等级</t>
-  </si>
-  <si>
-    <t>命中等级</t>
-  </si>
-  <si>
-    <t>闪避等级</t>
-  </si>
-  <si>
-    <t>下一ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NtxtID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TriggerPro</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PropertyValueMin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否根据等级成长</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IfEquipLvUp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗炼属性出现部位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EquipSpace</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神农</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚弱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐藏属性最小值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PropertyType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HideProValueType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11</t>
-  </si>
-  <si>
-    <t>幸运值</t>
-  </si>
-  <si>
-    <t>抗暴等级</t>
-  </si>
-  <si>
-    <t>暴击概率</t>
-  </si>
-  <si>
-    <t>命中概率</t>
-  </si>
-  <si>
-    <t>闪避概率</t>
-  </si>
-  <si>
-    <t>抗暴概率</t>
-  </si>
-  <si>
-    <t>物理伤害</t>
-  </si>
-  <si>
-    <t>魔法伤害</t>
-  </si>
-  <si>
-    <t>物理减免</t>
-  </si>
-  <si>
-    <t>魔法减免</t>
-  </si>
-  <si>
-    <t>伤害加成</t>
-  </si>
-  <si>
-    <t>伤害减免</t>
-  </si>
-  <si>
-    <t>真实伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击领主物理伤害加成</t>
-  </si>
-  <si>
-    <t>攻击领主魔法伤害加成</t>
-  </si>
-  <si>
-    <t>受到领主物理攻击减免</t>
-  </si>
-  <si>
-    <t>受到领主魔法攻击减免</t>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>物防</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔防</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>英勇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奋力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeedXiLianLv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能冷却缩减</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要洗炼等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验加成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>天使复苏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>溅射</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>协助出战</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不坏之身</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>渗透之伤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓慢</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>迅捷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>百发百中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>精神集中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>招摇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐匿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽视目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>贪婪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>化解</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲刺</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>珍宝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>简易</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>极品</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>胜算</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无级别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石专精</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗恢复</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击之手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御之手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复之手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>急速</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2945,8 +2946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2967,19 +2968,19 @@
     <row r="2" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="3:13" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>4</v>
@@ -2988,13 +2989,13 @@
         <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>6</v>
@@ -3002,34 +3003,34 @@
     </row>
     <row r="4" spans="3:13" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>7</v>
@@ -3046,13 +3047,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>0</v>
@@ -3075,13 +3076,13 @@
         <v>1001</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="6">
         <v>1002</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -3110,13 +3111,13 @@
         <v>1002</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="6">
         <v>1003</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -3145,13 +3146,13 @@
         <v>1003</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="6">
         <v>1004</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -3180,13 +3181,13 @@
         <v>1004</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="6">
         <v>1005</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -3221,7 +3222,7 @@
         <v>1006</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
@@ -3256,7 +3257,7 @@
         <v>1007</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -3291,7 +3292,7 @@
         <v>1008</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -3320,13 +3321,13 @@
         <v>1008</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="6">
         <v>1009</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -3355,13 +3356,13 @@
         <v>1009</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="6">
         <v>1010</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -3390,13 +3391,13 @@
         <v>1010</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="E15" s="6">
         <v>1011</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
@@ -3425,13 +3426,13 @@
         <v>1011</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="6">
         <v>1012</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -3460,13 +3461,13 @@
         <v>1012</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="6">
         <v>1013</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
@@ -3495,13 +3496,13 @@
         <v>1013</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="6">
         <v>1014</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -3530,13 +3531,13 @@
         <v>1014</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="6">
         <v>1015</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
@@ -3565,13 +3566,13 @@
         <v>1015</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="6">
         <v>1016</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -3600,13 +3601,13 @@
         <v>1016</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="6">
         <v>1017</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
@@ -3635,13 +3636,13 @@
         <v>1017</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="6">
         <v>1018</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" s="6">
         <v>0</v>
@@ -3670,13 +3671,13 @@
         <v>1018</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="6">
         <v>1019</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>
@@ -3705,13 +3706,13 @@
         <v>1019</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="6">
         <v>1020</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="6">
         <v>0</v>
@@ -3740,13 +3741,13 @@
         <v>1020</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" s="6">
         <v>1021</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" s="6">
         <v>0</v>
@@ -3775,13 +3776,13 @@
         <v>1021</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="6">
         <v>1022</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
@@ -3810,13 +3811,13 @@
         <v>1022</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="6">
         <v>1023</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" s="6">
         <v>0</v>
@@ -3845,13 +3846,13 @@
         <v>1023</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="6">
         <v>1024</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" s="6">
         <v>0</v>
@@ -3880,13 +3881,13 @@
         <v>1024</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" s="6">
         <v>1025</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" s="6">
         <v>0</v>
@@ -3915,13 +3916,13 @@
         <v>1025</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" s="6">
         <v>1026</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" s="6">
         <v>0</v>
@@ -3950,13 +3951,13 @@
         <v>1026</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" s="6">
         <v>1027</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
@@ -3985,13 +3986,13 @@
         <v>1027</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="6">
         <v>1028</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" s="6">
         <v>0</v>
@@ -4020,13 +4021,13 @@
         <v>1028</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="6">
         <v>1030</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -4055,13 +4056,13 @@
         <v>1030</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" s="6">
         <v>1031</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -4090,13 +4091,13 @@
         <v>1031</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E35" s="6">
         <v>1032</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G35" s="6">
         <v>0</v>
@@ -4125,13 +4126,13 @@
         <v>1032</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E36" s="6">
         <v>1033</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36" s="6">
         <v>0</v>
@@ -4160,13 +4161,13 @@
         <v>1033</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E37" s="6">
         <v>1034</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
@@ -4195,13 +4196,13 @@
         <v>1034</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38" s="6">
         <v>1035</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G38" s="6">
         <v>0</v>
@@ -4230,13 +4231,13 @@
         <v>1035</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E39" s="6">
         <v>1036</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G39" s="6">
         <v>0</v>
@@ -4265,13 +4266,13 @@
         <v>1036</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40" s="6">
         <v>1037</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G40" s="6">
         <v>0</v>
@@ -4300,13 +4301,13 @@
         <v>1037</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="6">
         <v>1038</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" s="6">
         <v>0</v>
@@ -4335,13 +4336,13 @@
         <v>1038</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" s="6">
         <v>1039</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G42" s="6">
         <v>0</v>
@@ -4370,13 +4371,13 @@
         <v>1039</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E43" s="6">
         <v>1040</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G43" s="6">
         <v>0</v>
@@ -4405,13 +4406,13 @@
         <v>1040</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E44" s="6">
         <v>0</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
@@ -4440,7 +4441,7 @@
         <v>2001</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E45" s="6">
         <v>2002</v>
@@ -4475,13 +4476,13 @@
         <v>2002</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E46" s="6">
         <v>2003</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G46" s="6">
         <v>6</v>
@@ -4510,7 +4511,7 @@
         <v>2003</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E47" s="6">
         <v>2004</v>
@@ -4545,13 +4546,13 @@
         <v>2004</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E48" s="6">
         <v>2005</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G48" s="6">
         <v>1</v>
@@ -4580,13 +4581,13 @@
         <v>2005</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E49" s="6">
         <v>2006</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G49" s="6">
         <v>0</v>
@@ -4615,7 +4616,7 @@
         <v>2006</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E50" s="6">
         <v>2007</v>
@@ -4650,13 +4651,13 @@
         <v>2007</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E51" s="6">
         <v>2008</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G51" s="6">
         <v>2</v>
@@ -4685,13 +4686,13 @@
         <v>2008</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E52" s="6">
         <v>2009</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G52" s="6">
         <v>7</v>
@@ -4720,7 +4721,7 @@
         <v>2009</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E53" s="6">
         <v>2010</v>
@@ -4755,13 +4756,13 @@
         <v>2010</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E54" s="6">
         <v>2011</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G54" s="6">
         <v>0</v>
@@ -4790,13 +4791,13 @@
         <v>2011</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E55" s="6">
         <v>2012</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G55" s="6">
         <v>7</v>
@@ -4825,13 +4826,13 @@
         <v>2012</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E56" s="6">
         <v>2013</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G56" s="6">
         <v>3</v>
@@ -4860,13 +4861,13 @@
         <v>2013</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E57" s="6">
         <v>2014</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G57" s="6">
         <v>4</v>
@@ -4895,13 +4896,13 @@
         <v>2014</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E58" s="6">
         <v>2015</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G58" s="6">
         <v>3</v>
@@ -4930,13 +4931,13 @@
         <v>2015</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E59" s="6">
         <v>2016</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G59" s="6">
         <v>4</v>
@@ -4965,7 +4966,7 @@
         <v>2016</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E60" s="6">
         <v>2017</v>
@@ -5000,13 +5001,13 @@
         <v>2017</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E61" s="6">
         <v>2101</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G61" s="6">
         <v>5</v>
@@ -5035,13 +5036,13 @@
         <v>2101</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E62" s="6">
         <v>2102</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G62" s="6">
         <v>0</v>
@@ -5070,13 +5071,13 @@
         <v>2102</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E63" s="6">
         <v>2103</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G63" s="6">
         <v>1</v>
@@ -5105,13 +5106,13 @@
         <v>2103</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E64" s="6">
         <v>2104</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G64" s="6">
         <v>2</v>
@@ -5140,13 +5141,13 @@
         <v>2104</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E65" s="6">
         <v>2105</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G65" s="6">
         <v>0</v>
@@ -5175,13 +5176,13 @@
         <v>2105</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E66" s="6">
         <v>2106</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G66" s="6">
         <v>0</v>
@@ -5210,13 +5211,13 @@
         <v>2106</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E67" s="6">
         <v>2107</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G67" s="6">
         <v>0</v>
@@ -5245,13 +5246,13 @@
         <v>2107</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E68" s="6">
         <v>2108</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G68" s="6">
         <v>0</v>
@@ -5280,13 +5281,13 @@
         <v>2108</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E69" s="6">
         <v>2109</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G69" s="6">
         <v>0</v>
@@ -5315,13 +5316,13 @@
         <v>2109</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E70" s="6">
         <v>2110</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G70" s="6">
         <v>0</v>
@@ -5350,13 +5351,13 @@
         <v>2110</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E71" s="6">
         <v>2111</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G71" s="6">
         <v>3</v>
@@ -5385,13 +5386,13 @@
         <v>2111</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E72" s="6">
         <v>2112</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G72" s="6">
         <v>4</v>
@@ -5420,13 +5421,13 @@
         <v>2112</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E73" s="6">
         <v>2113</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G73" s="6">
         <v>5</v>
@@ -5455,13 +5456,13 @@
         <v>2113</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E74" s="6">
         <v>0</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G74" s="6">
         <v>6</v>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A113B8D-3FBD-41AF-8FC5-04EF00850A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC75D9E4-5D44-4D29-BD0B-123B6AD2712F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HideProListProto" sheetId="1" r:id="rId1"/>
@@ -2947,7 +2947,7 @@
   <dimension ref="C1:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3523,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3558,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3593,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3628,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC75D9E4-5D44-4D29-BD0B-123B6AD2712F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A3476D-F7FB-4BD5-9D85-ED565F8122D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="975" windowWidth="27045" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HideProListProto" sheetId="1" r:id="rId1"/>
@@ -2947,7 +2947,7 @@
   <dimension ref="C1:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -3,23 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A3476D-F7FB-4BD5-9D85-ED565F8122D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E953572-48CD-4D4C-892E-60A6C4164E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="975" windowWidth="27045" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HideProListProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -352,18 +343,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>攻击领主物理伤害加成</t>
-  </si>
-  <si>
-    <t>攻击领主魔法伤害加成</t>
-  </si>
-  <si>
-    <t>受到领主物理攻击减免</t>
-  </si>
-  <si>
-    <t>受到领主魔法攻击减免</t>
-  </si>
-  <si>
     <t>int[]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -541,6 +520,22 @@
   </si>
   <si>
     <t>忽视目标防御值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击领主物伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击领主魔伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>领主物攻减免</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>领主魔攻减免</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2946,8 +2941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2980,7 +2975,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>4</v>
@@ -3015,7 +3010,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>19</v>
@@ -3047,10 +3042,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>31</v>
@@ -3076,7 +3071,7 @@
         <v>1001</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E6" s="6">
         <v>1002</v>
@@ -3111,7 +3106,7 @@
         <v>1002</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E7" s="6">
         <v>1003</v>
@@ -3146,7 +3141,7 @@
         <v>1003</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E8" s="6">
         <v>1004</v>
@@ -3181,7 +3176,7 @@
         <v>1004</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E9" s="6">
         <v>1005</v>
@@ -3228,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I10" s="6">
         <v>110101</v>
@@ -3263,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I11" s="6">
         <v>110201</v>
@@ -3298,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I12" s="6">
         <v>202101</v>
@@ -3333,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I13" s="6">
         <v>110301</v>
@@ -3356,7 +3351,7 @@
         <v>1009</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E14" s="6">
         <v>1010</v>
@@ -3368,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I14" s="6">
         <v>110501</v>
@@ -3391,7 +3386,7 @@
         <v>1010</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E15" s="6">
         <v>1011</v>
@@ -3403,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I15" s="6">
         <v>118101</v>
@@ -3438,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I16" s="6">
         <v>118201</v>
@@ -3473,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="6">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I17" s="6">
         <v>120101</v>
@@ -3508,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I18" s="6">
         <v>119101</v>
@@ -3543,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I19" s="6">
         <v>119301</v>
@@ -3578,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I20" s="6">
         <v>119401</v>
@@ -3613,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I21" s="6">
         <v>119201</v>
@@ -4056,7 +4051,7 @@
         <v>1030</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="E34" s="6">
         <v>1031</v>
@@ -4068,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I34" s="6">
         <v>203001</v>
@@ -4091,7 +4086,7 @@
         <v>1031</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="E35" s="6">
         <v>1032</v>
@@ -4103,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I35" s="6">
         <v>203101</v>
@@ -4126,7 +4121,7 @@
         <v>1032</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="E36" s="6">
         <v>1033</v>
@@ -4138,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I36" s="6">
         <v>203201</v>
@@ -4161,7 +4156,7 @@
         <v>1033</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="E37" s="6">
         <v>1034</v>
@@ -4173,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I37" s="6">
         <v>203301</v>
@@ -4196,7 +4191,7 @@
         <v>1034</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E38" s="6">
         <v>1035</v>
@@ -4231,7 +4226,7 @@
         <v>1035</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E39" s="6">
         <v>1036</v>
@@ -4266,7 +4261,7 @@
         <v>1036</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E40" s="6">
         <v>1037</v>
@@ -4301,7 +4296,7 @@
         <v>1037</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E41" s="6">
         <v>1038</v>
@@ -4336,7 +4331,7 @@
         <v>1038</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E42" s="6">
         <v>1039</v>
@@ -4371,7 +4366,7 @@
         <v>1039</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E43" s="6">
         <v>1040</v>
@@ -4406,7 +4401,7 @@
         <v>1040</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E44" s="6">
         <v>0</v>
@@ -4441,7 +4436,7 @@
         <v>2001</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E45" s="6">
         <v>2002</v>
@@ -4476,7 +4471,7 @@
         <v>2002</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E46" s="6">
         <v>2003</v>
@@ -4511,7 +4506,7 @@
         <v>2003</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E47" s="6">
         <v>2004</v>
@@ -4546,7 +4541,7 @@
         <v>2004</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E48" s="6">
         <v>2005</v>
@@ -4581,7 +4576,7 @@
         <v>2005</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E49" s="6">
         <v>2006</v>
@@ -4616,7 +4611,7 @@
         <v>2006</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E50" s="6">
         <v>2007</v>
@@ -4651,7 +4646,7 @@
         <v>2007</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E51" s="6">
         <v>2008</v>
@@ -4686,7 +4681,7 @@
         <v>2008</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E52" s="6">
         <v>2009</v>
@@ -4721,7 +4716,7 @@
         <v>2009</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E53" s="6">
         <v>2010</v>
@@ -4756,7 +4751,7 @@
         <v>2010</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E54" s="6">
         <v>2011</v>
@@ -4791,7 +4786,7 @@
         <v>2011</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E55" s="6">
         <v>2012</v>
@@ -4826,7 +4821,7 @@
         <v>2012</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E56" s="6">
         <v>2013</v>
@@ -4861,7 +4856,7 @@
         <v>2013</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E57" s="6">
         <v>2014</v>
@@ -4896,7 +4891,7 @@
         <v>2014</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E58" s="6">
         <v>2015</v>
@@ -4931,7 +4926,7 @@
         <v>2015</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E59" s="6">
         <v>2016</v>
@@ -4966,7 +4961,7 @@
         <v>2016</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E60" s="6">
         <v>2017</v>
@@ -5001,7 +4996,7 @@
         <v>2017</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E61" s="6">
         <v>2101</v>
@@ -5071,7 +5066,7 @@
         <v>2102</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E63" s="6">
         <v>2103</v>
@@ -5106,7 +5101,7 @@
         <v>2103</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E64" s="6">
         <v>2104</v>
@@ -5141,7 +5136,7 @@
         <v>2104</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E65" s="6">
         <v>2105</v>
@@ -5176,7 +5171,7 @@
         <v>2105</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E66" s="6">
         <v>2106</v>
@@ -5211,7 +5206,7 @@
         <v>2106</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E67" s="6">
         <v>2107</v>
@@ -5281,7 +5276,7 @@
         <v>2108</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E69" s="6">
         <v>2109</v>
@@ -5316,7 +5311,7 @@
         <v>2109</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E70" s="6">
         <v>2110</v>
@@ -5351,7 +5346,7 @@
         <v>2110</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E71" s="6">
         <v>2111</v>
@@ -5386,7 +5381,7 @@
         <v>2111</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E72" s="6">
         <v>2112</v>
@@ -5421,7 +5416,7 @@
         <v>2112</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E73" s="6">
         <v>2113</v>
@@ -5456,7 +5451,7 @@
         <v>2113</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E74" s="6">
         <v>0</v>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E953572-48CD-4D4C-892E-60A6C4164E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E01E438-70CB-4479-AE2E-D59F424AC370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HideProListProto" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="100">
   <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -536,6 +536,22 @@
   </si>
   <si>
     <t>领主魔攻减免</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀类武器攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑类武器攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法杖武器攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法书武器攻击</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2939,10 +2955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:M74"/>
+  <dimension ref="C1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4404,7 +4420,7 @@
         <v>90</v>
       </c>
       <c r="E44" s="6">
-        <v>0</v>
+        <v>1041</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>33</v>
@@ -4431,27 +4447,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="6">
-        <v>2001</v>
+        <v>1041</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E45" s="6">
-        <v>2002</v>
-      </c>
-      <c r="F45" s="6">
-        <v>1</v>
+        <v>1042</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="G45" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="6">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I45" s="6">
-        <v>68000001</v>
+        <v>205101</v>
       </c>
       <c r="J45" s="6">
         <v>0</v>
@@ -4463,30 +4479,30 @@
         <v>1E-3</v>
       </c>
       <c r="M45" s="6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="46" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="6">
-        <v>2002</v>
+        <v>1042</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E46" s="6">
-        <v>2003</v>
+        <v>1043</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G46" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H46" s="6">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I46" s="6">
-        <v>68000002</v>
+        <v>205201</v>
       </c>
       <c r="J46" s="6">
         <v>0</v>
@@ -4498,30 +4514,30 @@
         <v>1E-3</v>
       </c>
       <c r="M46" s="6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="47" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="6">
-        <v>2003</v>
+        <v>1043</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="E47" s="6">
-        <v>2004</v>
-      </c>
-      <c r="F47" s="6">
-        <v>2</v>
+        <v>1044</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="G47" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H47" s="6">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I47" s="6">
-        <v>68000003</v>
+        <v>205301</v>
       </c>
       <c r="J47" s="6">
         <v>0</v>
@@ -4533,30 +4549,30 @@
         <v>1E-3</v>
       </c>
       <c r="M47" s="6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="48" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="6">
-        <v>2004</v>
+        <v>1044</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="E48" s="6">
-        <v>2005</v>
+        <v>0</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G48" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="6">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I48" s="6">
-        <v>68000004</v>
+        <v>205401</v>
       </c>
       <c r="J48" s="6">
         <v>0</v>
@@ -4568,65 +4584,65 @@
         <v>1E-3</v>
       </c>
       <c r="M48" s="6">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="49" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="6">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E49" s="6">
-        <v>2006</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>25</v>
+        <v>2002</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1</v>
       </c>
       <c r="G49" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="I49" s="6">
+        <v>68000001</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0</v>
+      </c>
+      <c r="L49" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="M49" s="6">
         <v>0.03</v>
-      </c>
-      <c r="I49" s="6">
-        <v>68000005</v>
-      </c>
-      <c r="J49" s="6">
-        <v>0</v>
-      </c>
-      <c r="K49" s="6">
-        <v>0</v>
-      </c>
-      <c r="L49" s="6">
-        <v>0</v>
-      </c>
-      <c r="M49" s="6">
-        <v>0</v>
       </c>
     </row>
     <row r="50" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="6">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E50" s="6">
-        <v>2007</v>
-      </c>
-      <c r="F50" s="6">
-        <v>3</v>
+        <v>2003</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G50" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H50" s="6">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I50" s="6">
-        <v>68000006</v>
+        <v>68000002</v>
       </c>
       <c r="J50" s="6">
         <v>0</v>
@@ -4635,33 +4651,33 @@
         <v>0</v>
       </c>
       <c r="L50" s="6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M50" s="6">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="51" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="6">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E51" s="6">
-        <v>2008</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>25</v>
+        <v>2004</v>
+      </c>
+      <c r="F51" s="6">
+        <v>2</v>
       </c>
       <c r="G51" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H51" s="6">
         <v>0.01</v>
       </c>
       <c r="I51" s="6">
-        <v>68000007</v>
+        <v>68000003</v>
       </c>
       <c r="J51" s="6">
         <v>0</v>
@@ -4670,33 +4686,33 @@
         <v>0</v>
       </c>
       <c r="L51" s="6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M51" s="6">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="52" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="6">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E52" s="6">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G52" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H52" s="6">
         <v>0.03</v>
       </c>
       <c r="I52" s="6">
-        <v>68000008</v>
+        <v>68000004</v>
       </c>
       <c r="J52" s="6">
         <v>0</v>
@@ -4705,33 +4721,33 @@
         <v>0</v>
       </c>
       <c r="L52" s="6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M52" s="6">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="53" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="6">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E53" s="6">
-        <v>2010</v>
-      </c>
-      <c r="F53" s="6">
-        <v>6</v>
+        <v>2006</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G53" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H53" s="6">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I53" s="6">
-        <v>68000009</v>
+        <v>68000005</v>
       </c>
       <c r="J53" s="6">
         <v>0</v>
@@ -4748,25 +4764,25 @@
     </row>
     <row r="54" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="6">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E54" s="6">
-        <v>2011</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>25</v>
+        <v>2007</v>
+      </c>
+      <c r="F54" s="6">
+        <v>3</v>
       </c>
       <c r="G54" s="6">
         <v>0</v>
       </c>
       <c r="H54" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I54" s="6">
-        <v>68000010</v>
+        <v>68000006</v>
       </c>
       <c r="J54" s="6">
         <v>0</v>
@@ -4783,25 +4799,25 @@
     </row>
     <row r="55" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="6">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E55" s="6">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G55" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H55" s="6">
         <v>0.01</v>
       </c>
       <c r="I55" s="6">
-        <v>68000011</v>
+        <v>68000007</v>
       </c>
       <c r="J55" s="6">
         <v>0</v>
@@ -4818,25 +4834,25 @@
     </row>
     <row r="56" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="6">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E56" s="6">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G56" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H56" s="6">
         <v>0.03</v>
       </c>
       <c r="I56" s="6">
-        <v>68000012</v>
+        <v>68000008</v>
       </c>
       <c r="J56" s="6">
         <v>0</v>
@@ -4853,25 +4869,25 @@
     </row>
     <row r="57" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="6">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E57" s="6">
-        <v>2014</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>25</v>
+        <v>2010</v>
+      </c>
+      <c r="F57" s="6">
+        <v>6</v>
       </c>
       <c r="G57" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H57" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I57" s="6">
-        <v>68000013</v>
+        <v>68000009</v>
       </c>
       <c r="J57" s="6">
         <v>0</v>
@@ -4888,25 +4904,25 @@
     </row>
     <row r="58" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="6">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E58" s="6">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G58" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H58" s="6">
         <v>0.03</v>
       </c>
       <c r="I58" s="6">
-        <v>68000014</v>
+        <v>68000010</v>
       </c>
       <c r="J58" s="6">
         <v>0</v>
@@ -4923,25 +4939,25 @@
     </row>
     <row r="59" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="6">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E59" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G59" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H59" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I59" s="6">
-        <v>68000015</v>
+        <v>68000011</v>
       </c>
       <c r="J59" s="6">
         <v>0</v>
@@ -4958,25 +4974,25 @@
     </row>
     <row r="60" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E60" s="6">
-        <v>2017</v>
-      </c>
-      <c r="F60" s="6">
-        <v>1</v>
+        <v>2013</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G60" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H60" s="6">
         <v>0.03</v>
       </c>
       <c r="I60" s="6">
-        <v>68000016</v>
+        <v>68000012</v>
       </c>
       <c r="J60" s="6">
         <v>0</v>
@@ -4993,25 +5009,25 @@
     </row>
     <row r="61" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="6">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E61" s="6">
-        <v>2101</v>
+        <v>2014</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G61" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H61" s="6">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I61" s="6">
-        <v>68000017</v>
+        <v>68000013</v>
       </c>
       <c r="J61" s="6">
         <v>0</v>
@@ -5026,27 +5042,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="6">
-        <v>2101</v>
+        <v>2014</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E62" s="6">
-        <v>2102</v>
+        <v>2015</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G62" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H62" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I62" s="6">
-        <v>68000101</v>
+        <v>68000014</v>
       </c>
       <c r="J62" s="6">
         <v>0</v>
@@ -5061,62 +5077,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="6">
-        <v>2102</v>
+        <v>2015</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E63" s="6">
-        <v>2103</v>
+        <v>2016</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G63" s="6">
+        <v>4</v>
+      </c>
+      <c r="H63" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="I63" s="6">
+        <v>68000015</v>
+      </c>
+      <c r="J63" s="6">
+        <v>0</v>
+      </c>
+      <c r="K63" s="6">
+        <v>0</v>
+      </c>
+      <c r="L63" s="6">
+        <v>0</v>
+      </c>
+      <c r="M63" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64" s="6">
+        <v>2017</v>
+      </c>
+      <c r="F64" s="6">
         <v>1</v>
       </c>
-      <c r="H63" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="I63" s="6">
-        <v>68000102</v>
-      </c>
-      <c r="J63" s="6">
-        <v>0</v>
-      </c>
-      <c r="K63" s="6">
-        <v>0</v>
-      </c>
-      <c r="L63" s="6">
-        <v>0</v>
-      </c>
-      <c r="M63" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="6">
-        <v>2103</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E64" s="6">
-        <v>2104</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="G64" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H64" s="6">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I64" s="6">
-        <v>68000103</v>
+        <v>68000016</v>
       </c>
       <c r="J64" s="6">
         <v>0</v>
@@ -5131,27 +5147,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:13" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="6">
-        <v>2104</v>
+        <v>2017</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E65" s="6">
-        <v>2105</v>
+        <v>2101</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G65" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H65" s="6">
         <v>0.01</v>
       </c>
       <c r="I65" s="6">
-        <v>68000104</v>
+        <v>68000017</v>
       </c>
       <c r="J65" s="6">
         <v>0</v>
@@ -5168,13 +5184,13 @@
     </row>
     <row r="66" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="6">
-        <v>2105</v>
+        <v>2101</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="E66" s="6">
-        <v>2106</v>
+        <v>2102</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>25</v>
@@ -5186,7 +5202,7 @@
         <v>0.02</v>
       </c>
       <c r="I66" s="6">
-        <v>68000105</v>
+        <v>68000101</v>
       </c>
       <c r="J66" s="6">
         <v>0</v>
@@ -5203,25 +5219,25 @@
     </row>
     <row r="67" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="6">
-        <v>2106</v>
+        <v>2102</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E67" s="6">
-        <v>2107</v>
+        <v>2103</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G67" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="6">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I67" s="6">
-        <v>68000106</v>
+        <v>68000102</v>
       </c>
       <c r="J67" s="6">
         <v>0</v>
@@ -5238,25 +5254,25 @@
     </row>
     <row r="68" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="6">
-        <v>2107</v>
+        <v>2103</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="E68" s="6">
-        <v>2108</v>
+        <v>2104</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G68" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H68" s="6">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I68" s="6">
-        <v>68000107</v>
+        <v>68000103</v>
       </c>
       <c r="J68" s="6">
         <v>0</v>
@@ -5273,13 +5289,13 @@
     </row>
     <row r="69" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="6">
-        <v>2108</v>
+        <v>2104</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E69" s="6">
-        <v>2109</v>
+        <v>2105</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>25</v>
@@ -5288,10 +5304,10 @@
         <v>0</v>
       </c>
       <c r="H69" s="6">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I69" s="6">
-        <v>68000108</v>
+        <v>68000104</v>
       </c>
       <c r="J69" s="6">
         <v>0</v>
@@ -5308,13 +5324,13 @@
     </row>
     <row r="70" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="6">
-        <v>2109</v>
+        <v>2105</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E70" s="6">
-        <v>2110</v>
+        <v>2106</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>25</v>
@@ -5323,10 +5339,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="6">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I70" s="6">
-        <v>68000109</v>
+        <v>68000105</v>
       </c>
       <c r="J70" s="6">
         <v>0</v>
@@ -5343,25 +5359,25 @@
     </row>
     <row r="71" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="6">
-        <v>2110</v>
+        <v>2106</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E71" s="6">
-        <v>2111</v>
+        <v>2107</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G71" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H71" s="6">
         <v>0.02</v>
       </c>
       <c r="I71" s="6">
-        <v>68000110</v>
+        <v>68000106</v>
       </c>
       <c r="J71" s="6">
         <v>0</v>
@@ -5378,25 +5394,25 @@
     </row>
     <row r="72" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="6">
-        <v>2111</v>
+        <v>2107</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="E72" s="6">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G72" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H72" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I72" s="6">
-        <v>68000111</v>
+        <v>68000107</v>
       </c>
       <c r="J72" s="6">
         <v>0</v>
@@ -5413,25 +5429,25 @@
     </row>
     <row r="73" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="6">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E73" s="6">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G73" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H73" s="6">
         <v>0.02</v>
       </c>
       <c r="I73" s="6">
-        <v>68000112</v>
+        <v>68000108</v>
       </c>
       <c r="J73" s="6">
         <v>0</v>
@@ -5448,36 +5464,176 @@
     </row>
     <row r="74" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="6">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E74" s="6">
-        <v>0</v>
+        <v>2110</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G74" s="6">
+        <v>0</v>
+      </c>
+      <c r="H74" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="I74" s="6">
+        <v>68000109</v>
+      </c>
+      <c r="J74" s="6">
+        <v>0</v>
+      </c>
+      <c r="K74" s="6">
+        <v>0</v>
+      </c>
+      <c r="L74" s="6">
+        <v>0</v>
+      </c>
+      <c r="M74" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="6">
+        <v>2110</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E75" s="6">
+        <v>2111</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="6">
+        <v>3</v>
+      </c>
+      <c r="H75" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I75" s="6">
+        <v>68000110</v>
+      </c>
+      <c r="J75" s="6">
+        <v>0</v>
+      </c>
+      <c r="K75" s="6">
+        <v>0</v>
+      </c>
+      <c r="L75" s="6">
+        <v>0</v>
+      </c>
+      <c r="M75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="6">
+        <v>2111</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76" s="6">
+        <v>2112</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" s="6">
+        <v>4</v>
+      </c>
+      <c r="H76" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I76" s="6">
+        <v>68000111</v>
+      </c>
+      <c r="J76" s="6">
+        <v>0</v>
+      </c>
+      <c r="K76" s="6">
+        <v>0</v>
+      </c>
+      <c r="L76" s="6">
+        <v>0</v>
+      </c>
+      <c r="M76" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="6">
+        <v>2112</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E77" s="6">
+        <v>2113</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" s="6">
+        <v>5</v>
+      </c>
+      <c r="H77" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I77" s="6">
+        <v>68000112</v>
+      </c>
+      <c r="J77" s="6">
+        <v>0</v>
+      </c>
+      <c r="K77" s="6">
+        <v>0</v>
+      </c>
+      <c r="L77" s="6">
+        <v>0</v>
+      </c>
+      <c r="M77" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="6">
+        <v>2113</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E78" s="6">
+        <v>0</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="6">
         <v>6</v>
       </c>
-      <c r="H74" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="I74" s="6">
+      <c r="H78" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I78" s="6">
         <v>68000113</v>
       </c>
-      <c r="J74" s="6">
-        <v>0</v>
-      </c>
-      <c r="K74" s="6">
-        <v>0</v>
-      </c>
-      <c r="L74" s="6">
-        <v>0</v>
-      </c>
-      <c r="M74" s="6">
+      <c r="J78" s="6">
+        <v>0</v>
+      </c>
+      <c r="K78" s="6">
+        <v>0</v>
+      </c>
+      <c r="L78" s="6">
+        <v>0</v>
+      </c>
+      <c r="M78" s="6">
         <v>0</v>
       </c>
     </row>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E01E438-70CB-4479-AE2E-D59F424AC370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48642A5-3853-4ACC-8CB7-34003EA9D0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="30930" yWindow="2580" windowWidth="23730" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HideProListProto" sheetId="1" r:id="rId1"/>
@@ -2957,8 +2957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>Id</t>
   </si>
@@ -308,6 +308,9 @@
     <t>隐藏属性最大值</t>
   </si>
   <si>
+    <t>附加战力</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -336,6 +339,9 @@
   </si>
   <si>
     <t>PropertyValueMax</t>
+  </si>
+  <si>
+    <t>AddFightValue</t>
   </si>
   <si>
     <t>int</t>
@@ -2931,10 +2937,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="C1:M78"/>
+  <dimension ref="C1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2947,11 +2953,12 @@
     <col min="9" max="9" width="12.75" customWidth="1"/>
     <col min="10" max="11" width="15" customWidth="1"/>
     <col min="12" max="13" width="17.125" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.1" customHeight="1"/>
     <row r="2" ht="20.1" customHeight="1"/>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2985,89 +2992,98 @@
       <c r="M3" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+        <v>20</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="H5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="M5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+        <v>23</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C6" s="7">
         <v>1001</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="7">
         <v>1002</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -3090,19 +3106,22 @@
       <c r="M6" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C7" s="7">
         <v>1002</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="7">
         <v>1003</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -3125,19 +3144,22 @@
       <c r="M7" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C8" s="7">
         <v>1003</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="7">
         <v>1004</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -3160,19 +3182,22 @@
       <c r="M8" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C9" s="7">
         <v>1004</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" s="7">
         <v>1005</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -3195,19 +3220,22 @@
       <c r="M9" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C10" s="7">
         <v>1005</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" s="7">
         <v>1006</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -3230,19 +3258,22 @@
       <c r="M10" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C11" s="7">
         <v>1006</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E11" s="7">
         <v>1007</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -3265,19 +3296,22 @@
       <c r="M11" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C12" s="7">
         <v>1007</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" s="7">
         <v>1008</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -3300,19 +3334,22 @@
       <c r="M12" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="3:14">
       <c r="C13" s="7">
         <v>1008</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13" s="7">
         <v>1009</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -3335,19 +3372,22 @@
       <c r="M13" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="20.1" customHeight="1" spans="3:14">
       <c r="C14" s="7">
         <v>1009</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E14" s="7">
         <v>1010</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -3370,19 +3410,22 @@
       <c r="M14" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="20.1" customHeight="1" spans="3:14">
       <c r="C15" s="7">
         <v>1010</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="7">
         <v>1011</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -3405,19 +3448,22 @@
       <c r="M15" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="20.1" customHeight="1" spans="3:14">
       <c r="C16" s="7">
         <v>1011</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E16" s="7">
         <v>1012</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -3440,19 +3486,22 @@
       <c r="M16" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="20.1" customHeight="1" spans="3:14">
       <c r="C17" s="7">
         <v>1012</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17" s="7">
         <v>1013</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -3475,19 +3524,22 @@
       <c r="M17" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="20.1" customHeight="1" spans="3:14">
       <c r="C18" s="7">
         <v>1013</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="7">
         <v>1014</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -3510,19 +3562,22 @@
       <c r="M18" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="20.1" customHeight="1" spans="3:14">
       <c r="C19" s="7">
         <v>1014</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E19" s="7">
         <v>1015</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -3545,19 +3600,22 @@
       <c r="M19" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="20.1" customHeight="1" spans="3:14">
       <c r="C20" s="7">
         <v>1015</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" s="7">
         <v>1016</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -3580,19 +3638,22 @@
       <c r="M20" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="20.1" customHeight="1" spans="3:14">
       <c r="C21" s="7">
         <v>1016</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" s="7">
         <v>1017</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -3615,19 +3676,22 @@
       <c r="M21" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="20.1" customHeight="1" spans="3:14">
       <c r="C22" s="7">
         <v>1017</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" s="7">
         <v>1018</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -3650,19 +3714,22 @@
       <c r="M22" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="20.1" customHeight="1" spans="3:14">
       <c r="C23" s="7">
         <v>1018</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E23" s="7">
         <v>1019</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -3685,19 +3752,22 @@
       <c r="M23" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="20.1" customHeight="1" spans="3:14">
       <c r="C24" s="7">
         <v>1019</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E24" s="7">
         <v>1020</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -3720,19 +3790,22 @@
       <c r="M24" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="20.1" customHeight="1" spans="3:14">
       <c r="C25" s="7">
         <v>1020</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E25" s="7">
         <v>1021</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -3755,19 +3828,22 @@
       <c r="M25" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="20.1" customHeight="1" spans="3:14">
       <c r="C26" s="7">
         <v>1021</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E26" s="7">
         <v>1022</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -3790,19 +3866,22 @@
       <c r="M26" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="20.1" customHeight="1" spans="3:14">
       <c r="C27" s="7">
         <v>1022</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E27" s="7">
         <v>1023</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -3825,19 +3904,22 @@
       <c r="M27" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="28" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="20.1" customHeight="1" spans="3:14">
       <c r="C28" s="7">
         <v>1023</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E28" s="7">
         <v>1024</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -3860,19 +3942,22 @@
       <c r="M28" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="29" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="20.1" customHeight="1" spans="3:14">
       <c r="C29" s="7">
         <v>1024</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E29" s="7">
         <v>1025</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -3895,19 +3980,22 @@
       <c r="M29" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="20.1" customHeight="1" spans="3:14">
       <c r="C30" s="7">
         <v>1025</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E30" s="7">
         <v>1026</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -3930,19 +4018,22 @@
       <c r="M30" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="20.1" customHeight="1" spans="3:14">
       <c r="C31" s="7">
         <v>1026</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E31" s="7">
         <v>1027</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
@@ -3965,19 +4056,22 @@
       <c r="M31" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="20.1" customHeight="1" spans="3:14">
       <c r="C32" s="7">
         <v>1027</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E32" s="7">
         <v>1028</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
@@ -4000,19 +4094,22 @@
       <c r="M32" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="20.1" customHeight="1" spans="3:14">
       <c r="C33" s="7">
         <v>1028</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E33" s="7">
         <v>1030</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G33" s="7">
         <v>0</v>
@@ -4035,19 +4132,22 @@
       <c r="M33" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="20.1" customHeight="1" spans="3:14">
       <c r="C34" s="7">
         <v>1030</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E34" s="7">
         <v>1031</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G34" s="7">
         <v>0</v>
@@ -4070,19 +4170,22 @@
       <c r="M34" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="20.1" customHeight="1" spans="3:14">
       <c r="C35" s="7">
         <v>1031</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E35" s="7">
         <v>1032</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G35" s="7">
         <v>0</v>
@@ -4105,19 +4208,22 @@
       <c r="M35" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="20.1" customHeight="1" spans="3:14">
       <c r="C36" s="7">
         <v>1032</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E36" s="7">
         <v>1033</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G36" s="7">
         <v>0</v>
@@ -4140,19 +4246,22 @@
       <c r="M36" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="20.1" customHeight="1" spans="3:14">
       <c r="C37" s="7">
         <v>1033</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E37" s="7">
         <v>1034</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G37" s="7">
         <v>0</v>
@@ -4175,19 +4284,22 @@
       <c r="M37" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="20.1" customHeight="1" spans="3:14">
       <c r="C38" s="7">
         <v>1034</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E38" s="7">
         <v>1035</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G38" s="7">
         <v>0</v>
@@ -4210,19 +4322,22 @@
       <c r="M38" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="20.1" customHeight="1" spans="3:14">
       <c r="C39" s="7">
         <v>1035</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E39" s="7">
         <v>1036</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G39" s="7">
         <v>0</v>
@@ -4245,19 +4360,22 @@
       <c r="M39" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C40" s="7">
         <v>1036</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E40" s="7">
         <v>1037</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G40" s="7">
         <v>0</v>
@@ -4280,19 +4398,22 @@
       <c r="M40" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C41" s="7">
         <v>1037</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E41" s="7">
         <v>1038</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G41" s="7">
         <v>0</v>
@@ -4315,19 +4436,22 @@
       <c r="M41" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C42" s="7">
         <v>1038</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E42" s="7">
         <v>1039</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G42" s="7">
         <v>0</v>
@@ -4350,19 +4474,22 @@
       <c r="M42" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C43" s="7">
         <v>1039</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E43" s="7">
         <v>1040</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G43" s="7">
         <v>0</v>
@@ -4385,19 +4512,22 @@
       <c r="M43" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C44" s="7">
         <v>1040</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E44" s="7">
         <v>1041</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G44" s="7">
         <v>0</v>
@@ -4420,19 +4550,22 @@
       <c r="M44" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="20.1" customHeight="1" spans="3:14">
       <c r="C45" s="7">
         <v>1041</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E45" s="7">
         <v>1042</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G45" s="7">
         <v>0</v>
@@ -4455,19 +4588,22 @@
       <c r="M45" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="20.1" customHeight="1" spans="3:14">
       <c r="C46" s="7">
         <v>1042</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E46" s="7">
         <v>1043</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G46" s="7">
         <v>0</v>
@@ -4490,19 +4626,22 @@
       <c r="M46" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="20.1" customHeight="1" spans="3:14">
       <c r="C47" s="7">
         <v>1043</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E47" s="7">
         <v>1044</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G47" s="7">
         <v>0</v>
@@ -4525,19 +4664,22 @@
       <c r="M47" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" ht="20.1" customHeight="1" spans="3:14">
       <c r="C48" s="7">
         <v>1044</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E48" s="7">
         <v>0</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G48" s="7">
         <v>0</v>
@@ -4560,13 +4702,16 @@
       <c r="M48" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C49" s="7">
         <v>2001</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E49" s="7">
         <v>2002</v>
@@ -4595,19 +4740,22 @@
       <c r="M49" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C50" s="7">
         <v>2002</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E50" s="7">
         <v>2003</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G50" s="7">
         <v>6</v>
@@ -4630,13 +4778,16 @@
       <c r="M50" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N50" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C51" s="7">
         <v>2003</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E51" s="7">
         <v>2004</v>
@@ -4665,19 +4816,22 @@
       <c r="M51" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N51" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C52" s="7">
         <v>2004</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E52" s="7">
         <v>2005</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G52" s="7">
         <v>1</v>
@@ -4700,19 +4854,22 @@
       <c r="M52" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N52" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C53" s="7">
         <v>2005</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E53" s="7">
         <v>2006</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G53" s="7">
         <v>0</v>
@@ -4735,13 +4892,16 @@
       <c r="M53" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N53" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C54" s="7">
         <v>2006</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E54" s="7">
         <v>2007</v>
@@ -4770,19 +4930,22 @@
       <c r="M54" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N54" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C55" s="7">
         <v>2007</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E55" s="7">
         <v>2008</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G55" s="7">
         <v>2</v>
@@ -4805,19 +4968,22 @@
       <c r="M55" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N55" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C56" s="7">
         <v>2008</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E56" s="7">
         <v>2009</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G56" s="7">
         <v>7</v>
@@ -4840,13 +5006,16 @@
       <c r="M56" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C57" s="7">
         <v>2009</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E57" s="7">
         <v>2010</v>
@@ -4875,19 +5044,22 @@
       <c r="M57" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C58" s="7">
         <v>2010</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E58" s="7">
         <v>2011</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G58" s="7">
         <v>0</v>
@@ -4910,19 +5082,22 @@
       <c r="M58" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C59" s="7">
         <v>2011</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E59" s="7">
         <v>2012</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G59" s="7">
         <v>7</v>
@@ -4945,19 +5120,22 @@
       <c r="M59" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N59" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C60" s="7">
         <v>2012</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E60" s="7">
         <v>2013</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G60" s="7">
         <v>3</v>
@@ -4980,19 +5158,22 @@
       <c r="M60" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N60" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C61" s="7">
         <v>2013</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E61" s="7">
         <v>2014</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G61" s="7">
         <v>4</v>
@@ -5015,19 +5196,22 @@
       <c r="M61" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N61" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C62" s="7">
         <v>2014</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E62" s="7">
         <v>2015</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G62" s="7">
         <v>3</v>
@@ -5050,19 +5234,22 @@
       <c r="M62" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C63" s="7">
         <v>2015</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E63" s="7">
         <v>2016</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G63" s="7">
         <v>4</v>
@@ -5085,13 +5272,16 @@
       <c r="M63" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C64" s="7">
         <v>2016</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E64" s="7">
         <v>2017</v>
@@ -5120,19 +5310,22 @@
       <c r="M64" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C65" s="7">
         <v>2017</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E65" s="7">
         <v>2101</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G65" s="7">
         <v>5</v>
@@ -5155,19 +5348,22 @@
       <c r="M65" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N65" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" ht="20.1" customHeight="1" spans="3:14">
       <c r="C66" s="7">
         <v>2101</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E66" s="7">
         <v>2102</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G66" s="7">
         <v>0</v>
@@ -5190,19 +5386,22 @@
       <c r="M66" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N66" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" ht="20.1" customHeight="1" spans="3:14">
       <c r="C67" s="7">
         <v>2102</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E67" s="7">
         <v>2103</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G67" s="7">
         <v>1</v>
@@ -5225,19 +5424,22 @@
       <c r="M67" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N67" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" ht="20.1" customHeight="1" spans="3:14">
       <c r="C68" s="7">
         <v>2103</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E68" s="7">
         <v>2104</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G68" s="7">
         <v>2</v>
@@ -5260,19 +5462,22 @@
       <c r="M68" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N68" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" ht="20.1" customHeight="1" spans="3:14">
       <c r="C69" s="7">
         <v>2104</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E69" s="7">
         <v>2105</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G69" s="7">
         <v>0</v>
@@ -5295,19 +5500,22 @@
       <c r="M69" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N69" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" ht="20.1" customHeight="1" spans="3:14">
       <c r="C70" s="7">
         <v>2105</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E70" s="7">
         <v>2106</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G70" s="7">
         <v>0</v>
@@ -5330,19 +5538,22 @@
       <c r="M70" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N70" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" ht="20.1" customHeight="1" spans="3:14">
       <c r="C71" s="7">
         <v>2106</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="7">
         <v>2107</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G71" s="7">
         <v>0</v>
@@ -5365,19 +5576,22 @@
       <c r="M71" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N71" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" ht="20.1" customHeight="1" spans="3:14">
       <c r="C72" s="7">
         <v>2107</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E72" s="7">
         <v>2108</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G72" s="7">
         <v>0</v>
@@ -5400,19 +5614,22 @@
       <c r="M72" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N72" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" ht="20.1" customHeight="1" spans="3:14">
       <c r="C73" s="7">
         <v>2108</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E73" s="7">
         <v>2109</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G73" s="7">
         <v>0</v>
@@ -5435,19 +5652,22 @@
       <c r="M73" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N73" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" ht="20.1" customHeight="1" spans="3:14">
       <c r="C74" s="7">
         <v>2109</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E74" s="7">
         <v>2110</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G74" s="7">
         <v>0</v>
@@ -5470,19 +5690,22 @@
       <c r="M74" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N74" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" ht="20.1" customHeight="1" spans="3:14">
       <c r="C75" s="7">
         <v>2110</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E75" s="7">
         <v>2111</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G75" s="7">
         <v>3</v>
@@ -5505,19 +5728,22 @@
       <c r="M75" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N75" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" ht="20.1" customHeight="1" spans="3:14">
       <c r="C76" s="7">
         <v>2111</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="7">
         <v>2112</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G76" s="7">
         <v>4</v>
@@ -5540,19 +5766,22 @@
       <c r="M76" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N76" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" ht="20.1" customHeight="1" spans="3:14">
       <c r="C77" s="7">
         <v>2112</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E77" s="7">
         <v>2113</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G77" s="7">
         <v>5</v>
@@ -5575,19 +5804,22 @@
       <c r="M77" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N77" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" ht="20.1" customHeight="1" spans="3:14">
       <c r="C78" s="7">
         <v>2113</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E78" s="7">
         <v>0</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G78" s="7">
         <v>6</v>
@@ -5609,6 +5841,9 @@
       </c>
       <c r="M78" s="7">
         <v>0</v>
+      </c>
+      <c r="N78" s="7">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CD2A9E-9634-4076-A7ED-D489E22032D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HideProListProto" sheetId="1" r:id="rId1"/>
@@ -14,18 +20,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -34,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -43,6 +51,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1 武器
@@ -52,6 +61,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">2 衣服
@@ -61,6 +71,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">3 护符
@@ -70,6 +81,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">4 戒指
@@ -79,6 +91,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">5 饰品
@@ -88,6 +101,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">6 鞋子
@@ -97,6 +111,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">7 裤子
@@ -106,6 +121,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">8 腰带
@@ -115,6 +131,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">9 手镯
@@ -124,6 +141,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">10 头盔
@@ -133,19 +151,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>11 项链</t>
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -154,6 +174,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -163,6 +184,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">当字段为极品属性时此字段为属性类型
@@ -172,19 +194,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>此字段为隐藏技能时,此字段为技能ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -193,6 +217,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -202,20 +227,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>隐藏属性最大值是否根据装备等级成长</t>
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>作者:</t>
         </r>
@@ -223,7 +249,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -232,7 +258,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1</t>
         </r>
@@ -240,6 +266,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：表示整数
@@ -249,7 +276,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>0</t>
         </r>
@@ -257,6 +284,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：表示小数</t>
@@ -268,15 +296,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="100">
   <si>
     <t>Id</t>
   </si>
@@ -581,14 +609,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,6 +622,7 @@
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -607,6 +630,7 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -614,154 +638,57 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -776,61 +703,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,132 +757,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1030,30 +849,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1068,1147 +863,935 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="361">
+  <cellStyleXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2231,370 +1814,331 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="361">
+  <cellStyles count="313">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 4" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 5" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="11" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 4" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 5" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 5" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 4" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 5" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 4" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 5" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 4" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 5" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 4" xfId="16" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 5" xfId="18" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 4" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 5" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="24" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 4" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 5" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 4" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 4" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 5" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 4" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 5" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 4" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 5" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="20" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 4" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 5" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="10" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 4" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 5" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 4" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 5" xfId="36" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 4" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 5" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 4" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 5" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="25" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 4" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 5" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 4" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 5" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="27" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="注释 2 3 5" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="4"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="货币" xfId="6" builtinId="4"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 5" xfId="7"/>
-    <cellStyle name="千位分隔[0]" xfId="8" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 4" xfId="10"/>
-    <cellStyle name="差" xfId="11" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
-    <cellStyle name="常规 5 2 5" xfId="13"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="14"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="16" builtinId="40"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8"/>
-    <cellStyle name="百分比" xfId="18" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9"/>
-    <cellStyle name="注释" xfId="20" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="21"/>
-    <cellStyle name="常规 2 3 3 6" xfId="22"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="23"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="24"/>
-    <cellStyle name="标题 4" xfId="25" builtinId="19"/>
-    <cellStyle name="常规 5 2 4" xfId="26"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="27" builtinId="36"/>
-    <cellStyle name="警告文本" xfId="28" builtinId="11"/>
-    <cellStyle name="标题" xfId="29" builtinId="15"/>
-    <cellStyle name="常规 5 2" xfId="30"/>
-    <cellStyle name="解释性文本" xfId="31" builtinId="53"/>
-    <cellStyle name="常规 2 3 3 2 5" xfId="32"/>
-    <cellStyle name="标题 1" xfId="33" builtinId="16"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="34"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 4" xfId="35"/>
-    <cellStyle name="标题 2" xfId="36" builtinId="17"/>
-    <cellStyle name="常规 5 2 2" xfId="37"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="38" builtinId="32"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 5" xfId="39"/>
-    <cellStyle name="常规 5 2 3" xfId="40"/>
-    <cellStyle name="标题 3" xfId="41" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="42" builtinId="44"/>
-    <cellStyle name="输出" xfId="43" builtinId="21"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="44"/>
-    <cellStyle name="常规 2 3 2 2 2 5" xfId="45"/>
-    <cellStyle name="计算" xfId="46" builtinId="22"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="47"/>
-    <cellStyle name="常规 2 3 4 4" xfId="48"/>
-    <cellStyle name="检查单元格" xfId="49" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="50" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="51" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="52"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="53"/>
-    <cellStyle name="注释 2 3" xfId="54"/>
-    <cellStyle name="链接单元格" xfId="55" builtinId="24"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="56"/>
-    <cellStyle name="汇总" xfId="57" builtinId="25"/>
-    <cellStyle name="注释 2 2 2 5" xfId="58"/>
-    <cellStyle name="好" xfId="59" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="60"/>
-    <cellStyle name="适中" xfId="61" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="62" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="63" builtinId="29"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="64"/>
-    <cellStyle name="注释 2 3 3" xfId="65"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="66" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="67"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="68" builtinId="31"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="69"/>
-    <cellStyle name="注释 2 3 4" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="72"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="74" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="75" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="76" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 5" xfId="77"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="78" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="79" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="80" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="81" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="82" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="83"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="84" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="85" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="86"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="87"/>
-    <cellStyle name="常规 5 2 6" xfId="88"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="89"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="90"/>
-    <cellStyle name="常规 2 3 2 4" xfId="91"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="93"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 4" xfId="94"/>
-    <cellStyle name="常规 2 3 2 3 4" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 5" xfId="96"/>
-    <cellStyle name="常规 2 3 2 3 5" xfId="97"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="98"/>
-    <cellStyle name="常规 2 3 2 3" xfId="99"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="100"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="101"/>
-    <cellStyle name="常规 2 3 2 5" xfId="102"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="103"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="104"/>
-    <cellStyle name="常规 2 3 2 6" xfId="105"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="106"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="107"/>
-    <cellStyle name="常规 2 3 2 7" xfId="108"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="109"/>
-    <cellStyle name="常规 2 3 3 3" xfId="110"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="111"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="112"/>
-    <cellStyle name="常规 2 3 3 4" xfId="113"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="114"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="115"/>
-    <cellStyle name="常规 2 3 3 5" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="117"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="118"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="121"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 5" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="124"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="125"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="126"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 4" xfId="127"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 5" xfId="128"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="129"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="130"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="132"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="133"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="134"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="135"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="136"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 5" xfId="137"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="138"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="140"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 5" xfId="141"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="142"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="143"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="144"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 4" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 5" xfId="146"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="147"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="148"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="149"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="152"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="153"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="155"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="156"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="157"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="158"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="159"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="160"/>
-    <cellStyle name="常规 3" xfId="161"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="162"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 4" xfId="163"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="164"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="165"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="166"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="167"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="168"/>
-    <cellStyle name="常规 4" xfId="169"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="170"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="171"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="172"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="173"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="174"/>
-    <cellStyle name="常规 5" xfId="175"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="176"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="177"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="178"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="179"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="180"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="181"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="182"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 4" xfId="183"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 5" xfId="184"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="185"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="186"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="187"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="188"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="189"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="190"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="191"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="192"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="193"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="194"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="195"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="196"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="197"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="198"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="199"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 4" xfId="200"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 5" xfId="201"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="202"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="203"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="204"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="205"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="206"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="207"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="208"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="209"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="210"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="211"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="212"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="213"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="214"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="215"/>
-    <cellStyle name="注释 2 2" xfId="216"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="217"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="218"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="219"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="220"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="221"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="222"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="223"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="225"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="226"/>
-    <cellStyle name="常规 5 7" xfId="227"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="228"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 4" xfId="230"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 5" xfId="231"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="232"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 4" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="234"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 5" xfId="235"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="236"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="237"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="238"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="239"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="240"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 4" xfId="241"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="242"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="243"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="244"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="245"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="246"/>
-    <cellStyle name="常规 5 3 5" xfId="247"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="248"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="249"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 4" xfId="250"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="251"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 5" xfId="252"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="253"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="254"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="255"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="256"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="257"/>
-    <cellStyle name="常规 2 3 2 2" xfId="258"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="259"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="260"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 4" xfId="261"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 5" xfId="262"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="263"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="264"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="265"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="266"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="267"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="268"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 4" xfId="269"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="270"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="271"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="272"/>
-    <cellStyle name="常规 2 3 2 2 2 4" xfId="273"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 4" xfId="274"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 5" xfId="275"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="276"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="277"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="278"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="279"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="280"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="281"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 4" xfId="282"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 5" xfId="283"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="284"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="285"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="286"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="287"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="288"/>
-    <cellStyle name="常规 2 3 4 5" xfId="289"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="290"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="291"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="292"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 4" xfId="293"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 5" xfId="294"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="295"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="296"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="297"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="298"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 4" xfId="299"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 5" xfId="300"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="301"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="302"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="303"/>
-    <cellStyle name="常规 5 6" xfId="304"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="305"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="306"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="307"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="308"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="309"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="310"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="311"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 4" xfId="312"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 5" xfId="313"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="314"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="315"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="316"/>
-    <cellStyle name="常规 2" xfId="317"/>
-    <cellStyle name="常规 2 2" xfId="318"/>
-    <cellStyle name="常规 2 3" xfId="319"/>
-    <cellStyle name="常规 2 3 2" xfId="320"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="321"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="322"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="323"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="324"/>
-    <cellStyle name="注释 2 3 2" xfId="325"/>
-    <cellStyle name="常规 2 3 3" xfId="326"/>
-    <cellStyle name="常规 2 3 3 2" xfId="327"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="328"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="329"/>
-    <cellStyle name="常规 2 3 3 2 4" xfId="330"/>
-    <cellStyle name="常规 2 3 4" xfId="331"/>
-    <cellStyle name="常规 2 3 4 2" xfId="332"/>
-    <cellStyle name="常规 2 3 4 3" xfId="333"/>
-    <cellStyle name="常规 2 3 5" xfId="334"/>
-    <cellStyle name="常规 2 3 6" xfId="335"/>
-    <cellStyle name="常规 5 2 2 2" xfId="336"/>
-    <cellStyle name="常规 2 3 7" xfId="337"/>
-    <cellStyle name="常规 5 2 2 3" xfId="338"/>
-    <cellStyle name="常规 2 3 8" xfId="339"/>
-    <cellStyle name="常规 5 2 2 4" xfId="340"/>
-    <cellStyle name="常规 5 2 2 5" xfId="341"/>
-    <cellStyle name="常规 5 3" xfId="342"/>
-    <cellStyle name="常规 5 3 2" xfId="343"/>
-    <cellStyle name="常规 5 3 3" xfId="344"/>
-    <cellStyle name="常规 5 3 4" xfId="345"/>
-    <cellStyle name="常规 5 4" xfId="346"/>
-    <cellStyle name="常规 5 5" xfId="347"/>
-    <cellStyle name="注释 2" xfId="348"/>
-    <cellStyle name="注释 2 2 2" xfId="349"/>
-    <cellStyle name="注释 2 2 2 2" xfId="350"/>
-    <cellStyle name="注释 2 2 2 3" xfId="351"/>
-    <cellStyle name="注释 2 2 2 4" xfId="352"/>
-    <cellStyle name="注释 2 2 3" xfId="353"/>
-    <cellStyle name="注释 2 2 4" xfId="354"/>
-    <cellStyle name="注释 2 2 5" xfId="355"/>
-    <cellStyle name="注释 2 2 6" xfId="356"/>
-    <cellStyle name="注释 2 4" xfId="357"/>
-    <cellStyle name="注释 2 5" xfId="358"/>
-    <cellStyle name="注释 2 6" xfId="359"/>
-    <cellStyle name="注释 2 7" xfId="360"/>
+    <cellStyle name="常规 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="常规 2 2" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="常规 2 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="常规 2 3 2" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 4" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 5" xfId="21" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="30" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="33" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="常规 2 3 2 3 4" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="常规 2 3 2 3 5" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 2 3 2 4" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="常规 2 3 2 5" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="常规 2 3 2 6" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="常规 2 3 2 7" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="常规 2 3 3 2 4" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="常规 2 3 3 2 5" xfId="14" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="常规 2 3 3 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="常规 2 3 3 4" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="常规 2 3 3 5" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="常规 2 3 3 6" xfId="9" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 2 3 4" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="常规 2 3 4 2" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="常规 2 3 4 3" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="常规 2 3 4 4" xfId="23" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="常规 2 3 4 5" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="常规 2 3 5" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="常规 2 3 6" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="常规 2 3 7" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="常规 2 3 8" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="常规 3" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="常规 4" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="常规 5" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="常规 5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="常规 5 2 2 2" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="常规 5 2 2 3" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="常规 5 2 2 4" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="常规 5 2 2 5" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="常规 5 2 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="常规 5 2 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 5 2 5" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 5 2 6" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="常规 5 3" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="常规 5 3 2" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="常规 5 3 3" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="常规 5 3 4" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="常规 5 3 5" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="常规 5 4" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="常规 5 5" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="常规 5 6" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="常规 5 7" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="注释 2" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="注释 2 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="注释 2 2 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="注释 2 2 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="注释 2 2 2 3" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="注释 2 2 2 4" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="注释 2 2 2 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="注释 2 2 3" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="注释 2 2 4" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="注释 2 2 5" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="注释 2 2 6" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="注释 2 3" xfId="26" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="注释 2 3 2" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="注释 2 3 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="注释 2 3 4" xfId="34" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="注释 2 3 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="注释 2 4" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="注释 2 5" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="注释 2 6" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="注释 2 7" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2622,7 +2166,7 @@
     </xsd:schema>
   </Schema>
   <Map ID="1" Name="DateArea_映射" RootElement="DateArea" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding ConnectionID="1" FileBinding="true" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
@@ -2908,19 +2452,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="11.375" customWidth="1"/>
     <col min="4" max="4" width="18.875" customWidth="1"/>
@@ -2933,9 +2477,9 @@
     <col min="14" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1"/>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="1" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2973,7 +2517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="4" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3011,7 +2555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="5" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
@@ -3049,7 +2593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="6" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="6">
         <v>1001</v>
       </c>
@@ -3078,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M6" s="6">
         <v>0.02</v>
@@ -3087,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="7" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="6">
         <v>1002</v>
       </c>
@@ -3116,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M7" s="6">
         <v>0.02</v>
@@ -3125,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="8" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="6">
         <v>1003</v>
       </c>
@@ -3154,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M8" s="6">
         <v>0.02</v>
@@ -3163,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="9" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="6">
         <v>1004</v>
       </c>
@@ -3192,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M9" s="6">
         <v>0.02</v>
@@ -3201,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="10" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="6">
         <v>1005</v>
       </c>
@@ -3239,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="11" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="6">
         <v>1006</v>
       </c>
@@ -3277,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="12" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="6">
         <v>1007</v>
       </c>
@@ -3306,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M12" s="6">
         <v>0.02</v>
@@ -3315,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:14">
+    <row r="13" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="6">
         <v>1008</v>
       </c>
@@ -3353,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:14">
+    <row r="14" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="6">
         <v>1009</v>
       </c>
@@ -3391,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:14">
+    <row r="15" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="6">
         <v>1010</v>
       </c>
@@ -3429,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:14">
+    <row r="16" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="6">
         <v>1011</v>
       </c>
@@ -3467,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:14">
+    <row r="17" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="6">
         <v>1012</v>
       </c>
@@ -3484,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="6">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I17" s="6">
         <v>120101</v>
@@ -3505,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:14">
+    <row r="18" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="6">
         <v>1013</v>
       </c>
@@ -3543,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:14">
+    <row r="19" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="6">
         <v>1014</v>
       </c>
@@ -3581,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:14">
+    <row r="20" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="6">
         <v>1015</v>
       </c>
@@ -3619,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:14">
+    <row r="21" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="6">
         <v>1016</v>
       </c>
@@ -3657,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:14">
+    <row r="22" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="6">
         <v>1017</v>
       </c>
@@ -3686,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M22" s="6">
         <v>0.02</v>
@@ -3695,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:14">
+    <row r="23" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="6">
         <v>1018</v>
       </c>
@@ -3724,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M23" s="6">
         <v>0.02</v>
@@ -3733,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:14">
+    <row r="24" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="6">
         <v>1019</v>
       </c>
@@ -3762,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M24" s="6">
         <v>0.02</v>
@@ -3771,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:14">
+    <row r="25" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="6">
         <v>1020</v>
       </c>
@@ -3800,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M25" s="6">
         <v>0.02</v>
@@ -3809,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:14">
+    <row r="26" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="6">
         <v>1021</v>
       </c>
@@ -3838,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M26" s="6">
         <v>0.02</v>
@@ -3847,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:14">
+    <row r="27" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="6">
         <v>1022</v>
       </c>
@@ -3876,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M27" s="6">
         <v>0.02</v>
@@ -3885,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="20.1" customHeight="1" spans="3:14">
+    <row r="28" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="6">
         <v>1023</v>
       </c>
@@ -3914,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M28" s="6">
         <v>0.02</v>
@@ -3923,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="20.1" customHeight="1" spans="3:14">
+    <row r="29" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="6">
         <v>1024</v>
       </c>
@@ -3952,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M29" s="6">
         <v>0.02</v>
@@ -3961,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:14">
+    <row r="30" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="6">
         <v>1025</v>
       </c>
@@ -3990,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M30" s="6">
         <v>0.02</v>
@@ -3999,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:14">
+    <row r="31" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="6">
         <v>1026</v>
       </c>
@@ -4028,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M31" s="6">
         <v>0.02</v>
@@ -4037,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:14">
+    <row r="32" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="6">
         <v>1027</v>
       </c>
@@ -4066,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M32" s="6">
         <v>0.02</v>
@@ -4075,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:14">
+    <row r="33" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="6">
         <v>1028</v>
       </c>
@@ -4104,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M33" s="6">
         <v>0.02</v>
@@ -4113,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:14">
+    <row r="34" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="6">
         <v>1030</v>
       </c>
@@ -4142,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M34" s="6">
         <v>0.02</v>
@@ -4151,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:14">
+    <row r="35" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="6">
         <v>1031</v>
       </c>
@@ -4180,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M35" s="6">
         <v>0.02</v>
@@ -4189,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:14">
+    <row r="36" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="6">
         <v>1032</v>
       </c>
@@ -4218,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M36" s="6">
         <v>0.02</v>
@@ -4227,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:14">
+    <row r="37" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="6">
         <v>1033</v>
       </c>
@@ -4256,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M37" s="6">
         <v>0.02</v>
@@ -4265,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:14">
+    <row r="38" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="6">
         <v>1034</v>
       </c>
@@ -4294,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M38" s="6">
         <v>0.02</v>
@@ -4303,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:14">
+    <row r="39" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="6">
         <v>1035</v>
       </c>
@@ -4332,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M39" s="6">
         <v>0.02</v>
@@ -4341,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="40" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="6">
         <v>1036</v>
       </c>
@@ -4379,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="41" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="6">
         <v>1037</v>
       </c>
@@ -4417,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="42" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="6">
         <v>1038</v>
       </c>
@@ -4455,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="43" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="6">
         <v>1039</v>
       </c>
@@ -4493,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="44" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="6">
         <v>1040</v>
       </c>
@@ -4531,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:14">
+    <row r="45" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="6">
         <v>1041</v>
       </c>
@@ -4560,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M45" s="6">
         <v>0.02</v>
@@ -4569,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:14">
+    <row r="46" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="6">
         <v>1042</v>
       </c>
@@ -4598,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M46" s="6">
         <v>0.02</v>
@@ -4607,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:14">
+    <row r="47" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="6">
         <v>1043</v>
       </c>
@@ -4636,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M47" s="6">
         <v>0.02</v>
@@ -4645,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:14">
+    <row r="48" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="6">
         <v>1044</v>
       </c>
@@ -4674,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M48" s="6">
         <v>0.02</v>
@@ -4683,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="49" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="6">
         <v>2001</v>
       </c>
@@ -4721,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="50" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="6">
         <v>2002</v>
       </c>
@@ -4759,7 +4303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="51" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="6">
         <v>2003</v>
       </c>
@@ -4797,7 +4341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="52" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="6">
         <v>2004</v>
       </c>
@@ -4835,7 +4379,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="53" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="6">
         <v>2005</v>
       </c>
@@ -4873,7 +4417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="54" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="6">
         <v>2006</v>
       </c>
@@ -4911,7 +4455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="55" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="6">
         <v>2007</v>
       </c>
@@ -4949,7 +4493,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="56" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="6">
         <v>2008</v>
       </c>
@@ -4987,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="57" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="6">
         <v>2009</v>
       </c>
@@ -5022,10 +4566,10 @@
         <v>0</v>
       </c>
       <c r="N57" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="6">
         <v>2010</v>
       </c>
@@ -5063,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="59" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="6">
         <v>2011</v>
       </c>
@@ -5101,7 +4645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="60" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="6">
         <v>2012</v>
       </c>
@@ -5139,7 +4683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="61" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="6">
         <v>2013</v>
       </c>
@@ -5177,7 +4721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="62" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="6">
         <v>2014</v>
       </c>
@@ -5215,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="63" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="6">
         <v>2015</v>
       </c>
@@ -5253,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="64" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="6">
         <v>2016</v>
       </c>
@@ -5291,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="65" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="6">
         <v>2017</v>
       </c>
@@ -5329,7 +4873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:14">
+    <row r="66" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="6">
         <v>2101</v>
       </c>
@@ -5367,7 +4911,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:14">
+    <row r="67" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="6">
         <v>2102</v>
       </c>
@@ -5402,10 +4946,10 @@
         <v>0</v>
       </c>
       <c r="N67" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="6">
         <v>2103</v>
       </c>
@@ -5440,10 +4984,10 @@
         <v>0</v>
       </c>
       <c r="N68" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="6">
         <v>2104</v>
       </c>
@@ -5478,10 +5022,10 @@
         <v>0</v>
       </c>
       <c r="N69" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="6">
         <v>2105</v>
       </c>
@@ -5516,10 +5060,10 @@
         <v>0</v>
       </c>
       <c r="N70" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="6">
         <v>2106</v>
       </c>
@@ -5554,10 +5098,10 @@
         <v>0</v>
       </c>
       <c r="N71" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="6">
         <v>2107</v>
       </c>
@@ -5592,10 +5136,10 @@
         <v>0</v>
       </c>
       <c r="N72" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="6">
         <v>2108</v>
       </c>
@@ -5630,10 +5174,10 @@
         <v>0</v>
       </c>
       <c r="N73" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="6">
         <v>2109</v>
       </c>
@@ -5671,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:14">
+    <row r="75" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="6">
         <v>2110</v>
       </c>
@@ -5709,7 +5253,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" ht="20.1" customHeight="1" spans="3:14">
+    <row r="76" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="6">
         <v>2111</v>
       </c>
@@ -5747,7 +5291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" ht="20.1" customHeight="1" spans="3:14">
+    <row r="77" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="6">
         <v>2112</v>
       </c>
@@ -5785,7 +5329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" ht="20.1" customHeight="1" spans="3:14">
+    <row r="78" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="6">
         <v>2113</v>
       </c>
@@ -5824,9 +5368,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CD2A9E-9634-4076-A7ED-D489E22032D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="HideProListProto" sheetId="1" r:id="rId1"/>
@@ -20,19 +14,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -41,7 +34,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -51,7 +43,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1 武器
@@ -61,7 +52,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">2 衣服
@@ -71,7 +61,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">3 护符
@@ -81,7 +70,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">4 戒指
@@ -91,7 +79,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">5 饰品
@@ -101,7 +88,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">6 鞋子
@@ -111,7 +97,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">7 裤子
@@ -121,7 +106,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">8 腰带
@@ -131,7 +115,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">9 手镯
@@ -141,7 +124,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">10 头盔
@@ -151,21 +133,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>11 项链</t>
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -174,7 +154,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -184,7 +163,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">当字段为极品属性时此字段为属性类型
@@ -194,21 +172,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>此字段为隐藏技能时,此字段为技能ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -217,7 +193,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -227,21 +202,20 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>隐藏属性最大值是否根据装备等级成长</t>
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>作者:</t>
         </r>
@@ -249,7 +223,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -258,7 +232,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -266,7 +240,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：表示整数
@@ -276,7 +249,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>0</t>
         </r>
@@ -284,7 +257,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：表示小数</t>
@@ -296,15 +268,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>Id</t>
   </si>
@@ -514,6 +486,9 @@
   </si>
   <si>
     <t>魔法书武器攻击</t>
+  </si>
+  <si>
+    <t>额外恢复</t>
   </si>
   <si>
     <t>英勇</t>
@@ -609,8 +584,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,7 +603,6 @@
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -630,7 +610,6 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -638,57 +617,161 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,49 +786,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <fgColor theme="0" tint="-0.149937437055574"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="6" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,36 +822,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -863,935 +1090,1162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="313">
+  <cellStyleXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1814,331 +2268,370 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="313">
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 4" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 5" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="11" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 4" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 5" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 5" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 4" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 5" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 4" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 5" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 4" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 5" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 4" xfId="16" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 5" xfId="18" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 4" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 5" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="24" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 4" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 5" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 4" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 4" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 5" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 4" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 5" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 4" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 5" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="20" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 4" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 5" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="10" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 4" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 5" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 4" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 5" xfId="36" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 4" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 5" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 4" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 5" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="25" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 4" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 5" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 4" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 5" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="27" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+  <cellStyles count="361">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="常规 2 2" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="常规 2 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
-    <cellStyle name="常规 2 3 2" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="常规 2 3 2 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="常规 2 3 2 2 2 4" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="常规 2 3 2 2 2 5" xfId="21" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="30" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="33" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="常规 2 3 2 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="常规 2 3 2 3 4" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="常规 2 3 2 3 5" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="常规 2 3 2 4" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="常规 2 3 2 5" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="常规 2 3 2 6" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="常规 2 3 2 7" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="常规 2 3 3" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
-    <cellStyle name="常规 2 3 3 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="常规 2 3 3 2 4" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="常规 2 3 3 2 5" xfId="14" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="常规 2 3 3 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="常规 2 3 3 4" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="常规 2 3 3 5" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="常规 2 3 3 6" xfId="9" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="常规 2 3 4" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="常规 2 3 4 2" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="常规 2 3 4 3" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
-    <cellStyle name="常规 2 3 4 4" xfId="23" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="常规 2 3 4 5" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
-    <cellStyle name="常规 2 3 5" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
-    <cellStyle name="常规 2 3 6" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
-    <cellStyle name="常规 2 3 7" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
-    <cellStyle name="常规 2 3 8" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
-    <cellStyle name="常规 3" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="常规 4" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="常规 5" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="常规 5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="常规 5 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="常规 5 2 2 2" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="常规 5 2 2 3" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
-    <cellStyle name="常规 5 2 2 4" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
-    <cellStyle name="常规 5 2 2 5" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
-    <cellStyle name="常规 5 2 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="常规 5 2 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="常规 5 2 5" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="常规 5 2 6" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="常规 5 3" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
-    <cellStyle name="常规 5 3 2" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
-    <cellStyle name="常规 5 3 3" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
-    <cellStyle name="常规 5 3 4" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
-    <cellStyle name="常规 5 3 5" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
-    <cellStyle name="常规 5 4" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
-    <cellStyle name="常规 5 5" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
-    <cellStyle name="常规 5 6" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="常规 5 7" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="注释 2" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
-    <cellStyle name="注释 2 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="注释 2 2 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
-    <cellStyle name="注释 2 2 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
-    <cellStyle name="注释 2 2 2 3" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
-    <cellStyle name="注释 2 2 2 4" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
-    <cellStyle name="注释 2 2 2 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="注释 2 2 3" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
-    <cellStyle name="注释 2 2 4" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
-    <cellStyle name="注释 2 2 5" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
-    <cellStyle name="注释 2 2 6" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
-    <cellStyle name="注释 2 3" xfId="26" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="注释 2 3 2" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
-    <cellStyle name="注释 2 3 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="注释 2 3 4" xfId="34" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="注释 2 3 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="注释 2 4" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
-    <cellStyle name="注释 2 5" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
-    <cellStyle name="注释 2 6" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
-    <cellStyle name="注释 2 7" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="注释 2 3 5" xfId="3"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="4"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币" xfId="6" builtinId="4"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 5" xfId="7"/>
+    <cellStyle name="千位分隔[0]" xfId="8" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 4" xfId="10"/>
+    <cellStyle name="差" xfId="11" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
+    <cellStyle name="常规 5 2 5" xfId="13"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="14"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="15"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="16" builtinId="40"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8"/>
+    <cellStyle name="百分比" xfId="18" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9"/>
+    <cellStyle name="注释" xfId="20" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="21"/>
+    <cellStyle name="常规 2 3 3 6" xfId="22"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="23"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="24"/>
+    <cellStyle name="标题 4" xfId="25" builtinId="19"/>
+    <cellStyle name="常规 5 2 4" xfId="26"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="27" builtinId="36"/>
+    <cellStyle name="警告文本" xfId="28" builtinId="11"/>
+    <cellStyle name="标题" xfId="29" builtinId="15"/>
+    <cellStyle name="常规 5 2" xfId="30"/>
+    <cellStyle name="解释性文本" xfId="31" builtinId="53"/>
+    <cellStyle name="常规 2 3 3 2 5" xfId="32"/>
+    <cellStyle name="标题 1" xfId="33" builtinId="16"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="34"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 4" xfId="35"/>
+    <cellStyle name="标题 2" xfId="36" builtinId="17"/>
+    <cellStyle name="常规 5 2 2" xfId="37"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="38" builtinId="32"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 5" xfId="39"/>
+    <cellStyle name="常规 5 2 3" xfId="40"/>
+    <cellStyle name="标题 3" xfId="41" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="42" builtinId="44"/>
+    <cellStyle name="输出" xfId="43" builtinId="21"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="44"/>
+    <cellStyle name="常规 2 3 2 2 2 5" xfId="45"/>
+    <cellStyle name="计算" xfId="46" builtinId="22"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="47"/>
+    <cellStyle name="常规 2 3 4 4" xfId="48"/>
+    <cellStyle name="检查单元格" xfId="49" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="50" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="51" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="52"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="53"/>
+    <cellStyle name="注释 2 3" xfId="54"/>
+    <cellStyle name="链接单元格" xfId="55" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="56"/>
+    <cellStyle name="汇总" xfId="57" builtinId="25"/>
+    <cellStyle name="注释 2 2 2 5" xfId="58"/>
+    <cellStyle name="好" xfId="59" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="60"/>
+    <cellStyle name="适中" xfId="61" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="62" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="63" builtinId="29"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="64"/>
+    <cellStyle name="注释 2 3 3" xfId="65"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="66" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="67"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="68" builtinId="31"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="69"/>
+    <cellStyle name="注释 2 3 4" xfId="70"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="72"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="74" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="75" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="76" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 5" xfId="77"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="78" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="79" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="80" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="81" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="82" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="83"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="84" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="85" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="86"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="87"/>
+    <cellStyle name="常规 5 2 6" xfId="88"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="89"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="90"/>
+    <cellStyle name="常规 2 3 2 4" xfId="91"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="92"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="93"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 4" xfId="94"/>
+    <cellStyle name="常规 2 3 2 3 4" xfId="95"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 5" xfId="96"/>
+    <cellStyle name="常规 2 3 2 3 5" xfId="97"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="98"/>
+    <cellStyle name="常规 2 3 2 3" xfId="99"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="100"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="101"/>
+    <cellStyle name="常规 2 3 2 5" xfId="102"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="103"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="104"/>
+    <cellStyle name="常规 2 3 2 6" xfId="105"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="106"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="107"/>
+    <cellStyle name="常规 2 3 2 7" xfId="108"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="109"/>
+    <cellStyle name="常规 2 3 3 3" xfId="110"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="111"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="112"/>
+    <cellStyle name="常规 2 3 3 4" xfId="113"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="114"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="115"/>
+    <cellStyle name="常规 2 3 3 5" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="117"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="118"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="119"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="120"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="121"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 5" xfId="122"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="123"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="124"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="125"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="126"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 4" xfId="127"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 5" xfId="128"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="129"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="130"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="131"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="132"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="133"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="134"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="135"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="136"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 5" xfId="137"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="138"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="139"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="140"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 5" xfId="141"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="142"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="143"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="144"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 4" xfId="145"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 5" xfId="146"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="147"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="148"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="149"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="150"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="151"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="152"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="153"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="154"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="155"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="156"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="157"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="158"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="159"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="160"/>
+    <cellStyle name="常规 3" xfId="161"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="162"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 4" xfId="163"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="164"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="165"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="166"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="167"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="168"/>
+    <cellStyle name="常规 4" xfId="169"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="170"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="171"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="172"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="173"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="174"/>
+    <cellStyle name="常规 5" xfId="175"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="176"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="177"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="178"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="179"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="180"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="181"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="182"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 4" xfId="183"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 5" xfId="184"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="185"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="186"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="187"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="188"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="189"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="190"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="191"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="192"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="193"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="194"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="195"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="196"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="197"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="198"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="199"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 4" xfId="200"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 5" xfId="201"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="202"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="203"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="204"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="205"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="206"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="207"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="208"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="209"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="210"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="211"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="212"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="213"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="214"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="215"/>
+    <cellStyle name="注释 2 2" xfId="216"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="217"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="218"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="219"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="220"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="221"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="222"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="223"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="224"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="225"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="226"/>
+    <cellStyle name="常规 5 7" xfId="227"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="228"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="229"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 4" xfId="230"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 5" xfId="231"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="232"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 4" xfId="233"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="234"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 5" xfId="235"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="236"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="237"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="238"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="239"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="240"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 4" xfId="241"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="242"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="243"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="244"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="245"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="246"/>
+    <cellStyle name="常规 5 3 5" xfId="247"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="248"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="249"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 4" xfId="250"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="251"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 5" xfId="252"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="253"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="254"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="255"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="256"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="257"/>
+    <cellStyle name="常规 2 3 2 2" xfId="258"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="259"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="260"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 4" xfId="261"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 5" xfId="262"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="263"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="264"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="265"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="266"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="267"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="268"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 4" xfId="269"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="270"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="271"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="272"/>
+    <cellStyle name="常规 2 3 2 2 2 4" xfId="273"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 4" xfId="274"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 5" xfId="275"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="276"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="277"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="278"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="279"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="280"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="281"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 4" xfId="282"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 5" xfId="283"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="284"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="285"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="286"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="287"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="288"/>
+    <cellStyle name="常规 2 3 4 5" xfId="289"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="290"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="291"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="292"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 4" xfId="293"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 5" xfId="294"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="295"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="296"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="297"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="298"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 4" xfId="299"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 5" xfId="300"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="301"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="302"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="303"/>
+    <cellStyle name="常规 5 6" xfId="304"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="305"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="306"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="307"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="308"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="309"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="310"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="311"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 4" xfId="312"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 5" xfId="313"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="314"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="315"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="316"/>
+    <cellStyle name="常规 2" xfId="317"/>
+    <cellStyle name="常规 2 2" xfId="318"/>
+    <cellStyle name="常规 2 3" xfId="319"/>
+    <cellStyle name="常规 2 3 2" xfId="320"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="321"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="322"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="323"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="324"/>
+    <cellStyle name="注释 2 3 2" xfId="325"/>
+    <cellStyle name="常规 2 3 3" xfId="326"/>
+    <cellStyle name="常规 2 3 3 2" xfId="327"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="328"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="329"/>
+    <cellStyle name="常规 2 3 3 2 4" xfId="330"/>
+    <cellStyle name="常规 2 3 4" xfId="331"/>
+    <cellStyle name="常规 2 3 4 2" xfId="332"/>
+    <cellStyle name="常规 2 3 4 3" xfId="333"/>
+    <cellStyle name="常规 2 3 5" xfId="334"/>
+    <cellStyle name="常规 2 3 6" xfId="335"/>
+    <cellStyle name="常规 5 2 2 2" xfId="336"/>
+    <cellStyle name="常规 2 3 7" xfId="337"/>
+    <cellStyle name="常规 5 2 2 3" xfId="338"/>
+    <cellStyle name="常规 2 3 8" xfId="339"/>
+    <cellStyle name="常规 5 2 2 4" xfId="340"/>
+    <cellStyle name="常规 5 2 2 5" xfId="341"/>
+    <cellStyle name="常规 5 3" xfId="342"/>
+    <cellStyle name="常规 5 3 2" xfId="343"/>
+    <cellStyle name="常规 5 3 3" xfId="344"/>
+    <cellStyle name="常规 5 3 4" xfId="345"/>
+    <cellStyle name="常规 5 4" xfId="346"/>
+    <cellStyle name="常规 5 5" xfId="347"/>
+    <cellStyle name="注释 2" xfId="348"/>
+    <cellStyle name="注释 2 2 2" xfId="349"/>
+    <cellStyle name="注释 2 2 2 2" xfId="350"/>
+    <cellStyle name="注释 2 2 2 3" xfId="351"/>
+    <cellStyle name="注释 2 2 2 4" xfId="352"/>
+    <cellStyle name="注释 2 2 3" xfId="353"/>
+    <cellStyle name="注释 2 2 4" xfId="354"/>
+    <cellStyle name="注释 2 2 5" xfId="355"/>
+    <cellStyle name="注释 2 2 6" xfId="356"/>
+    <cellStyle name="注释 2 4" xfId="357"/>
+    <cellStyle name="注释 2 5" xfId="358"/>
+    <cellStyle name="注释 2 6" xfId="359"/>
+    <cellStyle name="注释 2 7" xfId="360"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2166,7 +2659,7 @@
     </xsd:schema>
   </Schema>
   <Map ID="1" Name="DateArea_映射" RootElement="DateArea" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+    <DataBinding ConnectionID="1" FileBinding="true" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
@@ -2452,19 +2945,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:N78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="11.375" customWidth="1"/>
     <col min="4" max="4" width="18.875" customWidth="1"/>
@@ -2477,9 +2970,9 @@
     <col min="14" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="20.1" customHeight="1"/>
+    <row r="2" ht="20.1" customHeight="1"/>
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2517,7 +3010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2555,7 +3048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
@@ -2593,7 +3086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C6" s="6">
         <v>1001</v>
       </c>
@@ -2622,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M6" s="6">
         <v>0.02</v>
@@ -2631,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C7" s="6">
         <v>1002</v>
       </c>
@@ -2660,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M7" s="6">
         <v>0.02</v>
@@ -2669,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C8" s="6">
         <v>1003</v>
       </c>
@@ -2698,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M8" s="6">
         <v>0.02</v>
@@ -2707,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C9" s="6">
         <v>1004</v>
       </c>
@@ -2736,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M9" s="6">
         <v>0.02</v>
@@ -2745,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C10" s="6">
         <v>1005</v>
       </c>
@@ -2783,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C11" s="6">
         <v>1006</v>
       </c>
@@ -2821,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C12" s="6">
         <v>1007</v>
       </c>
@@ -2850,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M12" s="6">
         <v>0.02</v>
@@ -2859,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="20.1" customHeight="1" spans="3:14">
       <c r="C13" s="6">
         <v>1008</v>
       </c>
@@ -2897,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="20.1" customHeight="1" spans="3:14">
       <c r="C14" s="6">
         <v>1009</v>
       </c>
@@ -2935,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="20.1" customHeight="1" spans="3:14">
       <c r="C15" s="6">
         <v>1010</v>
       </c>
@@ -2973,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="20.1" customHeight="1" spans="3:14">
       <c r="C16" s="6">
         <v>1011</v>
       </c>
@@ -3011,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="20.1" customHeight="1" spans="3:14">
       <c r="C17" s="6">
         <v>1012</v>
       </c>
@@ -3028,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="6">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="I17" s="6">
         <v>120101</v>
@@ -3049,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="20.1" customHeight="1" spans="3:14">
       <c r="C18" s="6">
         <v>1013</v>
       </c>
@@ -3087,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="20.1" customHeight="1" spans="3:14">
       <c r="C19" s="6">
         <v>1014</v>
       </c>
@@ -3125,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="20.1" customHeight="1" spans="3:14">
       <c r="C20" s="6">
         <v>1015</v>
       </c>
@@ -3163,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="20.1" customHeight="1" spans="3:14">
       <c r="C21" s="6">
         <v>1016</v>
       </c>
@@ -3201,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" ht="20.1" customHeight="1" spans="3:14">
       <c r="C22" s="6">
         <v>1017</v>
       </c>
@@ -3230,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M22" s="6">
         <v>0.02</v>
@@ -3239,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="20.1" customHeight="1" spans="3:14">
       <c r="C23" s="6">
         <v>1018</v>
       </c>
@@ -3268,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M23" s="6">
         <v>0.02</v>
@@ -3277,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="20.1" customHeight="1" spans="3:14">
       <c r="C24" s="6">
         <v>1019</v>
       </c>
@@ -3306,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M24" s="6">
         <v>0.02</v>
@@ -3315,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="20.1" customHeight="1" spans="3:14">
       <c r="C25" s="6">
         <v>1020</v>
       </c>
@@ -3344,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M25" s="6">
         <v>0.02</v>
@@ -3353,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="20.1" customHeight="1" spans="3:14">
       <c r="C26" s="6">
         <v>1021</v>
       </c>
@@ -3382,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M26" s="6">
         <v>0.02</v>
@@ -3391,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="20.1" customHeight="1" spans="3:14">
       <c r="C27" s="6">
         <v>1022</v>
       </c>
@@ -3420,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M27" s="6">
         <v>0.02</v>
@@ -3429,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="20.1" customHeight="1" spans="3:14">
       <c r="C28" s="6">
         <v>1023</v>
       </c>
@@ -3458,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M28" s="6">
         <v>0.02</v>
@@ -3467,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="20.1" customHeight="1" spans="3:14">
       <c r="C29" s="6">
         <v>1024</v>
       </c>
@@ -3496,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M29" s="6">
         <v>0.02</v>
@@ -3505,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="20.1" customHeight="1" spans="3:14">
       <c r="C30" s="6">
         <v>1025</v>
       </c>
@@ -3534,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M30" s="6">
         <v>0.02</v>
@@ -3543,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="20.1" customHeight="1" spans="3:14">
       <c r="C31" s="6">
         <v>1026</v>
       </c>
@@ -3572,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M31" s="6">
         <v>0.02</v>
@@ -3581,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="20.1" customHeight="1" spans="3:14">
       <c r="C32" s="6">
         <v>1027</v>
       </c>
@@ -3610,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M32" s="6">
         <v>0.02</v>
@@ -3619,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="20.1" customHeight="1" spans="3:14">
       <c r="C33" s="6">
         <v>1028</v>
       </c>
@@ -3648,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M33" s="6">
         <v>0.02</v>
@@ -3657,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="20.1" customHeight="1" spans="3:14">
       <c r="C34" s="6">
         <v>1030</v>
       </c>
@@ -3686,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M34" s="6">
         <v>0.02</v>
@@ -3695,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="20.1" customHeight="1" spans="3:14">
       <c r="C35" s="6">
         <v>1031</v>
       </c>
@@ -3724,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M35" s="6">
         <v>0.02</v>
@@ -3733,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" ht="20.1" customHeight="1" spans="3:14">
       <c r="C36" s="6">
         <v>1032</v>
       </c>
@@ -3762,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M36" s="6">
         <v>0.02</v>
@@ -3771,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" ht="20.1" customHeight="1" spans="3:14">
       <c r="C37" s="6">
         <v>1033</v>
       </c>
@@ -3800,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M37" s="6">
         <v>0.02</v>
@@ -3809,7 +4302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" ht="20.1" customHeight="1" spans="3:14">
       <c r="C38" s="6">
         <v>1034</v>
       </c>
@@ -3838,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M38" s="6">
         <v>0.02</v>
@@ -3847,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" ht="20.1" customHeight="1" spans="3:14">
       <c r="C39" s="6">
         <v>1035</v>
       </c>
@@ -3876,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M39" s="6">
         <v>0.02</v>
@@ -3885,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C40" s="6">
         <v>1036</v>
       </c>
@@ -3923,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C41" s="6">
         <v>1037</v>
       </c>
@@ -3961,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C42" s="6">
         <v>1038</v>
       </c>
@@ -3999,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C43" s="6">
         <v>1039</v>
       </c>
@@ -4037,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C44" s="6">
         <v>1040</v>
       </c>
@@ -4075,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" ht="20.1" customHeight="1" spans="3:14">
       <c r="C45" s="6">
         <v>1041</v>
       </c>
@@ -4104,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M45" s="6">
         <v>0.02</v>
@@ -4113,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" ht="20.1" customHeight="1" spans="3:14">
       <c r="C46" s="6">
         <v>1042</v>
       </c>
@@ -4142,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M46" s="6">
         <v>0.02</v>
@@ -4151,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" ht="20.1" customHeight="1" spans="3:14">
       <c r="C47" s="6">
         <v>1043</v>
       </c>
@@ -4180,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M47" s="6">
         <v>0.02</v>
@@ -4189,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" ht="20.1" customHeight="1" spans="3:14">
       <c r="C48" s="6">
         <v>1044</v>
       </c>
@@ -4197,7 +4690,7 @@
         <v>69</v>
       </c>
       <c r="E48" s="6">
-        <v>0</v>
+        <v>1045</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>27</v>
@@ -4218,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M48" s="6">
         <v>0.02</v>
@@ -4227,27 +4720,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C49" s="6">
-        <v>2001</v>
+        <v>1045</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>70</v>
       </c>
       <c r="E49" s="6">
-        <v>2002</v>
-      </c>
-      <c r="F49" s="6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G49" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="6">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I49" s="6">
-        <v>68000001</v>
+        <v>204301</v>
       </c>
       <c r="J49" s="6">
         <v>0</v>
@@ -4256,36 +4749,36 @@
         <v>0</v>
       </c>
       <c r="L49" s="6">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M49" s="6">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N49" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C50" s="6">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E50" s="6">
-        <v>2003</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>27</v>
+        <v>2002</v>
+      </c>
+      <c r="F50" s="6">
+        <v>1</v>
       </c>
       <c r="G50" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H50" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I50" s="6">
-        <v>68000002</v>
+        <v>68000001</v>
       </c>
       <c r="J50" s="6">
         <v>0</v>
@@ -4300,30 +4793,30 @@
         <v>0</v>
       </c>
       <c r="N50" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C51" s="6">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E51" s="6">
-        <v>2004</v>
-      </c>
-      <c r="F51" s="6">
-        <v>2</v>
+        <v>2003</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G51" s="6">
         <v>6</v>
       </c>
       <c r="H51" s="6">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I51" s="6">
-        <v>68000003</v>
+        <v>68000002</v>
       </c>
       <c r="J51" s="6">
         <v>0</v>
@@ -4341,27 +4834,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C52" s="6">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E52" s="6">
-        <v>2005</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>27</v>
+        <v>2004</v>
+      </c>
+      <c r="F52" s="6">
+        <v>2</v>
       </c>
       <c r="G52" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H52" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I52" s="6">
-        <v>68000004</v>
+        <v>68000003</v>
       </c>
       <c r="J52" s="6">
         <v>0</v>
@@ -4379,27 +4872,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C53" s="6">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E53" s="6">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G53" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="6">
         <v>0.03</v>
       </c>
       <c r="I53" s="6">
-        <v>68000005</v>
+        <v>68000004</v>
       </c>
       <c r="J53" s="6">
         <v>0</v>
@@ -4417,27 +4910,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C54" s="6">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>75</v>
       </c>
       <c r="E54" s="6">
-        <v>2007</v>
-      </c>
-      <c r="F54" s="6">
-        <v>3</v>
+        <v>2006</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G54" s="6">
         <v>0</v>
       </c>
       <c r="H54" s="6">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I54" s="6">
-        <v>68000006</v>
+        <v>68000005</v>
       </c>
       <c r="J54" s="6">
         <v>0</v>
@@ -4455,27 +4948,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C55" s="6">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E55" s="6">
-        <v>2008</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>27</v>
+        <v>2007</v>
+      </c>
+      <c r="F55" s="6">
+        <v>3</v>
       </c>
       <c r="G55" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H55" s="6">
         <v>0.01</v>
       </c>
       <c r="I55" s="6">
-        <v>68000007</v>
+        <v>68000006</v>
       </c>
       <c r="J55" s="6">
         <v>0</v>
@@ -4493,27 +4986,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C56" s="6">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>77</v>
       </c>
       <c r="E56" s="6">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G56" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H56" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I56" s="6">
-        <v>68000008</v>
+        <v>68000007</v>
       </c>
       <c r="J56" s="6">
         <v>0</v>
@@ -4528,30 +5021,30 @@
         <v>0</v>
       </c>
       <c r="N56" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C57" s="6">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E57" s="6">
-        <v>2010</v>
-      </c>
-      <c r="F57" s="6">
-        <v>6</v>
+        <v>2009</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G57" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H57" s="6">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I57" s="6">
-        <v>68000009</v>
+        <v>68000008</v>
       </c>
       <c r="J57" s="6">
         <v>0</v>
@@ -4566,30 +5059,30 @@
         <v>0</v>
       </c>
       <c r="N57" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C58" s="6">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>79</v>
       </c>
       <c r="E58" s="6">
-        <v>2011</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>27</v>
+        <v>2010</v>
+      </c>
+      <c r="F58" s="6">
+        <v>6</v>
       </c>
       <c r="G58" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H58" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I58" s="6">
-        <v>68000010</v>
+        <v>68000009</v>
       </c>
       <c r="J58" s="6">
         <v>0</v>
@@ -4604,30 +5097,30 @@
         <v>0</v>
       </c>
       <c r="N58" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C59" s="6">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E59" s="6">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G59" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H59" s="6">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I59" s="6">
-        <v>68000011</v>
+        <v>68000010</v>
       </c>
       <c r="J59" s="6">
         <v>0</v>
@@ -4642,30 +5135,30 @@
         <v>0</v>
       </c>
       <c r="N59" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C60" s="6">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>81</v>
       </c>
       <c r="E60" s="6">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G60" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H60" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I60" s="6">
-        <v>68000012</v>
+        <v>68000011</v>
       </c>
       <c r="J60" s="6">
         <v>0</v>
@@ -4683,27 +5176,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C61" s="6">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>82</v>
       </c>
       <c r="E61" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G61" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H61" s="6">
         <v>0.03</v>
       </c>
       <c r="I61" s="6">
-        <v>68000013</v>
+        <v>68000012</v>
       </c>
       <c r="J61" s="6">
         <v>0</v>
@@ -4721,27 +5214,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C62" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E62" s="6">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G62" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H62" s="6">
         <v>0.03</v>
       </c>
       <c r="I62" s="6">
-        <v>68000014</v>
+        <v>68000013</v>
       </c>
       <c r="J62" s="6">
         <v>0</v>
@@ -4756,30 +5249,30 @@
         <v>0</v>
       </c>
       <c r="N62" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C63" s="6">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E63" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G63" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H63" s="6">
         <v>0.03</v>
       </c>
       <c r="I63" s="6">
-        <v>68000015</v>
+        <v>68000014</v>
       </c>
       <c r="J63" s="6">
         <v>0</v>
@@ -4797,27 +5290,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C64" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E64" s="6">
-        <v>2017</v>
-      </c>
-      <c r="F64" s="6">
-        <v>1</v>
+        <v>2016</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G64" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H64" s="6">
         <v>0.03</v>
       </c>
       <c r="I64" s="6">
-        <v>68000016</v>
+        <v>68000015</v>
       </c>
       <c r="J64" s="6">
         <v>0</v>
@@ -4835,27 +5328,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C65" s="6">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E65" s="6">
-        <v>2101</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>27</v>
+        <v>2017</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1</v>
       </c>
       <c r="G65" s="6">
         <v>5</v>
       </c>
       <c r="H65" s="6">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I65" s="6">
-        <v>68000017</v>
+        <v>68000016</v>
       </c>
       <c r="J65" s="6">
         <v>0</v>
@@ -4870,30 +5363,30 @@
         <v>0</v>
       </c>
       <c r="N65" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C66" s="6">
-        <v>2101</v>
+        <v>2017</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>87</v>
       </c>
       <c r="E66" s="6">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G66" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H66" s="6">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I66" s="6">
-        <v>68000101</v>
+        <v>68000017</v>
       </c>
       <c r="J66" s="6">
         <v>0</v>
@@ -4911,27 +5404,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" ht="20.1" customHeight="1" spans="3:14">
       <c r="C67" s="6">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>88</v>
       </c>
       <c r="E67" s="6">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G67" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="6">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I67" s="6">
-        <v>68000102</v>
+        <v>68000101</v>
       </c>
       <c r="J67" s="6">
         <v>0</v>
@@ -4946,30 +5439,30 @@
         <v>0</v>
       </c>
       <c r="N67" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" ht="20.1" customHeight="1" spans="3:14">
       <c r="C68" s="6">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>89</v>
       </c>
       <c r="E68" s="6">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G68" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" s="6">
         <v>0.05</v>
       </c>
       <c r="I68" s="6">
-        <v>68000103</v>
+        <v>68000102</v>
       </c>
       <c r="J68" s="6">
         <v>0</v>
@@ -4987,27 +5480,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" ht="20.1" customHeight="1" spans="3:14">
       <c r="C69" s="6">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E69" s="6">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G69" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69" s="6">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I69" s="6">
-        <v>68000104</v>
+        <v>68000103</v>
       </c>
       <c r="J69" s="6">
         <v>0</v>
@@ -5025,15 +5518,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" ht="20.1" customHeight="1" spans="3:14">
       <c r="C70" s="6">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E70" s="6">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>27</v>
@@ -5042,10 +5535,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="6">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I70" s="6">
-        <v>68000105</v>
+        <v>68000104</v>
       </c>
       <c r="J70" s="6">
         <v>0</v>
@@ -5063,15 +5556,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" ht="20.1" customHeight="1" spans="3:14">
       <c r="C71" s="6">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>92</v>
       </c>
       <c r="E71" s="6">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>27</v>
@@ -5083,7 +5576,7 @@
         <v>0.02</v>
       </c>
       <c r="I71" s="6">
-        <v>68000106</v>
+        <v>68000105</v>
       </c>
       <c r="J71" s="6">
         <v>0</v>
@@ -5101,15 +5594,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" ht="20.1" customHeight="1" spans="3:14">
       <c r="C72" s="6">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>93</v>
       </c>
       <c r="E72" s="6">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>27</v>
@@ -5118,10 +5611,10 @@
         <v>0</v>
       </c>
       <c r="H72" s="6">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I72" s="6">
-        <v>68000107</v>
+        <v>68000106</v>
       </c>
       <c r="J72" s="6">
         <v>0</v>
@@ -5139,15 +5632,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" ht="20.1" customHeight="1" spans="3:14">
       <c r="C73" s="6">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>94</v>
       </c>
       <c r="E73" s="6">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>27</v>
@@ -5156,10 +5649,10 @@
         <v>0</v>
       </c>
       <c r="H73" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I73" s="6">
-        <v>68000108</v>
+        <v>68000107</v>
       </c>
       <c r="J73" s="6">
         <v>0</v>
@@ -5177,15 +5670,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" ht="20.1" customHeight="1" spans="3:14">
       <c r="C74" s="6">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>95</v>
       </c>
       <c r="E74" s="6">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>27</v>
@@ -5194,10 +5687,10 @@
         <v>0</v>
       </c>
       <c r="H74" s="6">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I74" s="6">
-        <v>68000109</v>
+        <v>68000108</v>
       </c>
       <c r="J74" s="6">
         <v>0</v>
@@ -5215,27 +5708,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" ht="20.1" customHeight="1" spans="3:14">
       <c r="C75" s="6">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E75" s="6">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G75" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H75" s="6">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I75" s="6">
-        <v>68000110</v>
+        <v>68000109</v>
       </c>
       <c r="J75" s="6">
         <v>0</v>
@@ -5250,30 +5743,30 @@
         <v>0</v>
       </c>
       <c r="N75" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" ht="20.1" customHeight="1" spans="3:14">
       <c r="C76" s="6">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>97</v>
       </c>
       <c r="E76" s="6">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G76" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H76" s="6">
         <v>0.02</v>
       </c>
       <c r="I76" s="6">
-        <v>68000111</v>
+        <v>68000110</v>
       </c>
       <c r="J76" s="6">
         <v>0</v>
@@ -5291,27 +5784,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" ht="20.1" customHeight="1" spans="3:14">
       <c r="C77" s="6">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E77" s="6">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G77" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H77" s="6">
         <v>0.02</v>
       </c>
       <c r="I77" s="6">
-        <v>68000112</v>
+        <v>68000111</v>
       </c>
       <c r="J77" s="6">
         <v>0</v>
@@ -5329,27 +5822,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" ht="20.1" customHeight="1" spans="3:14">
       <c r="C78" s="6">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E78" s="6">
-        <v>0</v>
+        <v>2113</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G78" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H78" s="6">
         <v>0.02</v>
       </c>
       <c r="I78" s="6">
-        <v>68000113</v>
+        <v>68000112</v>
       </c>
       <c r="J78" s="6">
         <v>0</v>
@@ -5367,10 +5860,48 @@
         <v>100</v>
       </c>
     </row>
+    <row r="79" ht="20.1" customHeight="1" spans="3:14">
+      <c r="C79" s="6">
+        <v>2113</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="6">
+        <v>0</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G79" s="6">
+        <v>6</v>
+      </c>
+      <c r="H79" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I79" s="6">
+        <v>68000113</v>
+      </c>
+      <c r="J79" s="6">
+        <v>0</v>
+      </c>
+      <c r="K79" s="6">
+        <v>0</v>
+      </c>
+      <c r="L79" s="6">
+        <v>0</v>
+      </c>
+      <c r="M79" s="6">
+        <v>0</v>
+      </c>
+      <c r="N79" s="6">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -2954,7 +2954,7 @@
   <dimension ref="C1:N79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
   <si>
     <t>Id</t>
   </si>
@@ -489,6 +489,9 @@
   </si>
   <si>
     <t>额外恢复</t>
+  </si>
+  <si>
+    <t>眩晕抵抗</t>
   </si>
   <si>
     <t>英勇</t>
@@ -628,8 +631,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,13 +705,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -657,32 +712,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -694,58 +735,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -765,10 +759,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="41">
@@ -792,13 +795,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,25 +819,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,37 +837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,7 +855,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,13 +885,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,19 +903,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,7 +945,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,55 +987,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,9 +1096,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,15 +1110,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,6 +1129,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1144,17 +1158,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,945 +1182,945 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2137,12 +2140,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2209,43 +2212,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2271,9 +2274,9 @@
   <cellStyles count="361">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="注释 2 3 5" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="4"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
+    <cellStyle name="注释 2 3 5" xfId="4"/>
     <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="货币" xfId="6" builtinId="4"/>
     <cellStyle name="40% - 强调文字颜色 1 3 5" xfId="7"/>
@@ -2289,11 +2292,11 @@
     <cellStyle name="超链接" xfId="17" builtinId="8"/>
     <cellStyle name="百分比" xfId="18" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="19" builtinId="9"/>
-    <cellStyle name="注释" xfId="20" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="21"/>
-    <cellStyle name="常规 2 3 3 6" xfId="22"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="23"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="24"/>
+    <cellStyle name="常规 2 3 3 6" xfId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="21"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="22"/>
+    <cellStyle name="注释" xfId="23" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="24"/>
     <cellStyle name="标题 4" xfId="25" builtinId="19"/>
     <cellStyle name="常规 5 2 4" xfId="26"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="27" builtinId="36"/>
@@ -2304,26 +2307,26 @@
     <cellStyle name="常规 2 3 3 2 5" xfId="32"/>
     <cellStyle name="标题 1" xfId="33" builtinId="16"/>
     <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="34"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 4" xfId="35"/>
+    <cellStyle name="常规 5 2 2" xfId="35"/>
     <cellStyle name="标题 2" xfId="36" builtinId="17"/>
-    <cellStyle name="常规 5 2 2" xfId="37"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 4" xfId="37"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="38" builtinId="32"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 5" xfId="39"/>
-    <cellStyle name="常规 5 2 3" xfId="40"/>
+    <cellStyle name="常规 5 2 3" xfId="39"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 5" xfId="40"/>
     <cellStyle name="标题 3" xfId="41" builtinId="18"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="42" builtinId="44"/>
     <cellStyle name="输出" xfId="43" builtinId="21"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="44"/>
-    <cellStyle name="常规 2 3 2 2 2 5" xfId="45"/>
+    <cellStyle name="常规 2 3 2 2 2 5" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="45"/>
     <cellStyle name="计算" xfId="46" builtinId="22"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="47"/>
-    <cellStyle name="常规 2 3 4 4" xfId="48"/>
+    <cellStyle name="常规 2 3 4 4" xfId="47"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="48"/>
     <cellStyle name="检查单元格" xfId="49" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="50" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="51" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="52"/>
+    <cellStyle name="注释 2 3" xfId="52"/>
     <cellStyle name="40% - 强调文字颜色 5 7" xfId="53"/>
-    <cellStyle name="注释 2 3" xfId="54"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="54"/>
     <cellStyle name="链接单元格" xfId="55" builtinId="24"/>
     <cellStyle name="40% - 强调文字颜色 6 5" xfId="56"/>
     <cellStyle name="汇总" xfId="57" builtinId="25"/>
@@ -2333,13 +2336,13 @@
     <cellStyle name="适中" xfId="61" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="62" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="63" builtinId="29"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="64"/>
-    <cellStyle name="注释 2 3 3" xfId="65"/>
+    <cellStyle name="注释 2 3 3" xfId="64"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="65"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="66" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="67"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="68" builtinId="31"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="69"/>
-    <cellStyle name="注释 2 3 4" xfId="70"/>
+    <cellStyle name="注释 2 3 4" xfId="69"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="70"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
     <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="72"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
@@ -2355,47 +2358,47 @@
     <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="83"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="84" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="85" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="86"/>
+    <cellStyle name="常规 5 2 6" xfId="86"/>
     <cellStyle name="常规 2 3 2 3 3" xfId="87"/>
-    <cellStyle name="常规 5 2 6" xfId="88"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="89"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="88"/>
+    <cellStyle name="常规 2 3 2 4" xfId="89"/>
     <cellStyle name="40% - 强调文字颜色 2 2" xfId="90"/>
-    <cellStyle name="常规 2 3 2 4" xfId="91"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="91"/>
     <cellStyle name="20% - 强调文字颜色 1 4" xfId="92"/>
     <cellStyle name="20% - 强调文字颜色 1 3" xfId="93"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 4" xfId="94"/>
-    <cellStyle name="常规 2 3 2 3 4" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 5" xfId="96"/>
-    <cellStyle name="常规 2 3 2 3 5" xfId="97"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="98"/>
-    <cellStyle name="常规 2 3 2 3" xfId="99"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="100"/>
+    <cellStyle name="常规 2 3 2 3 4" xfId="94"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 4" xfId="95"/>
+    <cellStyle name="常规 2 3 2 3 5" xfId="96"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 5" xfId="97"/>
+    <cellStyle name="常规 2 3 2 3" xfId="98"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="99"/>
+    <cellStyle name="常规 2 3 2 5" xfId="100"/>
     <cellStyle name="40% - 强调文字颜色 2 3" xfId="101"/>
-    <cellStyle name="常规 2 3 2 5" xfId="102"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="103"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="102"/>
+    <cellStyle name="常规 2 3 2 6" xfId="103"/>
     <cellStyle name="40% - 强调文字颜色 2 4" xfId="104"/>
-    <cellStyle name="常规 2 3 2 6" xfId="105"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="106"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="105"/>
+    <cellStyle name="常规 2 3 2 7" xfId="106"/>
     <cellStyle name="40% - 强调文字颜色 2 5" xfId="107"/>
-    <cellStyle name="常规 2 3 2 7" xfId="108"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="109"/>
-    <cellStyle name="常规 2 3 3 3" xfId="110"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="111"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="108"/>
+    <cellStyle name="常规 2 3 3 3" xfId="109"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="110"/>
+    <cellStyle name="常规 2 3 3 4" xfId="111"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="112"/>
-    <cellStyle name="常规 2 3 3 4" xfId="113"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="114"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="113"/>
+    <cellStyle name="常规 2 3 3 5" xfId="114"/>
     <cellStyle name="40% - 强调文字颜色 3 3" xfId="115"/>
-    <cellStyle name="常规 2 3 3 5" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="116"/>
     <cellStyle name="20% - 强调文字颜色 1 5" xfId="117"/>
     <cellStyle name="20% - 强调文字颜色 1 6" xfId="118"/>
     <cellStyle name="20% - 强调文字颜色 1 7" xfId="119"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="121"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 5" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="124"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="125"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="126"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 5" xfId="121"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="122"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="123"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="124"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="125"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="126"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2 4" xfId="127"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2 5" xfId="128"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="129"/>
@@ -2409,8 +2412,8 @@
     <cellStyle name="20% - 强调文字颜色 2 3 5" xfId="137"/>
     <cellStyle name="20% - 强调文字颜色 2 4" xfId="138"/>
     <cellStyle name="20% - 强调文字颜色 2 5" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="140"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 5" xfId="141"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 5" xfId="140"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="141"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="142"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="143"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="144"/>
@@ -2421,36 +2424,36 @@
     <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="149"/>
     <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="150"/>
     <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="152"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="153"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="155"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="152"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="153"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="154"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="155"/>
     <cellStyle name="20% - 强调文字颜色 3 4" xfId="156"/>
     <cellStyle name="20% - 强调文字颜色 3 5" xfId="157"/>
     <cellStyle name="20% - 强调文字颜色 3 6" xfId="158"/>
     <cellStyle name="20% - 强调文字颜色 3 7" xfId="159"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="160"/>
-    <cellStyle name="常规 3" xfId="161"/>
+    <cellStyle name="常规 3" xfId="160"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="161"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="162"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 4" xfId="163"/>
     <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="164"/>
     <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="165"/>
     <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="166"/>
     <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="167"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="168"/>
-    <cellStyle name="常规 4" xfId="169"/>
+    <cellStyle name="常规 4" xfId="168"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="169"/>
     <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="170"/>
     <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="171"/>
     <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="172"/>
     <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="173"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="174"/>
-    <cellStyle name="常规 5" xfId="175"/>
+    <cellStyle name="常规 5" xfId="174"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="175"/>
     <cellStyle name="20% - 强调文字颜色 4 6" xfId="176"/>
     <cellStyle name="20% - 强调文字颜色 4 7" xfId="177"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="178"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="179"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="180"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="181"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="180"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="181"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="182"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 4" xfId="183"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 5" xfId="184"/>
@@ -2465,46 +2468,46 @@
     <cellStyle name="20% - 强调文字颜色 5 6" xfId="193"/>
     <cellStyle name="20% - 强调文字颜色 5 7" xfId="194"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="195"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="196"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="197"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="196"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="197"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="198"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="199"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 4" xfId="200"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 5" xfId="201"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="202"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="203"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="204"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="205"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="206"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="207"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="202"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="203"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="204"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="205"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="206"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="207"/>
     <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="208"/>
     <cellStyle name="20% - 强调文字颜色 6 3" xfId="209"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="210"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="211"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="212"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="213"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="214"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="210"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="211"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="212"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="213"/>
+    <cellStyle name="注释 2 2" xfId="214"/>
     <cellStyle name="40% - 强调文字颜色 5 6" xfId="215"/>
-    <cellStyle name="注释 2 2" xfId="216"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="216"/>
     <cellStyle name="20% - 强调文字颜色 6 4" xfId="217"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="218"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="219"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="220"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="221"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="222"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="223"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="218"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="219"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="220"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="221"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="222"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="223"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="225"/>
+    <cellStyle name="常规 5 7" xfId="225"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="226"/>
-    <cellStyle name="常规 5 7" xfId="227"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="227"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="228"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="229"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2 4" xfId="230"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2 5" xfId="231"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="232"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 4" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="234"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 5" xfId="235"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 4" xfId="232"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="233"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 5" xfId="234"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="235"/>
     <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="236"/>
     <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="237"/>
     <cellStyle name="40% - 强调文字颜色 1 3" xfId="238"/>
@@ -2515,34 +2518,34 @@
     <cellStyle name="40% - 强调文字颜色 1 5" xfId="243"/>
     <cellStyle name="40% - 强调文字颜色 1 6" xfId="244"/>
     <cellStyle name="40% - 强调文字颜色 1 7" xfId="245"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="246"/>
-    <cellStyle name="常规 5 3 5" xfId="247"/>
+    <cellStyle name="常规 5 3 5" xfId="246"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="247"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="248"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="249"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 4" xfId="250"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="251"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 5" xfId="252"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="253"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="250"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 4" xfId="251"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="252"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 5" xfId="253"/>
     <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="254"/>
     <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="255"/>
     <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="256"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="257"/>
-    <cellStyle name="常规 2 3 2 2" xfId="258"/>
+    <cellStyle name="常规 2 3 2 2" xfId="257"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="258"/>
     <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="259"/>
     <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="260"/>
     <cellStyle name="40% - 强调文字颜色 2 3 4" xfId="261"/>
     <cellStyle name="40% - 强调文字颜色 2 3 5" xfId="262"/>
     <cellStyle name="40% - 强调文字颜色 2 6" xfId="263"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="264"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="265"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="266"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="267"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="268"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 4" xfId="269"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="270"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="265"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="266"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="267"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="268"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="269"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 4" xfId="270"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="271"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="272"/>
-    <cellStyle name="常规 2 3 2 2 2 4" xfId="273"/>
+    <cellStyle name="常规 2 3 2 2 2 4" xfId="272"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="273"/>
     <cellStyle name="40% - 强调文字颜色 3 3 4" xfId="274"/>
     <cellStyle name="40% - 强调文字颜色 3 3 5" xfId="275"/>
     <cellStyle name="40% - 强调文字颜色 3 5" xfId="276"/>
@@ -2557,14 +2560,14 @@
     <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="285"/>
     <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="286"/>
     <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="287"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="288"/>
-    <cellStyle name="常规 2 3 4 5" xfId="289"/>
+    <cellStyle name="常规 2 3 4 5" xfId="288"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="289"/>
     <cellStyle name="40% - 强调文字颜色 5 2" xfId="290"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="291"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="292"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2 4" xfId="293"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 5" xfId="294"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="295"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="294"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 5" xfId="295"/>
     <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="296"/>
     <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="297"/>
     <cellStyle name="40% - 强调文字颜色 5 3" xfId="298"/>
@@ -2572,8 +2575,8 @@
     <cellStyle name="40% - 强调文字颜色 5 3 5" xfId="300"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="301"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="302"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="303"/>
-    <cellStyle name="常规 5 6" xfId="304"/>
+    <cellStyle name="常规 5 6" xfId="303"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="304"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="305"/>
     <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="306"/>
     <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="307"/>
@@ -2593,8 +2596,8 @@
     <cellStyle name="常规 2 3 2 2 2" xfId="321"/>
     <cellStyle name="常规 2 3 2 2 2 3" xfId="322"/>
     <cellStyle name="常规 2 3 2 2 3" xfId="323"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="324"/>
-    <cellStyle name="注释 2 3 2" xfId="325"/>
+    <cellStyle name="注释 2 3 2" xfId="324"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="325"/>
     <cellStyle name="常规 2 3 3" xfId="326"/>
     <cellStyle name="常规 2 3 3 2" xfId="327"/>
     <cellStyle name="常规 2 3 3 2 2" xfId="328"/>
@@ -2604,12 +2607,12 @@
     <cellStyle name="常规 2 3 4 2" xfId="332"/>
     <cellStyle name="常规 2 3 4 3" xfId="333"/>
     <cellStyle name="常规 2 3 5" xfId="334"/>
-    <cellStyle name="常规 2 3 6" xfId="335"/>
-    <cellStyle name="常规 5 2 2 2" xfId="336"/>
-    <cellStyle name="常规 2 3 7" xfId="337"/>
-    <cellStyle name="常规 5 2 2 3" xfId="338"/>
-    <cellStyle name="常规 2 3 8" xfId="339"/>
-    <cellStyle name="常规 5 2 2 4" xfId="340"/>
+    <cellStyle name="常规 5 2 2 2" xfId="335"/>
+    <cellStyle name="常规 2 3 6" xfId="336"/>
+    <cellStyle name="常规 5 2 2 3" xfId="337"/>
+    <cellStyle name="常规 2 3 7" xfId="338"/>
+    <cellStyle name="常规 5 2 2 4" xfId="339"/>
+    <cellStyle name="常规 2 3 8" xfId="340"/>
     <cellStyle name="常规 5 2 2 5" xfId="341"/>
     <cellStyle name="常规 5 3" xfId="342"/>
     <cellStyle name="常规 5 3 2" xfId="343"/>
@@ -2951,10 +2954,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="C1:N79"/>
+  <dimension ref="C1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4728,7 +4731,7 @@
         <v>70</v>
       </c>
       <c r="E49" s="6">
-        <v>0</v>
+        <v>1046</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>27</v>
@@ -4758,27 +4761,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="50" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C50" s="6">
-        <v>2001</v>
+        <v>1046</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E50" s="6">
-        <v>2002</v>
-      </c>
-      <c r="F50" s="6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G50" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="6">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I50" s="6">
-        <v>68000001</v>
+        <v>213101</v>
       </c>
       <c r="J50" s="6">
         <v>0</v>
@@ -4787,10 +4790,10 @@
         <v>0</v>
       </c>
       <c r="L50" s="6">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M50" s="6">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N50" s="6">
         <v>0</v>
@@ -4798,25 +4801,25 @@
     </row>
     <row r="51" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C51" s="6">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E51" s="6">
-        <v>2003</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>27</v>
+        <v>2002</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1</v>
       </c>
       <c r="G51" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H51" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I51" s="6">
-        <v>68000002</v>
+        <v>68000001</v>
       </c>
       <c r="J51" s="6">
         <v>0</v>
@@ -4831,30 +4834,30 @@
         <v>0</v>
       </c>
       <c r="N51" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C52" s="6">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E52" s="6">
-        <v>2004</v>
-      </c>
-      <c r="F52" s="6">
-        <v>2</v>
+        <v>2003</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G52" s="6">
         <v>6</v>
       </c>
       <c r="H52" s="6">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I52" s="6">
-        <v>68000003</v>
+        <v>68000002</v>
       </c>
       <c r="J52" s="6">
         <v>0</v>
@@ -4874,25 +4877,25 @@
     </row>
     <row r="53" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C53" s="6">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E53" s="6">
-        <v>2005</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>27</v>
+        <v>2004</v>
+      </c>
+      <c r="F53" s="6">
+        <v>2</v>
       </c>
       <c r="G53" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H53" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I53" s="6">
-        <v>68000004</v>
+        <v>68000003</v>
       </c>
       <c r="J53" s="6">
         <v>0</v>
@@ -4912,25 +4915,25 @@
     </row>
     <row r="54" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C54" s="6">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>75</v>
       </c>
       <c r="E54" s="6">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G54" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="6">
         <v>0.03</v>
       </c>
       <c r="I54" s="6">
-        <v>68000005</v>
+        <v>68000004</v>
       </c>
       <c r="J54" s="6">
         <v>0</v>
@@ -4950,25 +4953,25 @@
     </row>
     <row r="55" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C55" s="6">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E55" s="6">
-        <v>2007</v>
-      </c>
-      <c r="F55" s="6">
-        <v>3</v>
+        <v>2006</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G55" s="6">
         <v>0</v>
       </c>
       <c r="H55" s="6">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I55" s="6">
-        <v>68000006</v>
+        <v>68000005</v>
       </c>
       <c r="J55" s="6">
         <v>0</v>
@@ -4988,25 +4991,25 @@
     </row>
     <row r="56" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C56" s="6">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>77</v>
       </c>
       <c r="E56" s="6">
-        <v>2008</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>27</v>
+        <v>2007</v>
+      </c>
+      <c r="F56" s="6">
+        <v>3</v>
       </c>
       <c r="G56" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" s="6">
         <v>0.01</v>
       </c>
       <c r="I56" s="6">
-        <v>68000007</v>
+        <v>68000006</v>
       </c>
       <c r="J56" s="6">
         <v>0</v>
@@ -5026,25 +5029,25 @@
     </row>
     <row r="57" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C57" s="6">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E57" s="6">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G57" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H57" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I57" s="6">
-        <v>68000008</v>
+        <v>68000007</v>
       </c>
       <c r="J57" s="6">
         <v>0</v>
@@ -5059,30 +5062,30 @@
         <v>0</v>
       </c>
       <c r="N57" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C58" s="6">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>79</v>
       </c>
       <c r="E58" s="6">
-        <v>2010</v>
-      </c>
-      <c r="F58" s="6">
-        <v>6</v>
+        <v>2009</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G58" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H58" s="6">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I58" s="6">
-        <v>68000009</v>
+        <v>68000008</v>
       </c>
       <c r="J58" s="6">
         <v>0</v>
@@ -5097,30 +5100,30 @@
         <v>0</v>
       </c>
       <c r="N58" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C59" s="6">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E59" s="6">
-        <v>2011</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>27</v>
+        <v>2010</v>
+      </c>
+      <c r="F59" s="6">
+        <v>6</v>
       </c>
       <c r="G59" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H59" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I59" s="6">
-        <v>68000010</v>
+        <v>68000009</v>
       </c>
       <c r="J59" s="6">
         <v>0</v>
@@ -5135,30 +5138,30 @@
         <v>0</v>
       </c>
       <c r="N59" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C60" s="6">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>81</v>
       </c>
       <c r="E60" s="6">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G60" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H60" s="6">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I60" s="6">
-        <v>68000011</v>
+        <v>68000010</v>
       </c>
       <c r="J60" s="6">
         <v>0</v>
@@ -5173,30 +5176,30 @@
         <v>0</v>
       </c>
       <c r="N60" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C61" s="6">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>82</v>
       </c>
       <c r="E61" s="6">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G61" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H61" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I61" s="6">
-        <v>68000012</v>
+        <v>68000011</v>
       </c>
       <c r="J61" s="6">
         <v>0</v>
@@ -5216,25 +5219,25 @@
     </row>
     <row r="62" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C62" s="6">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E62" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G62" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H62" s="6">
         <v>0.03</v>
       </c>
       <c r="I62" s="6">
-        <v>68000013</v>
+        <v>68000012</v>
       </c>
       <c r="J62" s="6">
         <v>0</v>
@@ -5254,25 +5257,25 @@
     </row>
     <row r="63" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C63" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E63" s="6">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G63" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H63" s="6">
         <v>0.03</v>
       </c>
       <c r="I63" s="6">
-        <v>68000014</v>
+        <v>68000013</v>
       </c>
       <c r="J63" s="6">
         <v>0</v>
@@ -5287,30 +5290,30 @@
         <v>0</v>
       </c>
       <c r="N63" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C64" s="6">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E64" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G64" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H64" s="6">
         <v>0.03</v>
       </c>
       <c r="I64" s="6">
-        <v>68000015</v>
+        <v>68000014</v>
       </c>
       <c r="J64" s="6">
         <v>0</v>
@@ -5330,25 +5333,25 @@
     </row>
     <row r="65" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C65" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E65" s="6">
-        <v>2017</v>
-      </c>
-      <c r="F65" s="6">
-        <v>1</v>
+        <v>2016</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G65" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H65" s="6">
         <v>0.03</v>
       </c>
       <c r="I65" s="6">
-        <v>68000016</v>
+        <v>68000015</v>
       </c>
       <c r="J65" s="6">
         <v>0</v>
@@ -5368,25 +5371,25 @@
     </row>
     <row r="66" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C66" s="6">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>87</v>
       </c>
       <c r="E66" s="6">
-        <v>2101</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>27</v>
+        <v>2017</v>
+      </c>
+      <c r="F66" s="6">
+        <v>1</v>
       </c>
       <c r="G66" s="6">
         <v>5</v>
       </c>
       <c r="H66" s="6">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I66" s="6">
-        <v>68000017</v>
+        <v>68000016</v>
       </c>
       <c r="J66" s="6">
         <v>0</v>
@@ -5401,30 +5404,30 @@
         <v>0</v>
       </c>
       <c r="N66" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C67" s="6">
-        <v>2101</v>
+        <v>2017</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>88</v>
       </c>
       <c r="E67" s="6">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G67" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H67" s="6">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I67" s="6">
-        <v>68000101</v>
+        <v>68000017</v>
       </c>
       <c r="J67" s="6">
         <v>0</v>
@@ -5444,25 +5447,25 @@
     </row>
     <row r="68" ht="20.1" customHeight="1" spans="3:14">
       <c r="C68" s="6">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>89</v>
       </c>
       <c r="E68" s="6">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G68" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="6">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I68" s="6">
-        <v>68000102</v>
+        <v>68000101</v>
       </c>
       <c r="J68" s="6">
         <v>0</v>
@@ -5477,30 +5480,30 @@
         <v>0</v>
       </c>
       <c r="N68" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" ht="20.1" customHeight="1" spans="3:14">
       <c r="C69" s="6">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E69" s="6">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G69" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="6">
         <v>0.05</v>
       </c>
       <c r="I69" s="6">
-        <v>68000103</v>
+        <v>68000102</v>
       </c>
       <c r="J69" s="6">
         <v>0</v>
@@ -5520,25 +5523,25 @@
     </row>
     <row r="70" ht="20.1" customHeight="1" spans="3:14">
       <c r="C70" s="6">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E70" s="6">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G70" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H70" s="6">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I70" s="6">
-        <v>68000104</v>
+        <v>68000103</v>
       </c>
       <c r="J70" s="6">
         <v>0</v>
@@ -5558,13 +5561,13 @@
     </row>
     <row r="71" ht="20.1" customHeight="1" spans="3:14">
       <c r="C71" s="6">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>92</v>
       </c>
       <c r="E71" s="6">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>27</v>
@@ -5573,10 +5576,10 @@
         <v>0</v>
       </c>
       <c r="H71" s="6">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I71" s="6">
-        <v>68000105</v>
+        <v>68000104</v>
       </c>
       <c r="J71" s="6">
         <v>0</v>
@@ -5596,13 +5599,13 @@
     </row>
     <row r="72" ht="20.1" customHeight="1" spans="3:14">
       <c r="C72" s="6">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>93</v>
       </c>
       <c r="E72" s="6">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>27</v>
@@ -5614,7 +5617,7 @@
         <v>0.02</v>
       </c>
       <c r="I72" s="6">
-        <v>68000106</v>
+        <v>68000105</v>
       </c>
       <c r="J72" s="6">
         <v>0</v>
@@ -5634,13 +5637,13 @@
     </row>
     <row r="73" ht="20.1" customHeight="1" spans="3:14">
       <c r="C73" s="6">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>94</v>
       </c>
       <c r="E73" s="6">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>27</v>
@@ -5649,10 +5652,10 @@
         <v>0</v>
       </c>
       <c r="H73" s="6">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I73" s="6">
-        <v>68000107</v>
+        <v>68000106</v>
       </c>
       <c r="J73" s="6">
         <v>0</v>
@@ -5672,13 +5675,13 @@
     </row>
     <row r="74" ht="20.1" customHeight="1" spans="3:14">
       <c r="C74" s="6">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>95</v>
       </c>
       <c r="E74" s="6">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>27</v>
@@ -5687,10 +5690,10 @@
         <v>0</v>
       </c>
       <c r="H74" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I74" s="6">
-        <v>68000108</v>
+        <v>68000107</v>
       </c>
       <c r="J74" s="6">
         <v>0</v>
@@ -5710,13 +5713,13 @@
     </row>
     <row r="75" ht="20.1" customHeight="1" spans="3:14">
       <c r="C75" s="6">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E75" s="6">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>27</v>
@@ -5725,10 +5728,10 @@
         <v>0</v>
       </c>
       <c r="H75" s="6">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I75" s="6">
-        <v>68000109</v>
+        <v>68000108</v>
       </c>
       <c r="J75" s="6">
         <v>0</v>
@@ -5748,25 +5751,25 @@
     </row>
     <row r="76" ht="20.1" customHeight="1" spans="3:14">
       <c r="C76" s="6">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>97</v>
       </c>
       <c r="E76" s="6">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G76" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H76" s="6">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I76" s="6">
-        <v>68000110</v>
+        <v>68000109</v>
       </c>
       <c r="J76" s="6">
         <v>0</v>
@@ -5781,30 +5784,30 @@
         <v>0</v>
       </c>
       <c r="N76" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" ht="20.1" customHeight="1" spans="3:14">
       <c r="C77" s="6">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E77" s="6">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G77" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H77" s="6">
         <v>0.02</v>
       </c>
       <c r="I77" s="6">
-        <v>68000111</v>
+        <v>68000110</v>
       </c>
       <c r="J77" s="6">
         <v>0</v>
@@ -5824,25 +5827,25 @@
     </row>
     <row r="78" ht="20.1" customHeight="1" spans="3:14">
       <c r="C78" s="6">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E78" s="6">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G78" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H78" s="6">
         <v>0.02</v>
       </c>
       <c r="I78" s="6">
-        <v>68000112</v>
+        <v>68000111</v>
       </c>
       <c r="J78" s="6">
         <v>0</v>
@@ -5862,39 +5865,77 @@
     </row>
     <row r="79" ht="20.1" customHeight="1" spans="3:14">
       <c r="C79" s="6">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>100</v>
       </c>
       <c r="E79" s="6">
-        <v>0</v>
+        <v>2113</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G79" s="6">
+        <v>5</v>
+      </c>
+      <c r="H79" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I79" s="6">
+        <v>68000112</v>
+      </c>
+      <c r="J79" s="6">
+        <v>0</v>
+      </c>
+      <c r="K79" s="6">
+        <v>0</v>
+      </c>
+      <c r="L79" s="6">
+        <v>0</v>
+      </c>
+      <c r="M79" s="6">
+        <v>0</v>
+      </c>
+      <c r="N79" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" ht="20.1" customHeight="1" spans="3:14">
+      <c r="C80" s="6">
+        <v>2113</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E80" s="6">
+        <v>0</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G80" s="6">
         <v>6</v>
       </c>
-      <c r="H79" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="I79" s="6">
+      <c r="H80" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I80" s="6">
         <v>68000113</v>
       </c>
-      <c r="J79" s="6">
-        <v>0</v>
-      </c>
-      <c r="K79" s="6">
-        <v>0</v>
-      </c>
-      <c r="L79" s="6">
-        <v>0</v>
-      </c>
-      <c r="M79" s="6">
-        <v>0</v>
-      </c>
-      <c r="N79" s="6">
+      <c r="J80" s="6">
+        <v>0</v>
+      </c>
+      <c r="K80" s="6">
+        <v>0</v>
+      </c>
+      <c r="L80" s="6">
+        <v>0</v>
+      </c>
+      <c r="M80" s="6">
+        <v>0</v>
+      </c>
+      <c r="N80" s="6">
         <v>100</v>
       </c>
     </row>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF150335-1B90-4DF5-9522-88311074B5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HideProListProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -34,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -43,6 +51,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1 武器
@@ -52,6 +61,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">2 衣服
@@ -61,6 +71,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">3 护符
@@ -70,6 +81,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">4 戒指
@@ -79,6 +91,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">5 饰品
@@ -88,6 +101,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">6 鞋子
@@ -97,6 +111,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">7 裤子
@@ -106,6 +121,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">8 腰带
@@ -115,6 +131,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">9 手镯
@@ -124,6 +141,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">10 头盔
@@ -133,19 +151,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>11 项链</t>
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -154,6 +174,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -163,6 +184,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">当字段为极品属性时此字段为属性类型
@@ -172,19 +194,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>此字段为隐藏技能时,此字段为技能ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -193,6 +217,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -202,20 +227,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>隐藏属性最大值是否根据装备等级成长</t>
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>作者:</t>
         </r>
@@ -223,7 +249,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -232,7 +258,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1</t>
         </r>
@@ -240,6 +266,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：表示整数
@@ -249,7 +276,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>0</t>
         </r>
@@ -257,6 +284,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：表示小数</t>
@@ -268,15 +296,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
   <si>
     <t>Id</t>
   </si>
@@ -587,14 +615,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,6 +628,7 @@
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -613,6 +636,7 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -620,161 +644,57 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,19 +709,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,210 +733,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1093,1162 +869,935 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="361">
+  <cellStyleXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2271,370 +1820,331 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="361">
+  <cellStyles count="313">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 4" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 5" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="10" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 4" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 5" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 5" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 4" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 5" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 4" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 5" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="11" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 4" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 5" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 4" xfId="17" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 5" xfId="19" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 4" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 5" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="26" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 4" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 5" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 4" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 4" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 5" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 4" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 5" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 4" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 5" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="21" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 4" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 5" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 4" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 5" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 4" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 5" xfId="36" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 4" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 5" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 4" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 5" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="25" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 4" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 5" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 4" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 5" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="27" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="注释 2 3 5" xfId="4"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="货币" xfId="6" builtinId="4"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 5" xfId="7"/>
-    <cellStyle name="千位分隔[0]" xfId="8" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 4" xfId="10"/>
-    <cellStyle name="差" xfId="11" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
-    <cellStyle name="常规 5 2 5" xfId="13"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="14"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="16" builtinId="40"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8"/>
-    <cellStyle name="百分比" xfId="18" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9"/>
-    <cellStyle name="常规 2 3 3 6" xfId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="21"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="22"/>
-    <cellStyle name="注释" xfId="23" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="24"/>
-    <cellStyle name="标题 4" xfId="25" builtinId="19"/>
-    <cellStyle name="常规 5 2 4" xfId="26"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="27" builtinId="36"/>
-    <cellStyle name="警告文本" xfId="28" builtinId="11"/>
-    <cellStyle name="标题" xfId="29" builtinId="15"/>
-    <cellStyle name="常规 5 2" xfId="30"/>
-    <cellStyle name="解释性文本" xfId="31" builtinId="53"/>
-    <cellStyle name="常规 2 3 3 2 5" xfId="32"/>
-    <cellStyle name="标题 1" xfId="33" builtinId="16"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="34"/>
-    <cellStyle name="常规 5 2 2" xfId="35"/>
-    <cellStyle name="标题 2" xfId="36" builtinId="17"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 4" xfId="37"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="38" builtinId="32"/>
-    <cellStyle name="常规 5 2 3" xfId="39"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 5" xfId="40"/>
-    <cellStyle name="标题 3" xfId="41" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="42" builtinId="44"/>
-    <cellStyle name="输出" xfId="43" builtinId="21"/>
-    <cellStyle name="常规 2 3 2 2 2 5" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="45"/>
-    <cellStyle name="计算" xfId="46" builtinId="22"/>
-    <cellStyle name="常规 2 3 4 4" xfId="47"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="48"/>
-    <cellStyle name="检查单元格" xfId="49" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="50" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="51" builtinId="33"/>
-    <cellStyle name="注释 2 3" xfId="52"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="53"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="54"/>
-    <cellStyle name="链接单元格" xfId="55" builtinId="24"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="56"/>
-    <cellStyle name="汇总" xfId="57" builtinId="25"/>
-    <cellStyle name="注释 2 2 2 5" xfId="58"/>
-    <cellStyle name="好" xfId="59" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="60"/>
-    <cellStyle name="适中" xfId="61" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="62" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="63" builtinId="29"/>
-    <cellStyle name="注释 2 3 3" xfId="64"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="65"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="66" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="67"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="68" builtinId="31"/>
-    <cellStyle name="注释 2 3 4" xfId="69"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="72"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="74" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="75" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="76" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 5" xfId="77"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="78" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="79" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="80" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="81" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="82" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="83"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="84" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="85" builtinId="52"/>
-    <cellStyle name="常规 5 2 6" xfId="86"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="88"/>
-    <cellStyle name="常规 2 3 2 4" xfId="89"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="90"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="91"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="93"/>
-    <cellStyle name="常规 2 3 2 3 4" xfId="94"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 4" xfId="95"/>
-    <cellStyle name="常规 2 3 2 3 5" xfId="96"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 5" xfId="97"/>
-    <cellStyle name="常规 2 3 2 3" xfId="98"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="99"/>
-    <cellStyle name="常规 2 3 2 5" xfId="100"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="101"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="102"/>
-    <cellStyle name="常规 2 3 2 6" xfId="103"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="104"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="105"/>
-    <cellStyle name="常规 2 3 2 7" xfId="106"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="107"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="108"/>
-    <cellStyle name="常规 2 3 3 3" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="110"/>
-    <cellStyle name="常规 2 3 3 4" xfId="111"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="112"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="113"/>
-    <cellStyle name="常规 2 3 3 5" xfId="114"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="117"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="118"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="120"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 5" xfId="121"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="124"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="125"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="126"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 4" xfId="127"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 5" xfId="128"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="129"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="130"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="132"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="133"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="134"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="135"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="136"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 5" xfId="137"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="138"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 5" xfId="140"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="141"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="142"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="143"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="144"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 4" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 5" xfId="146"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="147"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="148"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="149"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="152"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="153"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="155"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="156"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="157"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="158"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="159"/>
-    <cellStyle name="常规 3" xfId="160"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="161"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="162"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 4" xfId="163"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="164"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="165"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="166"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="167"/>
-    <cellStyle name="常规 4" xfId="168"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="169"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="170"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="171"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="172"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="173"/>
-    <cellStyle name="常规 5" xfId="174"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="175"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="176"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="177"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="178"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="179"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="180"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="181"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="182"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 4" xfId="183"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 5" xfId="184"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="185"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="186"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="187"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="188"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="189"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="190"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="191"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="192"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="193"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="194"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="195"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="196"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="197"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="198"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="199"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 4" xfId="200"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 5" xfId="201"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="202"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="203"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="204"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="205"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="206"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="207"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="208"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="209"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="210"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="211"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="212"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="213"/>
-    <cellStyle name="注释 2 2" xfId="214"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="215"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="216"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="217"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="218"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="219"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="220"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="221"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="222"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="223"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="224"/>
-    <cellStyle name="常规 5 7" xfId="225"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="226"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="227"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="228"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 4" xfId="230"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 5" xfId="231"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 4" xfId="232"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 5" xfId="234"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="235"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="236"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="237"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="238"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="239"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="240"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 4" xfId="241"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="242"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="243"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="244"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="245"/>
-    <cellStyle name="常规 5 3 5" xfId="246"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="247"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="248"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="249"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="250"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 4" xfId="251"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="252"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 5" xfId="253"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="254"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="255"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="256"/>
-    <cellStyle name="常规 2 3 2 2" xfId="257"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="258"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="259"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="260"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 4" xfId="261"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 5" xfId="262"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="263"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="264"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="265"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="266"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="267"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="268"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="269"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 4" xfId="270"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="271"/>
-    <cellStyle name="常规 2 3 2 2 2 4" xfId="272"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="273"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 4" xfId="274"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 5" xfId="275"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="276"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="277"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="278"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="279"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="280"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="281"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 4" xfId="282"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 5" xfId="283"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="284"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="285"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="286"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="287"/>
-    <cellStyle name="常规 2 3 4 5" xfId="288"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="289"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="290"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="291"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="292"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 4" xfId="293"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="294"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 5" xfId="295"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="296"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="297"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="298"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 4" xfId="299"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 5" xfId="300"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="301"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="302"/>
-    <cellStyle name="常规 5 6" xfId="303"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="304"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="305"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="306"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="307"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="308"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="309"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="310"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="311"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 4" xfId="312"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 5" xfId="313"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="314"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="315"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="316"/>
-    <cellStyle name="常规 2" xfId="317"/>
-    <cellStyle name="常规 2 2" xfId="318"/>
-    <cellStyle name="常规 2 3" xfId="319"/>
-    <cellStyle name="常规 2 3 2" xfId="320"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="321"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="322"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="323"/>
-    <cellStyle name="注释 2 3 2" xfId="324"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="325"/>
-    <cellStyle name="常规 2 3 3" xfId="326"/>
-    <cellStyle name="常规 2 3 3 2" xfId="327"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="328"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="329"/>
-    <cellStyle name="常规 2 3 3 2 4" xfId="330"/>
-    <cellStyle name="常规 2 3 4" xfId="331"/>
-    <cellStyle name="常规 2 3 4 2" xfId="332"/>
-    <cellStyle name="常规 2 3 4 3" xfId="333"/>
-    <cellStyle name="常规 2 3 5" xfId="334"/>
-    <cellStyle name="常规 5 2 2 2" xfId="335"/>
-    <cellStyle name="常规 2 3 6" xfId="336"/>
-    <cellStyle name="常规 5 2 2 3" xfId="337"/>
-    <cellStyle name="常规 2 3 7" xfId="338"/>
-    <cellStyle name="常规 5 2 2 4" xfId="339"/>
-    <cellStyle name="常规 2 3 8" xfId="340"/>
-    <cellStyle name="常规 5 2 2 5" xfId="341"/>
-    <cellStyle name="常规 5 3" xfId="342"/>
-    <cellStyle name="常规 5 3 2" xfId="343"/>
-    <cellStyle name="常规 5 3 3" xfId="344"/>
-    <cellStyle name="常规 5 3 4" xfId="345"/>
-    <cellStyle name="常规 5 4" xfId="346"/>
-    <cellStyle name="常规 5 5" xfId="347"/>
-    <cellStyle name="注释 2" xfId="348"/>
-    <cellStyle name="注释 2 2 2" xfId="349"/>
-    <cellStyle name="注释 2 2 2 2" xfId="350"/>
-    <cellStyle name="注释 2 2 2 3" xfId="351"/>
-    <cellStyle name="注释 2 2 2 4" xfId="352"/>
-    <cellStyle name="注释 2 2 3" xfId="353"/>
-    <cellStyle name="注释 2 2 4" xfId="354"/>
-    <cellStyle name="注释 2 2 5" xfId="355"/>
-    <cellStyle name="注释 2 2 6" xfId="356"/>
-    <cellStyle name="注释 2 4" xfId="357"/>
-    <cellStyle name="注释 2 5" xfId="358"/>
-    <cellStyle name="注释 2 6" xfId="359"/>
-    <cellStyle name="注释 2 7" xfId="360"/>
+    <cellStyle name="常规 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="常规 2 2" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="常规 2 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="常规 2 3 2" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 4" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 5" xfId="20" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="31" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="34" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="常规 2 3 2 3 4" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 2 3 2 3 5" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 2 3 2 4" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="常规 2 3 2 5" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 2 3 2 6" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="常规 2 3 2 7" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="常规 2 3 3 2 4" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="常规 2 3 3 2 5" xfId="14" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="常规 2 3 3 3" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="常规 2 3 3 4" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="常规 2 3 3 5" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="常规 2 3 3 6" xfId="8" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="常规 2 3 4" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="常规 2 3 4 2" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="常规 2 3 4 3" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="常规 2 3 4 4" xfId="22" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="常规 2 3 4 5" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="常规 2 3 5" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="常规 2 3 6" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="常规 2 3 7" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="常规 2 3 8" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="常规 3" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="常规 4" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="常规 5" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="常规 5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="常规 5 2 2 2" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="常规 5 2 2 3" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="常规 5 2 2 4" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="常规 5 2 2 5" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="常规 5 2 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="常规 5 2 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 5 2 5" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 5 2 6" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="常规 5 3" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="常规 5 3 2" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="常规 5 3 3" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="常规 5 3 4" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="常规 5 3 5" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="常规 5 4" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="常规 5 5" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="常规 5 6" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="常规 5 7" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="注释 2" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="注释 2 2" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="注释 2 2 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="注释 2 2 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="注释 2 2 2 3" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="注释 2 2 2 4" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="注释 2 2 2 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="注释 2 2 3" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="注释 2 2 4" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="注释 2 2 5" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="注释 2 2 6" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="注释 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="注释 2 3 2" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="注释 2 3 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="注释 2 3 4" xfId="33" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="注释 2 3 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="注释 2 4" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="注释 2 5" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="注释 2 6" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="注释 2 7" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2662,7 +2172,7 @@
     </xsd:schema>
   </Schema>
   <Map ID="1" Name="DateArea_映射" RootElement="DateArea" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding ConnectionID="1" FileBinding="true" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
@@ -2948,19 +2458,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="11.375" customWidth="1"/>
     <col min="4" max="4" width="18.875" customWidth="1"/>
@@ -2973,9 +2483,9 @@
     <col min="14" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1"/>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="1" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3013,7 +2523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="4" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3051,7 +2561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="5" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
@@ -3089,7 +2599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="6" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="6">
         <v>1001</v>
       </c>
@@ -3118,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M6" s="6">
         <v>0.02</v>
@@ -3127,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="7" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="6">
         <v>1002</v>
       </c>
@@ -3156,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M7" s="6">
         <v>0.02</v>
@@ -3165,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="8" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="6">
         <v>1003</v>
       </c>
@@ -3194,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M8" s="6">
         <v>0.02</v>
@@ -3203,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="9" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="6">
         <v>1004</v>
       </c>
@@ -3232,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M9" s="6">
         <v>0.02</v>
@@ -3241,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="10" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="6">
         <v>1005</v>
       </c>
@@ -3279,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="11" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="6">
         <v>1006</v>
       </c>
@@ -3317,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="12" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="6">
         <v>1007</v>
       </c>
@@ -3346,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M12" s="6">
         <v>0.02</v>
@@ -3355,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:14">
+    <row r="13" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="6">
         <v>1008</v>
       </c>
@@ -3393,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:14">
+    <row r="14" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="6">
         <v>1009</v>
       </c>
@@ -3431,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:14">
+    <row r="15" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="6">
         <v>1010</v>
       </c>
@@ -3469,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:14">
+    <row r="16" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="6">
         <v>1011</v>
       </c>
@@ -3507,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:14">
+    <row r="17" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="6">
         <v>1012</v>
       </c>
@@ -3524,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="6">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I17" s="6">
         <v>120101</v>
@@ -3545,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:14">
+    <row r="18" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="6">
         <v>1013</v>
       </c>
@@ -3583,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:14">
+    <row r="19" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="6">
         <v>1014</v>
       </c>
@@ -3621,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:14">
+    <row r="20" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="6">
         <v>1015</v>
       </c>
@@ -3659,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:14">
+    <row r="21" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="6">
         <v>1016</v>
       </c>
@@ -3697,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:14">
+    <row r="22" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="6">
         <v>1017</v>
       </c>
@@ -3726,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M22" s="6">
         <v>0.02</v>
@@ -3735,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:14">
+    <row r="23" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="6">
         <v>1018</v>
       </c>
@@ -3764,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M23" s="6">
         <v>0.02</v>
@@ -3773,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:14">
+    <row r="24" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="6">
         <v>1019</v>
       </c>
@@ -3802,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M24" s="6">
         <v>0.02</v>
@@ -3811,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:14">
+    <row r="25" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="6">
         <v>1020</v>
       </c>
@@ -3840,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M25" s="6">
         <v>0.02</v>
@@ -3849,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:14">
+    <row r="26" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="6">
         <v>1021</v>
       </c>
@@ -3878,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M26" s="6">
         <v>0.02</v>
@@ -3887,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:14">
+    <row r="27" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="6">
         <v>1022</v>
       </c>
@@ -3916,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M27" s="6">
         <v>0.02</v>
@@ -3925,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="20.1" customHeight="1" spans="3:14">
+    <row r="28" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="6">
         <v>1023</v>
       </c>
@@ -3954,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M28" s="6">
         <v>0.02</v>
@@ -3963,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="20.1" customHeight="1" spans="3:14">
+    <row r="29" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="6">
         <v>1024</v>
       </c>
@@ -3992,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M29" s="6">
         <v>0.02</v>
@@ -4001,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:14">
+    <row r="30" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="6">
         <v>1025</v>
       </c>
@@ -4030,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M30" s="6">
         <v>0.02</v>
@@ -4039,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:14">
+    <row r="31" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="6">
         <v>1026</v>
       </c>
@@ -4068,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M31" s="6">
         <v>0.02</v>
@@ -4077,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:14">
+    <row r="32" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="6">
         <v>1027</v>
       </c>
@@ -4106,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M32" s="6">
         <v>0.02</v>
@@ -4115,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:14">
+    <row r="33" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="6">
         <v>1028</v>
       </c>
@@ -4144,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M33" s="6">
         <v>0.02</v>
@@ -4153,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:14">
+    <row r="34" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="6">
         <v>1030</v>
       </c>
@@ -4182,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M34" s="6">
         <v>0.02</v>
@@ -4191,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:14">
+    <row r="35" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="6">
         <v>1031</v>
       </c>
@@ -4220,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M35" s="6">
         <v>0.02</v>
@@ -4229,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:14">
+    <row r="36" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="6">
         <v>1032</v>
       </c>
@@ -4258,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M36" s="6">
         <v>0.02</v>
@@ -4267,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:14">
+    <row r="37" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="6">
         <v>1033</v>
       </c>
@@ -4296,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M37" s="6">
         <v>0.02</v>
@@ -4305,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:14">
+    <row r="38" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="6">
         <v>1034</v>
       </c>
@@ -4334,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M38" s="6">
         <v>0.02</v>
@@ -4343,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:14">
+    <row r="39" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="6">
         <v>1035</v>
       </c>
@@ -4372,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M39" s="6">
         <v>0.02</v>
@@ -4381,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="40" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="6">
         <v>1036</v>
       </c>
@@ -4419,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="41" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="6">
         <v>1037</v>
       </c>
@@ -4457,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="42" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="6">
         <v>1038</v>
       </c>
@@ -4495,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="43" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="6">
         <v>1039</v>
       </c>
@@ -4533,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="44" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="6">
         <v>1040</v>
       </c>
@@ -4571,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:14">
+    <row r="45" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="6">
         <v>1041</v>
       </c>
@@ -4600,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M45" s="6">
         <v>0.02</v>
@@ -4609,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:14">
+    <row r="46" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="6">
         <v>1042</v>
       </c>
@@ -4638,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M46" s="6">
         <v>0.02</v>
@@ -4647,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:14">
+    <row r="47" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="6">
         <v>1043</v>
       </c>
@@ -4676,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M47" s="6">
         <v>0.02</v>
@@ -4685,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:14">
+    <row r="48" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="6">
         <v>1044</v>
       </c>
@@ -4714,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M48" s="6">
         <v>0.02</v>
@@ -4723,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="49" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="6">
         <v>1045</v>
       </c>
@@ -4752,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M49" s="6">
         <v>0.02</v>
@@ -4761,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="50" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="6">
         <v>1046</v>
       </c>
@@ -4790,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="M50" s="6">
         <v>0.02</v>
@@ -4799,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="51" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="6">
         <v>2001</v>
       </c>
@@ -4837,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="52" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="6">
         <v>2002</v>
       </c>
@@ -4875,7 +4385,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="53" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="6">
         <v>2003</v>
       </c>
@@ -4913,7 +4423,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="54" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="6">
         <v>2004</v>
       </c>
@@ -4951,7 +4461,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="55" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="6">
         <v>2005</v>
       </c>
@@ -4989,7 +4499,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="56" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="6">
         <v>2006</v>
       </c>
@@ -5027,7 +4537,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="57" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="6">
         <v>2007</v>
       </c>
@@ -5065,7 +4575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="58" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="6">
         <v>2008</v>
       </c>
@@ -5103,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="59" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="6">
         <v>2009</v>
       </c>
@@ -5141,7 +4651,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="60" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="6">
         <v>2010</v>
       </c>
@@ -5179,7 +4689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="61" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="6">
         <v>2011</v>
       </c>
@@ -5217,7 +4727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="62" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="6">
         <v>2012</v>
       </c>
@@ -5255,7 +4765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="63" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="6">
         <v>2013</v>
       </c>
@@ -5293,7 +4803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="64" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="6">
         <v>2014</v>
       </c>
@@ -5331,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="65" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="6">
         <v>2015</v>
       </c>
@@ -5369,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="66" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="6">
         <v>2016</v>
       </c>
@@ -5407,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="67" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="6">
         <v>2017</v>
       </c>
@@ -5445,7 +4955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:14">
+    <row r="68" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="6">
         <v>2101</v>
       </c>
@@ -5483,7 +4993,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:14">
+    <row r="69" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="6">
         <v>2102</v>
       </c>
@@ -5521,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:14">
+    <row r="70" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="6">
         <v>2103</v>
       </c>
@@ -5559,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:14">
+    <row r="71" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="6">
         <v>2104</v>
       </c>
@@ -5597,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:14">
+    <row r="72" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="6">
         <v>2105</v>
       </c>
@@ -5635,7 +5145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:14">
+    <row r="73" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="6">
         <v>2106</v>
       </c>
@@ -5673,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:14">
+    <row r="74" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="6">
         <v>2107</v>
       </c>
@@ -5711,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:14">
+    <row r="75" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="6">
         <v>2108</v>
       </c>
@@ -5749,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" ht="20.1" customHeight="1" spans="3:14">
+    <row r="76" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="6">
         <v>2109</v>
       </c>
@@ -5787,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" ht="20.1" customHeight="1" spans="3:14">
+    <row r="77" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="6">
         <v>2110</v>
       </c>
@@ -5825,7 +5335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" ht="20.1" customHeight="1" spans="3:14">
+    <row r="78" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="6">
         <v>2111</v>
       </c>
@@ -5863,7 +5373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" ht="20.1" customHeight="1" spans="3:14">
+    <row r="79" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="6">
         <v>2112</v>
       </c>
@@ -5901,7 +5411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" ht="20.1" customHeight="1" spans="3:14">
+    <row r="80" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="6">
         <v>2113</v>
       </c>
@@ -5940,9 +5450,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF150335-1B90-4DF5-9522-88311074B5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF4A57B-1C98-49B1-AA61-DCF8E6860B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2466,8 +2466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF4A57B-1C98-49B1-AA61-DCF8E6860B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6C44F2-F72E-401C-A2EF-F05EF4BD719C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HideProListProto" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -291,6 +292,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{5387E174-4222-4CCB-9000-D97FE0608FBD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0:表示不可以转移
+1:表示可以转移</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -304,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="103">
   <si>
     <t>Id</t>
   </si>
@@ -610,13 +638,17 @@
   </si>
   <si>
     <t>急速</t>
+  </si>
+  <si>
+    <t>转移是否继承</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,6 +724,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="17">
@@ -2464,10 +2511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:N80"/>
+  <dimension ref="C1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="O76" sqref="O76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2481,11 +2528,12 @@
     <col min="10" max="11" width="15" customWidth="1"/>
     <col min="12" max="13" width="17.125" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2522,8 +2570,11 @@
       <c r="N3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O3" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2560,8 +2611,11 @@
       <c r="N4" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
@@ -2598,8 +2652,11 @@
       <c r="N5" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="6">
         <v>1001</v>
       </c>
@@ -2636,8 +2693,11 @@
       <c r="N6" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="6">
         <v>1002</v>
       </c>
@@ -2674,8 +2734,11 @@
       <c r="N7" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="6">
         <v>1003</v>
       </c>
@@ -2712,8 +2775,11 @@
       <c r="N8" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="6">
         <v>1004</v>
       </c>
@@ -2750,8 +2816,11 @@
       <c r="N9" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="6">
         <v>1005</v>
       </c>
@@ -2788,8 +2857,11 @@
       <c r="N10" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="6">
         <v>1006</v>
       </c>
@@ -2826,8 +2898,11 @@
       <c r="N11" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="6">
         <v>1007</v>
       </c>
@@ -2864,8 +2939,11 @@
       <c r="N12" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="6">
         <v>1008</v>
       </c>
@@ -2902,8 +2980,11 @@
       <c r="N13" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="6">
         <v>1009</v>
       </c>
@@ -2940,8 +3021,11 @@
       <c r="N14" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="6">
         <v>1010</v>
       </c>
@@ -2978,8 +3062,11 @@
       <c r="N15" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="6">
         <v>1011</v>
       </c>
@@ -3016,8 +3103,11 @@
       <c r="N16" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="6">
         <v>1012</v>
       </c>
@@ -3054,8 +3144,11 @@
       <c r="N17" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="6">
         <v>1013</v>
       </c>
@@ -3092,8 +3185,11 @@
       <c r="N18" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="6">
         <v>1014</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="N19" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="6">
         <v>1015</v>
       </c>
@@ -3168,8 +3267,11 @@
       <c r="N20" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="6">
         <v>1016</v>
       </c>
@@ -3206,8 +3308,11 @@
       <c r="N21" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="6">
         <v>1017</v>
       </c>
@@ -3244,8 +3349,11 @@
       <c r="N22" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="6">
         <v>1018</v>
       </c>
@@ -3282,8 +3390,11 @@
       <c r="N23" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="6">
         <v>1019</v>
       </c>
@@ -3320,8 +3431,11 @@
       <c r="N24" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="6">
         <v>1020</v>
       </c>
@@ -3358,8 +3472,11 @@
       <c r="N25" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="6">
         <v>1021</v>
       </c>
@@ -3396,8 +3513,11 @@
       <c r="N26" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="6">
         <v>1022</v>
       </c>
@@ -3434,8 +3554,11 @@
       <c r="N27" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="6">
         <v>1023</v>
       </c>
@@ -3472,8 +3595,11 @@
       <c r="N28" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="6">
         <v>1024</v>
       </c>
@@ -3510,8 +3636,11 @@
       <c r="N29" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="6">
         <v>1025</v>
       </c>
@@ -3548,8 +3677,11 @@
       <c r="N30" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="6">
         <v>1026</v>
       </c>
@@ -3586,8 +3718,11 @@
       <c r="N31" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="6">
         <v>1027</v>
       </c>
@@ -3624,8 +3759,11 @@
       <c r="N32" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="6">
         <v>1028</v>
       </c>
@@ -3662,8 +3800,11 @@
       <c r="N33" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="6">
         <v>1030</v>
       </c>
@@ -3700,8 +3841,11 @@
       <c r="N34" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O34" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="6">
         <v>1031</v>
       </c>
@@ -3738,8 +3882,11 @@
       <c r="N35" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="6">
         <v>1032</v>
       </c>
@@ -3776,8 +3923,11 @@
       <c r="N36" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="6">
         <v>1033</v>
       </c>
@@ -3814,8 +3964,11 @@
       <c r="N37" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="6">
         <v>1034</v>
       </c>
@@ -3852,8 +4005,11 @@
       <c r="N38" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O38" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="6">
         <v>1035</v>
       </c>
@@ -3890,8 +4046,11 @@
       <c r="N39" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="6">
         <v>1036</v>
       </c>
@@ -3928,8 +4087,11 @@
       <c r="N40" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="6">
         <v>1037</v>
       </c>
@@ -3966,8 +4128,11 @@
       <c r="N41" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="6">
         <v>1038</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="N42" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="6">
         <v>1039</v>
       </c>
@@ -4042,8 +4210,11 @@
       <c r="N43" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O43" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="6">
         <v>1040</v>
       </c>
@@ -4080,8 +4251,11 @@
       <c r="N44" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="6">
         <v>1041</v>
       </c>
@@ -4118,8 +4292,11 @@
       <c r="N45" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="6">
         <v>1042</v>
       </c>
@@ -4156,8 +4333,11 @@
       <c r="N46" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O46" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="6">
         <v>1043</v>
       </c>
@@ -4194,8 +4374,11 @@
       <c r="N47" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="6">
         <v>1044</v>
       </c>
@@ -4232,8 +4415,11 @@
       <c r="N48" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="6">
         <v>1045</v>
       </c>
@@ -4270,8 +4456,11 @@
       <c r="N49" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="6">
         <v>1046</v>
       </c>
@@ -4308,8 +4497,11 @@
       <c r="N50" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="6">
         <v>2001</v>
       </c>
@@ -4346,8 +4538,11 @@
       <c r="N51" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="6">
         <v>2002</v>
       </c>
@@ -4384,8 +4579,11 @@
       <c r="N52" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O52" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="6">
         <v>2003</v>
       </c>
@@ -4422,8 +4620,11 @@
       <c r="N53" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O53" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="6">
         <v>2004</v>
       </c>
@@ -4460,8 +4661,11 @@
       <c r="N54" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O54" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="6">
         <v>2005</v>
       </c>
@@ -4498,8 +4702,11 @@
       <c r="N55" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="56" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O55" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="6">
         <v>2006</v>
       </c>
@@ -4536,8 +4743,11 @@
       <c r="N56" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="57" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O56" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="6">
         <v>2007</v>
       </c>
@@ -4574,8 +4784,11 @@
       <c r="N57" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O57" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="6">
         <v>2008</v>
       </c>
@@ -4612,8 +4825,11 @@
       <c r="N58" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O58" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="6">
         <v>2009</v>
       </c>
@@ -4650,8 +4866,11 @@
       <c r="N59" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O59" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="6">
         <v>2010</v>
       </c>
@@ -4688,8 +4907,11 @@
       <c r="N60" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O60" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="6">
         <v>2011</v>
       </c>
@@ -4726,8 +4948,11 @@
       <c r="N61" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O61" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="6">
         <v>2012</v>
       </c>
@@ -4764,8 +4989,11 @@
       <c r="N62" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O62" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="6">
         <v>2013</v>
       </c>
@@ -4802,8 +5030,11 @@
       <c r="N63" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O63" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="6">
         <v>2014</v>
       </c>
@@ -4840,8 +5071,11 @@
       <c r="N64" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O64" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="6">
         <v>2015</v>
       </c>
@@ -4878,8 +5112,11 @@
       <c r="N65" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O65" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="6">
         <v>2016</v>
       </c>
@@ -4916,8 +5153,11 @@
       <c r="N66" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="3:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O66" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="6">
         <v>2017</v>
       </c>
@@ -4954,8 +5194,11 @@
       <c r="N67" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="68" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O67" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="6">
         <v>2101</v>
       </c>
@@ -4992,8 +5235,11 @@
       <c r="N68" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="69" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O68" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="6">
         <v>2102</v>
       </c>
@@ -5030,8 +5276,11 @@
       <c r="N69" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O69" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="6">
         <v>2103</v>
       </c>
@@ -5068,8 +5317,11 @@
       <c r="N70" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="6">
         <v>2104</v>
       </c>
@@ -5106,8 +5358,11 @@
       <c r="N71" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O71" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="6">
         <v>2105</v>
       </c>
@@ -5144,8 +5399,11 @@
       <c r="N72" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O72" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="6">
         <v>2106</v>
       </c>
@@ -5182,8 +5440,11 @@
       <c r="N73" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O73" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="6">
         <v>2107</v>
       </c>
@@ -5220,8 +5481,11 @@
       <c r="N74" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="6">
         <v>2108</v>
       </c>
@@ -5258,8 +5522,11 @@
       <c r="N75" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O75" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="6">
         <v>2109</v>
       </c>
@@ -5296,8 +5563,11 @@
       <c r="N76" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="6">
         <v>2110</v>
       </c>
@@ -5334,8 +5604,11 @@
       <c r="N77" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="78" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O77" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="6">
         <v>2111</v>
       </c>
@@ -5372,8 +5645,11 @@
       <c r="N78" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O78" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="6">
         <v>2112</v>
       </c>
@@ -5410,8 +5686,11 @@
       <c r="N79" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="80" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O79" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="6">
         <v>2113</v>
       </c>
@@ -5447,6 +5726,9 @@
       </c>
       <c r="N80" s="6">
         <v>100</v>
+      </c>
+      <c r="O80" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6C44F2-F72E-401C-A2EF-F05EF4BD719C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1AE51A-FDFA-49F7-AF0F-116195E2DE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HideProListProto" sheetId="1" r:id="rId1"/>
@@ -332,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="109">
   <si>
     <t>Id</t>
   </si>
@@ -641,6 +641,30 @@
   </si>
   <si>
     <t>转移是否继承</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔御</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IfMove</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2511,10 +2535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:O80"/>
+  <dimension ref="C1:O110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="O76" sqref="O76"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2528,7 +2552,7 @@
     <col min="10" max="11" width="15" customWidth="1"/>
     <col min="12" max="13" width="17.125" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="15" max="15" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2612,7 +2636,7 @@
         <v>21</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2694,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2735,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2776,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2817,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2858,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2899,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2940,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2981,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3022,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3063,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3104,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3145,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3186,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3227,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3268,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3309,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3350,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3391,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3432,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3473,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3514,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3555,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3596,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3637,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3678,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3719,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3760,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3801,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3842,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3883,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3924,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3965,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4006,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4047,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4088,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4129,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4170,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4211,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4252,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4293,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4334,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4375,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4416,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4457,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4498,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4539,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4580,7 +4604,7 @@
         <v>100</v>
       </c>
       <c r="O52" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4621,7 +4645,7 @@
         <v>100</v>
       </c>
       <c r="O53" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4662,7 +4686,7 @@
         <v>100</v>
       </c>
       <c r="O54" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4703,7 +4727,7 @@
         <v>100</v>
       </c>
       <c r="O55" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4744,7 +4768,7 @@
         <v>100</v>
       </c>
       <c r="O56" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4785,7 +4809,7 @@
         <v>100</v>
       </c>
       <c r="O57" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4826,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4867,7 +4891,7 @@
         <v>100</v>
       </c>
       <c r="O59" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4908,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4949,7 +4973,7 @@
         <v>100</v>
       </c>
       <c r="O61" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4990,7 +5014,7 @@
         <v>100</v>
       </c>
       <c r="O62" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5031,7 +5055,7 @@
         <v>100</v>
       </c>
       <c r="O63" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5072,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5113,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5154,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5195,7 +5219,7 @@
         <v>100</v>
       </c>
       <c r="O67" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5236,7 +5260,7 @@
         <v>100</v>
       </c>
       <c r="O68" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5277,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5318,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5359,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5400,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5482,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5523,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5564,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5605,7 +5629,7 @@
         <v>100</v>
       </c>
       <c r="O77" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5646,7 +5670,7 @@
         <v>100</v>
       </c>
       <c r="O78" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5687,7 +5711,7 @@
         <v>100</v>
       </c>
       <c r="O79" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5728,6 +5752,1236 @@
         <v>100</v>
       </c>
       <c r="O80" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="6">
+        <v>3101</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" s="6">
+        <v>0</v>
+      </c>
+      <c r="H81" s="6">
+        <v>1</v>
+      </c>
+      <c r="I81" s="6">
+        <v>100203</v>
+      </c>
+      <c r="J81" s="6">
+        <v>0</v>
+      </c>
+      <c r="K81" s="6">
+        <v>0</v>
+      </c>
+      <c r="L81" s="6">
+        <v>1</v>
+      </c>
+      <c r="M81" s="6">
+        <v>20</v>
+      </c>
+      <c r="N81" s="6">
+        <v>0</v>
+      </c>
+      <c r="O81" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="6">
+        <v>3102</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G82" s="6">
+        <v>0</v>
+      </c>
+      <c r="H82" s="6">
+        <v>1</v>
+      </c>
+      <c r="I82" s="6">
+        <v>100403</v>
+      </c>
+      <c r="J82" s="6">
+        <v>0</v>
+      </c>
+      <c r="K82" s="6">
+        <v>0</v>
+      </c>
+      <c r="L82" s="6">
+        <v>1</v>
+      </c>
+      <c r="M82" s="6">
+        <v>20</v>
+      </c>
+      <c r="N82" s="6">
+        <v>0</v>
+      </c>
+      <c r="O82" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="6">
+        <v>3103</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83" s="6">
+        <v>0</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" s="6">
+        <v>0</v>
+      </c>
+      <c r="H83" s="6">
+        <v>1</v>
+      </c>
+      <c r="I83" s="6">
+        <v>100603</v>
+      </c>
+      <c r="J83" s="6">
+        <v>0</v>
+      </c>
+      <c r="K83" s="6">
+        <v>0</v>
+      </c>
+      <c r="L83" s="6">
+        <v>1</v>
+      </c>
+      <c r="M83" s="6">
+        <v>20</v>
+      </c>
+      <c r="N83" s="6">
+        <v>0</v>
+      </c>
+      <c r="O83" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="6">
+        <v>3104</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E84" s="6">
+        <v>0</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G84" s="6">
+        <v>0</v>
+      </c>
+      <c r="H84" s="6">
+        <v>1</v>
+      </c>
+      <c r="I84" s="6">
+        <v>100803</v>
+      </c>
+      <c r="J84" s="6">
+        <v>0</v>
+      </c>
+      <c r="K84" s="6">
+        <v>0</v>
+      </c>
+      <c r="L84" s="6">
+        <v>1</v>
+      </c>
+      <c r="M84" s="6">
+        <v>20</v>
+      </c>
+      <c r="N84" s="6">
+        <v>0</v>
+      </c>
+      <c r="O84" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="6">
+        <v>3105</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E85" s="6">
+        <v>0</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G85" s="6">
+        <v>0</v>
+      </c>
+      <c r="H85" s="6">
+        <v>1</v>
+      </c>
+      <c r="I85" s="6">
+        <v>101003</v>
+      </c>
+      <c r="J85" s="6">
+        <v>0</v>
+      </c>
+      <c r="K85" s="6">
+        <v>0</v>
+      </c>
+      <c r="L85" s="6">
+        <v>1</v>
+      </c>
+      <c r="M85" s="6">
+        <v>20</v>
+      </c>
+      <c r="N85" s="6">
+        <v>0</v>
+      </c>
+      <c r="O85" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="6">
+        <v>3201</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="6">
+        <v>0</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G86" s="6">
+        <v>0</v>
+      </c>
+      <c r="H86" s="6">
+        <v>1</v>
+      </c>
+      <c r="I86" s="6">
+        <v>100203</v>
+      </c>
+      <c r="J86" s="6">
+        <v>0</v>
+      </c>
+      <c r="K86" s="6">
+        <v>0</v>
+      </c>
+      <c r="L86" s="6">
+        <v>1</v>
+      </c>
+      <c r="M86" s="6">
+        <v>40</v>
+      </c>
+      <c r="N86" s="6">
+        <v>0</v>
+      </c>
+      <c r="O86" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="6">
+        <v>3202</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E87" s="6">
+        <v>0</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G87" s="6">
+        <v>0</v>
+      </c>
+      <c r="H87" s="6">
+        <v>1</v>
+      </c>
+      <c r="I87" s="6">
+        <v>100403</v>
+      </c>
+      <c r="J87" s="6">
+        <v>0</v>
+      </c>
+      <c r="K87" s="6">
+        <v>0</v>
+      </c>
+      <c r="L87" s="6">
+        <v>1</v>
+      </c>
+      <c r="M87" s="6">
+        <v>40</v>
+      </c>
+      <c r="N87" s="6">
+        <v>0</v>
+      </c>
+      <c r="O87" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="6">
+        <v>3203</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E88" s="6">
+        <v>0</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G88" s="6">
+        <v>0</v>
+      </c>
+      <c r="H88" s="6">
+        <v>1</v>
+      </c>
+      <c r="I88" s="6">
+        <v>100603</v>
+      </c>
+      <c r="J88" s="6">
+        <v>0</v>
+      </c>
+      <c r="K88" s="6">
+        <v>0</v>
+      </c>
+      <c r="L88" s="6">
+        <v>1</v>
+      </c>
+      <c r="M88" s="6">
+        <v>40</v>
+      </c>
+      <c r="N88" s="6">
+        <v>0</v>
+      </c>
+      <c r="O88" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C89" s="6">
+        <v>3204</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G89" s="6">
+        <v>0</v>
+      </c>
+      <c r="H89" s="6">
+        <v>1</v>
+      </c>
+      <c r="I89" s="6">
+        <v>100803</v>
+      </c>
+      <c r="J89" s="6">
+        <v>0</v>
+      </c>
+      <c r="K89" s="6">
+        <v>0</v>
+      </c>
+      <c r="L89" s="6">
+        <v>1</v>
+      </c>
+      <c r="M89" s="6">
+        <v>40</v>
+      </c>
+      <c r="N89" s="6">
+        <v>0</v>
+      </c>
+      <c r="O89" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="6">
+        <v>3205</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G90" s="6">
+        <v>0</v>
+      </c>
+      <c r="H90" s="6">
+        <v>1</v>
+      </c>
+      <c r="I90" s="6">
+        <v>101003</v>
+      </c>
+      <c r="J90" s="6">
+        <v>0</v>
+      </c>
+      <c r="K90" s="6">
+        <v>0</v>
+      </c>
+      <c r="L90" s="6">
+        <v>1</v>
+      </c>
+      <c r="M90" s="6">
+        <v>40</v>
+      </c>
+      <c r="N90" s="6">
+        <v>0</v>
+      </c>
+      <c r="O90" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="6">
+        <v>3301</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" s="6">
+        <v>0</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G91" s="6">
+        <v>0</v>
+      </c>
+      <c r="H91" s="6">
+        <v>1</v>
+      </c>
+      <c r="I91" s="6">
+        <v>100203</v>
+      </c>
+      <c r="J91" s="6">
+        <v>0</v>
+      </c>
+      <c r="K91" s="6">
+        <v>0</v>
+      </c>
+      <c r="L91" s="6">
+        <v>1</v>
+      </c>
+      <c r="M91" s="6">
+        <v>60</v>
+      </c>
+      <c r="N91" s="6">
+        <v>0</v>
+      </c>
+      <c r="O91" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C92" s="6">
+        <v>3302</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E92" s="6">
+        <v>0</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G92" s="6">
+        <v>0</v>
+      </c>
+      <c r="H92" s="6">
+        <v>1</v>
+      </c>
+      <c r="I92" s="6">
+        <v>100403</v>
+      </c>
+      <c r="J92" s="6">
+        <v>0</v>
+      </c>
+      <c r="K92" s="6">
+        <v>0</v>
+      </c>
+      <c r="L92" s="6">
+        <v>1</v>
+      </c>
+      <c r="M92" s="6">
+        <v>60</v>
+      </c>
+      <c r="N92" s="6">
+        <v>0</v>
+      </c>
+      <c r="O92" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="6">
+        <v>3303</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E93" s="6">
+        <v>0</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G93" s="6">
+        <v>0</v>
+      </c>
+      <c r="H93" s="6">
+        <v>1</v>
+      </c>
+      <c r="I93" s="6">
+        <v>100603</v>
+      </c>
+      <c r="J93" s="6">
+        <v>0</v>
+      </c>
+      <c r="K93" s="6">
+        <v>0</v>
+      </c>
+      <c r="L93" s="6">
+        <v>1</v>
+      </c>
+      <c r="M93" s="6">
+        <v>60</v>
+      </c>
+      <c r="N93" s="6">
+        <v>0</v>
+      </c>
+      <c r="O93" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="6">
+        <v>3304</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E94" s="6">
+        <v>0</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G94" s="6">
+        <v>0</v>
+      </c>
+      <c r="H94" s="6">
+        <v>1</v>
+      </c>
+      <c r="I94" s="6">
+        <v>100803</v>
+      </c>
+      <c r="J94" s="6">
+        <v>0</v>
+      </c>
+      <c r="K94" s="6">
+        <v>0</v>
+      </c>
+      <c r="L94" s="6">
+        <v>1</v>
+      </c>
+      <c r="M94" s="6">
+        <v>60</v>
+      </c>
+      <c r="N94" s="6">
+        <v>0</v>
+      </c>
+      <c r="O94" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="6">
+        <v>3305</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G95" s="6">
+        <v>0</v>
+      </c>
+      <c r="H95" s="6">
+        <v>1</v>
+      </c>
+      <c r="I95" s="6">
+        <v>101003</v>
+      </c>
+      <c r="J95" s="6">
+        <v>0</v>
+      </c>
+      <c r="K95" s="6">
+        <v>0</v>
+      </c>
+      <c r="L95" s="6">
+        <v>1</v>
+      </c>
+      <c r="M95" s="6">
+        <v>60</v>
+      </c>
+      <c r="N95" s="6">
+        <v>0</v>
+      </c>
+      <c r="O95" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="6">
+        <v>3401</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" s="6">
+        <v>0</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G96" s="6">
+        <v>0</v>
+      </c>
+      <c r="H96" s="6">
+        <v>1</v>
+      </c>
+      <c r="I96" s="6">
+        <v>100203</v>
+      </c>
+      <c r="J96" s="6">
+        <v>0</v>
+      </c>
+      <c r="K96" s="6">
+        <v>0</v>
+      </c>
+      <c r="L96" s="6">
+        <v>1</v>
+      </c>
+      <c r="M96" s="6">
+        <v>80</v>
+      </c>
+      <c r="N96" s="6">
+        <v>0</v>
+      </c>
+      <c r="O96" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C97" s="6">
+        <v>3402</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E97" s="6">
+        <v>0</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G97" s="6">
+        <v>0</v>
+      </c>
+      <c r="H97" s="6">
+        <v>1</v>
+      </c>
+      <c r="I97" s="6">
+        <v>100403</v>
+      </c>
+      <c r="J97" s="6">
+        <v>0</v>
+      </c>
+      <c r="K97" s="6">
+        <v>0</v>
+      </c>
+      <c r="L97" s="6">
+        <v>1</v>
+      </c>
+      <c r="M97" s="6">
+        <v>80</v>
+      </c>
+      <c r="N97" s="6">
+        <v>0</v>
+      </c>
+      <c r="O97" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="6">
+        <v>3403</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E98" s="6">
+        <v>0</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G98" s="6">
+        <v>0</v>
+      </c>
+      <c r="H98" s="6">
+        <v>1</v>
+      </c>
+      <c r="I98" s="6">
+        <v>100603</v>
+      </c>
+      <c r="J98" s="6">
+        <v>0</v>
+      </c>
+      <c r="K98" s="6">
+        <v>0</v>
+      </c>
+      <c r="L98" s="6">
+        <v>1</v>
+      </c>
+      <c r="M98" s="6">
+        <v>80</v>
+      </c>
+      <c r="N98" s="6">
+        <v>0</v>
+      </c>
+      <c r="O98" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="6">
+        <v>3404</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E99" s="6">
+        <v>0</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G99" s="6">
+        <v>0</v>
+      </c>
+      <c r="H99" s="6">
+        <v>1</v>
+      </c>
+      <c r="I99" s="6">
+        <v>100803</v>
+      </c>
+      <c r="J99" s="6">
+        <v>0</v>
+      </c>
+      <c r="K99" s="6">
+        <v>0</v>
+      </c>
+      <c r="L99" s="6">
+        <v>1</v>
+      </c>
+      <c r="M99" s="6">
+        <v>80</v>
+      </c>
+      <c r="N99" s="6">
+        <v>0</v>
+      </c>
+      <c r="O99" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="6">
+        <v>3405</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E100" s="6">
+        <v>0</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G100" s="6">
+        <v>0</v>
+      </c>
+      <c r="H100" s="6">
+        <v>1</v>
+      </c>
+      <c r="I100" s="6">
+        <v>101003</v>
+      </c>
+      <c r="J100" s="6">
+        <v>0</v>
+      </c>
+      <c r="K100" s="6">
+        <v>0</v>
+      </c>
+      <c r="L100" s="6">
+        <v>1</v>
+      </c>
+      <c r="M100" s="6">
+        <v>80</v>
+      </c>
+      <c r="N100" s="6">
+        <v>0</v>
+      </c>
+      <c r="O100" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="6">
+        <v>3501</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E101" s="6">
+        <v>0</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G101" s="6">
+        <v>0</v>
+      </c>
+      <c r="H101" s="6">
+        <v>1</v>
+      </c>
+      <c r="I101" s="6">
+        <v>100203</v>
+      </c>
+      <c r="J101" s="6">
+        <v>0</v>
+      </c>
+      <c r="K101" s="6">
+        <v>0</v>
+      </c>
+      <c r="L101" s="6">
+        <v>1</v>
+      </c>
+      <c r="M101" s="6">
+        <v>100</v>
+      </c>
+      <c r="N101" s="6">
+        <v>0</v>
+      </c>
+      <c r="O101" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C102" s="6">
+        <v>3502</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E102" s="6">
+        <v>0</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G102" s="6">
+        <v>0</v>
+      </c>
+      <c r="H102" s="6">
+        <v>1</v>
+      </c>
+      <c r="I102" s="6">
+        <v>100403</v>
+      </c>
+      <c r="J102" s="6">
+        <v>0</v>
+      </c>
+      <c r="K102" s="6">
+        <v>0</v>
+      </c>
+      <c r="L102" s="6">
+        <v>1</v>
+      </c>
+      <c r="M102" s="6">
+        <v>100</v>
+      </c>
+      <c r="N102" s="6">
+        <v>0</v>
+      </c>
+      <c r="O102" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C103" s="6">
+        <v>3503</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E103" s="6">
+        <v>0</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G103" s="6">
+        <v>0</v>
+      </c>
+      <c r="H103" s="6">
+        <v>1</v>
+      </c>
+      <c r="I103" s="6">
+        <v>100603</v>
+      </c>
+      <c r="J103" s="6">
+        <v>0</v>
+      </c>
+      <c r="K103" s="6">
+        <v>0</v>
+      </c>
+      <c r="L103" s="6">
+        <v>1</v>
+      </c>
+      <c r="M103" s="6">
+        <v>100</v>
+      </c>
+      <c r="N103" s="6">
+        <v>0</v>
+      </c>
+      <c r="O103" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C104" s="6">
+        <v>3504</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E104" s="6">
+        <v>0</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G104" s="6">
+        <v>0</v>
+      </c>
+      <c r="H104" s="6">
+        <v>1</v>
+      </c>
+      <c r="I104" s="6">
+        <v>100803</v>
+      </c>
+      <c r="J104" s="6">
+        <v>0</v>
+      </c>
+      <c r="K104" s="6">
+        <v>0</v>
+      </c>
+      <c r="L104" s="6">
+        <v>1</v>
+      </c>
+      <c r="M104" s="6">
+        <v>100</v>
+      </c>
+      <c r="N104" s="6">
+        <v>0</v>
+      </c>
+      <c r="O104" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C105" s="6">
+        <v>3505</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E105" s="6">
+        <v>0</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G105" s="6">
+        <v>0</v>
+      </c>
+      <c r="H105" s="6">
+        <v>1</v>
+      </c>
+      <c r="I105" s="6">
+        <v>101003</v>
+      </c>
+      <c r="J105" s="6">
+        <v>0</v>
+      </c>
+      <c r="K105" s="6">
+        <v>0</v>
+      </c>
+      <c r="L105" s="6">
+        <v>1</v>
+      </c>
+      <c r="M105" s="6">
+        <v>100</v>
+      </c>
+      <c r="N105" s="6">
+        <v>0</v>
+      </c>
+      <c r="O105" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C106" s="6">
+        <v>3601</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="6">
+        <v>0</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G106" s="6">
+        <v>0</v>
+      </c>
+      <c r="H106" s="6">
+        <v>1</v>
+      </c>
+      <c r="I106" s="6">
+        <v>100203</v>
+      </c>
+      <c r="J106" s="6">
+        <v>0</v>
+      </c>
+      <c r="K106" s="6">
+        <v>0</v>
+      </c>
+      <c r="L106" s="6">
+        <v>1</v>
+      </c>
+      <c r="M106" s="6">
+        <v>100</v>
+      </c>
+      <c r="N106" s="6">
+        <v>0</v>
+      </c>
+      <c r="O106" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="6">
+        <v>3602</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E107" s="6">
+        <v>0</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G107" s="6">
+        <v>0</v>
+      </c>
+      <c r="H107" s="6">
+        <v>1</v>
+      </c>
+      <c r="I107" s="6">
+        <v>100403</v>
+      </c>
+      <c r="J107" s="6">
+        <v>0</v>
+      </c>
+      <c r="K107" s="6">
+        <v>0</v>
+      </c>
+      <c r="L107" s="6">
+        <v>1</v>
+      </c>
+      <c r="M107" s="6">
+        <v>100</v>
+      </c>
+      <c r="N107" s="6">
+        <v>0</v>
+      </c>
+      <c r="O107" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C108" s="6">
+        <v>3603</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E108" s="6">
+        <v>0</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G108" s="6">
+        <v>0</v>
+      </c>
+      <c r="H108" s="6">
+        <v>1</v>
+      </c>
+      <c r="I108" s="6">
+        <v>100603</v>
+      </c>
+      <c r="J108" s="6">
+        <v>0</v>
+      </c>
+      <c r="K108" s="6">
+        <v>0</v>
+      </c>
+      <c r="L108" s="6">
+        <v>1</v>
+      </c>
+      <c r="M108" s="6">
+        <v>100</v>
+      </c>
+      <c r="N108" s="6">
+        <v>0</v>
+      </c>
+      <c r="O108" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="6">
+        <v>3604</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E109" s="6">
+        <v>0</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G109" s="6">
+        <v>0</v>
+      </c>
+      <c r="H109" s="6">
+        <v>1</v>
+      </c>
+      <c r="I109" s="6">
+        <v>100803</v>
+      </c>
+      <c r="J109" s="6">
+        <v>0</v>
+      </c>
+      <c r="K109" s="6">
+        <v>0</v>
+      </c>
+      <c r="L109" s="6">
+        <v>1</v>
+      </c>
+      <c r="M109" s="6">
+        <v>100</v>
+      </c>
+      <c r="N109" s="6">
+        <v>0</v>
+      </c>
+      <c r="O109" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C110" s="6">
+        <v>3605</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E110" s="6">
+        <v>0</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G110" s="6">
+        <v>0</v>
+      </c>
+      <c r="H110" s="6">
+        <v>1</v>
+      </c>
+      <c r="I110" s="6">
+        <v>101003</v>
+      </c>
+      <c r="J110" s="6">
+        <v>0</v>
+      </c>
+      <c r="K110" s="6">
+        <v>0</v>
+      </c>
+      <c r="L110" s="6">
+        <v>1</v>
+      </c>
+      <c r="M110" s="6">
+        <v>100</v>
+      </c>
+      <c r="N110" s="6">
+        <v>0</v>
+      </c>
+      <c r="O110" s="6">
         <v>1</v>
       </c>
     </row>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1AE51A-FDFA-49F7-AF0F-116195E2DE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBF2860-5DA8-4275-8D9A-0C1CF14BB091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="110">
   <si>
     <t>Id</t>
   </si>
@@ -665,6 +665,10 @@
   </si>
   <si>
     <t>IfMove</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运值</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1872,7 +1876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1888,6 +1892,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2535,10 +2542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:O110"/>
+  <dimension ref="B1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="O120" sqref="O120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5755,7 +5762,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="7"/>
       <c r="C81" s="6">
         <v>3101</v>
       </c>
@@ -5796,7 +5804,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="7"/>
       <c r="C82" s="6">
         <v>3102</v>
       </c>
@@ -5837,7 +5846,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="7"/>
       <c r="C83" s="6">
         <v>3103</v>
       </c>
@@ -5878,7 +5888,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="7"/>
       <c r="C84" s="6">
         <v>3104</v>
       </c>
@@ -5919,7 +5930,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="7"/>
       <c r="C85" s="6">
         <v>3105</v>
       </c>
@@ -5960,7 +5972,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="7"/>
       <c r="C86" s="6">
         <v>3201</v>
       </c>
@@ -6001,7 +6014,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="7"/>
       <c r="C87" s="6">
         <v>3202</v>
       </c>
@@ -6042,7 +6056,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="7"/>
       <c r="C88" s="6">
         <v>3203</v>
       </c>
@@ -6083,7 +6098,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="7"/>
       <c r="C89" s="6">
         <v>3204</v>
       </c>
@@ -6124,7 +6140,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="7"/>
       <c r="C90" s="6">
         <v>3205</v>
       </c>
@@ -6165,7 +6182,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="7"/>
       <c r="C91" s="6">
         <v>3301</v>
       </c>
@@ -6206,7 +6224,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="7"/>
       <c r="C92" s="6">
         <v>3302</v>
       </c>
@@ -6247,7 +6266,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="7"/>
       <c r="C93" s="6">
         <v>3303</v>
       </c>
@@ -6288,7 +6308,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="7"/>
       <c r="C94" s="6">
         <v>3304</v>
       </c>
@@ -6329,7 +6350,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="7"/>
       <c r="C95" s="6">
         <v>3305</v>
       </c>
@@ -6370,7 +6392,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="7"/>
       <c r="C96" s="6">
         <v>3401</v>
       </c>
@@ -6411,7 +6434,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="7"/>
       <c r="C97" s="6">
         <v>3402</v>
       </c>
@@ -6452,7 +6476,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="7"/>
       <c r="C98" s="6">
         <v>3403</v>
       </c>
@@ -6493,7 +6518,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="7"/>
       <c r="C99" s="6">
         <v>3404</v>
       </c>
@@ -6534,7 +6560,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="7"/>
       <c r="C100" s="6">
         <v>3405</v>
       </c>
@@ -6575,7 +6602,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="7"/>
       <c r="C101" s="6">
         <v>3501</v>
       </c>
@@ -6616,7 +6644,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="7"/>
       <c r="C102" s="6">
         <v>3502</v>
       </c>
@@ -6657,7 +6686,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="7"/>
       <c r="C103" s="6">
         <v>3503</v>
       </c>
@@ -6698,7 +6728,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="7"/>
       <c r="C104" s="6">
         <v>3504</v>
       </c>
@@ -6739,7 +6770,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="7"/>
       <c r="C105" s="6">
         <v>3505</v>
       </c>
@@ -6780,7 +6812,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="7"/>
       <c r="C106" s="6">
         <v>3601</v>
       </c>
@@ -6812,7 +6845,7 @@
         <v>1</v>
       </c>
       <c r="M106" s="6">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N106" s="6">
         <v>0</v>
@@ -6821,7 +6854,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="7"/>
       <c r="C107" s="6">
         <v>3602</v>
       </c>
@@ -6853,7 +6887,7 @@
         <v>1</v>
       </c>
       <c r="M107" s="6">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N107" s="6">
         <v>0</v>
@@ -6862,7 +6896,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="7"/>
       <c r="C108" s="6">
         <v>3603</v>
       </c>
@@ -6894,7 +6929,7 @@
         <v>1</v>
       </c>
       <c r="M108" s="6">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N108" s="6">
         <v>0</v>
@@ -6903,7 +6938,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="7"/>
       <c r="C109" s="6">
         <v>3604</v>
       </c>
@@ -6935,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="M109" s="6">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N109" s="6">
         <v>0</v>
@@ -6944,7 +6980,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="7"/>
       <c r="C110" s="6">
         <v>3605</v>
       </c>
@@ -6976,12 +7013,423 @@
         <v>1</v>
       </c>
       <c r="M110" s="6">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N110" s="6">
         <v>0</v>
       </c>
       <c r="O110" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C111" s="6">
+        <v>3901</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E111" s="6">
+        <v>1013</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G111" s="6">
+        <v>0</v>
+      </c>
+      <c r="H111" s="6">
+        <v>1</v>
+      </c>
+      <c r="I111" s="6">
+        <v>120101</v>
+      </c>
+      <c r="J111" s="6">
+        <v>0</v>
+      </c>
+      <c r="K111" s="6">
+        <v>1</v>
+      </c>
+      <c r="L111" s="6">
+        <v>1</v>
+      </c>
+      <c r="M111" s="6">
+        <v>1</v>
+      </c>
+      <c r="N111" s="6">
+        <v>0</v>
+      </c>
+      <c r="O111" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C112" s="6">
+        <v>3902</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E112" s="6">
+        <v>2109</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G112" s="6">
+        <v>0</v>
+      </c>
+      <c r="H112" s="6">
+        <v>1</v>
+      </c>
+      <c r="I112" s="6">
+        <v>68000108</v>
+      </c>
+      <c r="J112" s="6">
+        <v>0</v>
+      </c>
+      <c r="K112" s="6">
+        <v>0</v>
+      </c>
+      <c r="L112" s="6">
+        <v>0</v>
+      </c>
+      <c r="M112" s="6">
+        <v>0</v>
+      </c>
+      <c r="N112" s="6">
+        <v>0</v>
+      </c>
+      <c r="O112" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C113" s="6">
+        <v>3903</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E113" s="6">
+        <v>2105</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G113" s="6">
+        <v>0</v>
+      </c>
+      <c r="H113" s="6">
+        <v>1</v>
+      </c>
+      <c r="I113" s="6">
+        <v>68000104</v>
+      </c>
+      <c r="J113" s="6">
+        <v>0</v>
+      </c>
+      <c r="K113" s="6">
+        <v>0</v>
+      </c>
+      <c r="L113" s="6">
+        <v>0</v>
+      </c>
+      <c r="M113" s="6">
+        <v>0</v>
+      </c>
+      <c r="N113" s="6">
+        <v>0</v>
+      </c>
+      <c r="O113" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C114" s="6">
+        <v>3904</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E114" s="6">
+        <v>2106</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G114" s="6">
+        <v>0</v>
+      </c>
+      <c r="H114" s="6">
+        <v>1</v>
+      </c>
+      <c r="I114" s="6">
+        <v>68000105</v>
+      </c>
+      <c r="J114" s="6">
+        <v>0</v>
+      </c>
+      <c r="K114" s="6">
+        <v>0</v>
+      </c>
+      <c r="L114" s="6">
+        <v>0</v>
+      </c>
+      <c r="M114" s="6">
+        <v>0</v>
+      </c>
+      <c r="N114" s="6">
+        <v>0</v>
+      </c>
+      <c r="O114" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="7"/>
+      <c r="C115" s="6">
+        <v>3905</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E115" s="6">
+        <v>0</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G115" s="6">
+        <v>0</v>
+      </c>
+      <c r="H115" s="6">
+        <v>1</v>
+      </c>
+      <c r="I115" s="6">
+        <v>100403</v>
+      </c>
+      <c r="J115" s="6">
+        <v>0</v>
+      </c>
+      <c r="K115" s="6">
+        <v>0</v>
+      </c>
+      <c r="L115" s="6">
+        <v>120</v>
+      </c>
+      <c r="M115" s="6">
+        <v>120</v>
+      </c>
+      <c r="N115" s="6">
+        <v>0</v>
+      </c>
+      <c r="O115" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C116" s="6">
+        <v>3906</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E116" s="6">
+        <v>1018</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G116" s="6">
+        <v>0</v>
+      </c>
+      <c r="H116" s="6">
+        <v>1</v>
+      </c>
+      <c r="I116" s="6">
+        <v>200101</v>
+      </c>
+      <c r="J116" s="6">
+        <v>0</v>
+      </c>
+      <c r="K116" s="6">
+        <v>0</v>
+      </c>
+      <c r="L116" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="M116" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="N116" s="6">
+        <v>0</v>
+      </c>
+      <c r="O116" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C117" s="6">
+        <v>3907</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E117" s="6">
+        <v>1019</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G117" s="6">
+        <v>0</v>
+      </c>
+      <c r="H117" s="6">
+        <v>1</v>
+      </c>
+      <c r="I117" s="6">
+        <v>200201</v>
+      </c>
+      <c r="J117" s="6">
+        <v>0</v>
+      </c>
+      <c r="K117" s="6">
+        <v>0</v>
+      </c>
+      <c r="L117" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="M117" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="N117" s="6">
+        <v>0</v>
+      </c>
+      <c r="O117" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C118" s="6">
+        <v>3908</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E118" s="6">
+        <v>1020</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G118" s="6">
+        <v>0</v>
+      </c>
+      <c r="H118" s="6">
+        <v>1</v>
+      </c>
+      <c r="I118" s="6">
+        <v>200301</v>
+      </c>
+      <c r="J118" s="6">
+        <v>0</v>
+      </c>
+      <c r="K118" s="6">
+        <v>0</v>
+      </c>
+      <c r="L118" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="M118" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="N118" s="6">
+        <v>0</v>
+      </c>
+      <c r="O118" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C119" s="6">
+        <v>3909</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E119" s="6">
+        <v>1021</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G119" s="6">
+        <v>0</v>
+      </c>
+      <c r="H119" s="6">
+        <v>1</v>
+      </c>
+      <c r="I119" s="6">
+        <v>200401</v>
+      </c>
+      <c r="J119" s="6">
+        <v>0</v>
+      </c>
+      <c r="K119" s="6">
+        <v>0</v>
+      </c>
+      <c r="L119" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="M119" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="N119" s="6">
+        <v>0</v>
+      </c>
+      <c r="O119" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C120" s="6">
+        <v>3910</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E120" s="6">
+        <v>1008</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G120" s="6">
+        <v>0</v>
+      </c>
+      <c r="H120" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="I120" s="6">
+        <v>202101</v>
+      </c>
+      <c r="J120" s="6">
+        <v>0</v>
+      </c>
+      <c r="K120" s="6">
+        <v>0</v>
+      </c>
+      <c r="L120" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="M120" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="N120" s="6">
+        <v>0</v>
+      </c>
+      <c r="O120" s="6">
         <v>1</v>
       </c>
     </row>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBF2860-5DA8-4275-8D9A-0C1CF14BB091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C6CD5A-537A-49F7-A096-7DC561D004F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HideProListProto" sheetId="1" r:id="rId1"/>
@@ -2544,8 +2544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="O120" sqref="O120"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" s="6">
         <v>1</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" s="6">
         <v>1</v>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" s="6">
         <v>1</v>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" s="6">
         <v>1</v>
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" s="6">
         <v>1</v>
@@ -5999,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" s="6">
         <v>1</v>
@@ -6041,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="K87" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" s="6">
         <v>1</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" s="6">
         <v>1</v>
@@ -6125,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" s="6">
         <v>1</v>
@@ -6167,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" s="6">
         <v>1</v>
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" s="6">
         <v>1</v>
@@ -6251,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" s="6">
         <v>1</v>
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" s="6">
         <v>1</v>
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" s="6">
         <v>1</v>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" s="6">
         <v>1</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" s="6">
         <v>1</v>
@@ -6461,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" s="6">
         <v>1</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" s="6">
         <v>1</v>
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" s="6">
         <v>1</v>
@@ -6587,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" s="6">
         <v>1</v>
@@ -6629,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101" s="6">
         <v>1</v>
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" s="6">
         <v>1</v>
@@ -6713,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103" s="6">
         <v>1</v>
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" s="6">
         <v>1</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105" s="6">
         <v>1</v>
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" s="6">
         <v>1</v>
@@ -6881,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" s="6">
         <v>1</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="K108" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108" s="6">
         <v>1</v>
@@ -6965,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109" s="6">
         <v>1</v>
@@ -7007,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110" s="6">
         <v>1</v>
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="6">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="I120" s="6">
         <v>202101</v>
@@ -7421,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="L120" s="6">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="M120" s="6">
         <v>0.02</v>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C6CD5A-537A-49F7-A096-7DC561D004F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4BA3A8-D7B6-4B21-A826-18CCA1821954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2544,8 +2544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="K115" sqref="K115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7213,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115" s="6">
         <v>120</v>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4BA3A8-D7B6-4B21-A826-18CCA1821954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14C269E-AF08-4697-AAC0-4EF008B3A9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2544,8 +2544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="K115" sqref="K115"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="M110" sqref="M110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5963,7 +5963,7 @@
         <v>1</v>
       </c>
       <c r="M85" s="6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N85" s="6">
         <v>0</v>
@@ -6173,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="M90" s="6">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N90" s="6">
         <v>0</v>
@@ -6383,7 +6383,7 @@
         <v>1</v>
       </c>
       <c r="M95" s="6">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N95" s="6">
         <v>0</v>
@@ -6593,7 +6593,7 @@
         <v>1</v>
       </c>
       <c r="M100" s="6">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N100" s="6">
         <v>0</v>
@@ -6803,7 +6803,7 @@
         <v>1</v>
       </c>
       <c r="M105" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N105" s="6">
         <v>0</v>
@@ -7013,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="M110" s="6">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N110" s="6">
         <v>0</v>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14C269E-AF08-4697-AAC0-4EF008B3A9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE02C8F-1E13-4BD8-A2FF-81E8816C8D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HideProListProto" sheetId="1" r:id="rId1"/>
@@ -332,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="111">
   <si>
     <t>Id</t>
   </si>
@@ -669,6 +669,10 @@
   </si>
   <si>
     <t>幸运值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭武器攻击</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2542,10 +2546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O120"/>
+  <dimension ref="B1:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="M110" sqref="M110"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4532,27 +4536,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="6">
-        <v>2001</v>
+        <v>1047</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="E51" s="6">
-        <v>2002</v>
-      </c>
-      <c r="F51" s="6">
-        <v>1</v>
+        <v>1045</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G51" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="6">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I51" s="6">
-        <v>68000001</v>
+        <v>207101</v>
       </c>
       <c r="J51" s="6">
         <v>0</v>
@@ -4561,10 +4565,10 @@
         <v>0</v>
       </c>
       <c r="L51" s="6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M51" s="6">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N51" s="6">
         <v>0</v>
@@ -4575,25 +4579,25 @@
     </row>
     <row r="52" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="6">
+        <v>2001</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="6">
         <v>2002</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" s="6">
-        <v>2003</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>27</v>
+      <c r="F52" s="6">
+        <v>1</v>
       </c>
       <c r="G52" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H52" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I52" s="6">
-        <v>68000002</v>
+        <v>68000001</v>
       </c>
       <c r="J52" s="6">
         <v>0</v>
@@ -4608,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O52" s="6">
         <v>0</v>
@@ -4616,25 +4620,25 @@
     </row>
     <row r="53" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="6">
+        <v>2002</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="6">
         <v>2003</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E53" s="6">
-        <v>2004</v>
-      </c>
-      <c r="F53" s="6">
-        <v>2</v>
+      <c r="F53" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G53" s="6">
         <v>6</v>
       </c>
       <c r="H53" s="6">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I53" s="6">
-        <v>68000003</v>
+        <v>68000002</v>
       </c>
       <c r="J53" s="6">
         <v>0</v>
@@ -4657,25 +4661,25 @@
     </row>
     <row r="54" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="6">
+        <v>2003</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="6">
         <v>2004</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E54" s="6">
-        <v>2005</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>27</v>
+      <c r="F54" s="6">
+        <v>2</v>
       </c>
       <c r="G54" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H54" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I54" s="6">
-        <v>68000004</v>
+        <v>68000003</v>
       </c>
       <c r="J54" s="6">
         <v>0</v>
@@ -4698,25 +4702,25 @@
     </row>
     <row r="55" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="6">
+        <v>2004</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="6">
         <v>2005</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" s="6">
-        <v>2006</v>
-      </c>
       <c r="F55" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G55" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="6">
         <v>0.03</v>
       </c>
       <c r="I55" s="6">
-        <v>68000005</v>
+        <v>68000004</v>
       </c>
       <c r="J55" s="6">
         <v>0</v>
@@ -4739,25 +4743,25 @@
     </row>
     <row r="56" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="6">
+        <v>2005</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="6">
         <v>2006</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56" s="6">
-        <v>2007</v>
-      </c>
-      <c r="F56" s="6">
-        <v>3</v>
+      <c r="F56" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G56" s="6">
         <v>0</v>
       </c>
       <c r="H56" s="6">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I56" s="6">
-        <v>68000006</v>
+        <v>68000005</v>
       </c>
       <c r="J56" s="6">
         <v>0</v>
@@ -4780,25 +4784,25 @@
     </row>
     <row r="57" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="6">
+        <v>2006</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="6">
         <v>2007</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E57" s="6">
-        <v>2008</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>27</v>
+      <c r="F57" s="6">
+        <v>3</v>
       </c>
       <c r="G57" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57" s="6">
         <v>0.01</v>
       </c>
       <c r="I57" s="6">
-        <v>68000007</v>
+        <v>68000006</v>
       </c>
       <c r="J57" s="6">
         <v>0</v>
@@ -4821,25 +4825,25 @@
     </row>
     <row r="58" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="6">
+        <v>2007</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="6">
         <v>2008</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58" s="6">
-        <v>2009</v>
-      </c>
       <c r="F58" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G58" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H58" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I58" s="6">
-        <v>68000008</v>
+        <v>68000007</v>
       </c>
       <c r="J58" s="6">
         <v>0</v>
@@ -4854,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="6">
         <v>0</v>
@@ -4862,25 +4866,25 @@
     </row>
     <row r="59" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="6">
+        <v>2008</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="6">
         <v>2009</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E59" s="6">
-        <v>2010</v>
-      </c>
-      <c r="F59" s="6">
-        <v>6</v>
+      <c r="F59" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G59" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H59" s="6">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I59" s="6">
-        <v>68000009</v>
+        <v>68000008</v>
       </c>
       <c r="J59" s="6">
         <v>0</v>
@@ -4895,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="6">
         <v>0</v>
@@ -4903,25 +4907,25 @@
     </row>
     <row r="60" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="6">
+        <v>2009</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" s="6">
         <v>2010</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E60" s="6">
-        <v>2011</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>27</v>
+      <c r="F60" s="6">
+        <v>6</v>
       </c>
       <c r="G60" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I60" s="6">
-        <v>68000010</v>
+        <v>68000009</v>
       </c>
       <c r="J60" s="6">
         <v>0</v>
@@ -4936,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="N60" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O60" s="6">
         <v>0</v>
@@ -4944,25 +4948,25 @@
     </row>
     <row r="61" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" s="6">
         <v>2011</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E61" s="6">
-        <v>2012</v>
-      </c>
       <c r="F61" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G61" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H61" s="6">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I61" s="6">
-        <v>68000011</v>
+        <v>68000010</v>
       </c>
       <c r="J61" s="6">
         <v>0</v>
@@ -4977,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="6">
         <v>0</v>
@@ -4985,25 +4989,25 @@
     </row>
     <row r="62" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="6">
+        <v>2011</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" s="6">
         <v>2012</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E62" s="6">
-        <v>2013</v>
-      </c>
       <c r="F62" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G62" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H62" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I62" s="6">
-        <v>68000012</v>
+        <v>68000011</v>
       </c>
       <c r="J62" s="6">
         <v>0</v>
@@ -5026,25 +5030,25 @@
     </row>
     <row r="63" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="6">
+        <v>2012</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" s="6">
         <v>2013</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E63" s="6">
-        <v>2014</v>
-      </c>
       <c r="F63" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G63" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H63" s="6">
         <v>0.03</v>
       </c>
       <c r="I63" s="6">
-        <v>68000013</v>
+        <v>68000012</v>
       </c>
       <c r="J63" s="6">
         <v>0</v>
@@ -5067,25 +5071,25 @@
     </row>
     <row r="64" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" s="6">
         <v>2014</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="6">
-        <v>2015</v>
-      </c>
       <c r="F64" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G64" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H64" s="6">
         <v>0.03</v>
       </c>
       <c r="I64" s="6">
-        <v>68000014</v>
+        <v>68000013</v>
       </c>
       <c r="J64" s="6">
         <v>0</v>
@@ -5100,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O64" s="6">
         <v>0</v>
@@ -5108,25 +5112,25 @@
     </row>
     <row r="65" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" s="6">
         <v>2015</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E65" s="6">
-        <v>2016</v>
-      </c>
       <c r="F65" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G65" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H65" s="6">
         <v>0.03</v>
       </c>
       <c r="I65" s="6">
-        <v>68000015</v>
+        <v>68000014</v>
       </c>
       <c r="J65" s="6">
         <v>0</v>
@@ -5149,25 +5153,25 @@
     </row>
     <row r="66" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66" s="6">
         <v>2016</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E66" s="6">
-        <v>2017</v>
-      </c>
-      <c r="F66" s="6">
-        <v>1</v>
+      <c r="F66" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G66" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H66" s="6">
         <v>0.03</v>
       </c>
       <c r="I66" s="6">
-        <v>68000016</v>
+        <v>68000015</v>
       </c>
       <c r="J66" s="6">
         <v>0</v>
@@ -5190,66 +5194,66 @@
     </row>
     <row r="67" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" s="6">
         <v>2017</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67" s="6">
-        <v>2101</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>27</v>
+      <c r="F67" s="6">
+        <v>1</v>
       </c>
       <c r="G67" s="6">
         <v>5</v>
       </c>
       <c r="H67" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="I67" s="6">
+        <v>68000016</v>
+      </c>
+      <c r="J67" s="6">
+        <v>0</v>
+      </c>
+      <c r="K67" s="6">
+        <v>0</v>
+      </c>
+      <c r="L67" s="6">
+        <v>0</v>
+      </c>
+      <c r="M67" s="6">
+        <v>0</v>
+      </c>
+      <c r="N67" s="6">
+        <v>0</v>
+      </c>
+      <c r="O67" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="6">
+        <v>2017</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="6">
+        <v>2101</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="6">
+        <v>5</v>
+      </c>
+      <c r="H68" s="6">
         <v>0.01</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I68" s="6">
         <v>68000017</v>
-      </c>
-      <c r="J67" s="6">
-        <v>0</v>
-      </c>
-      <c r="K67" s="6">
-        <v>0</v>
-      </c>
-      <c r="L67" s="6">
-        <v>0</v>
-      </c>
-      <c r="M67" s="6">
-        <v>0</v>
-      </c>
-      <c r="N67" s="6">
-        <v>100</v>
-      </c>
-      <c r="O67" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C68" s="6">
-        <v>2101</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E68" s="6">
-        <v>2102</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" s="6">
-        <v>0</v>
-      </c>
-      <c r="H68" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="I68" s="6">
-        <v>68000101</v>
       </c>
       <c r="J68" s="6">
         <v>0</v>
@@ -5272,25 +5276,25 @@
     </row>
     <row r="69" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="6">
+        <v>2101</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E69" s="6">
         <v>2102</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E69" s="6">
-        <v>2103</v>
-      </c>
       <c r="F69" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G69" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="6">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I69" s="6">
-        <v>68000102</v>
+        <v>68000101</v>
       </c>
       <c r="J69" s="6">
         <v>0</v>
@@ -5305,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="N69" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O69" s="6">
         <v>0</v>
@@ -5313,25 +5317,25 @@
     </row>
     <row r="70" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="6">
+        <v>2102</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="6">
         <v>2103</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70" s="6">
-        <v>2104</v>
-      </c>
       <c r="F70" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G70" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" s="6">
         <v>0.05</v>
       </c>
       <c r="I70" s="6">
-        <v>68000103</v>
+        <v>68000102</v>
       </c>
       <c r="J70" s="6">
         <v>0</v>
@@ -5354,25 +5358,25 @@
     </row>
     <row r="71" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="6">
+        <v>2103</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="6">
         <v>2104</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E71" s="6">
-        <v>2105</v>
-      </c>
       <c r="F71" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G71" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H71" s="6">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I71" s="6">
-        <v>68000104</v>
+        <v>68000103</v>
       </c>
       <c r="J71" s="6">
         <v>0</v>
@@ -5395,14 +5399,14 @@
     </row>
     <row r="72" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="6">
+        <v>2104</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72" s="6">
         <v>2105</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E72" s="6">
-        <v>2106</v>
-      </c>
       <c r="F72" s="6" t="s">
         <v>27</v>
       </c>
@@ -5410,10 +5414,10 @@
         <v>0</v>
       </c>
       <c r="H72" s="6">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I72" s="6">
-        <v>68000105</v>
+        <v>68000104</v>
       </c>
       <c r="J72" s="6">
         <v>0</v>
@@ -5436,14 +5440,14 @@
     </row>
     <row r="73" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="6">
+        <v>2105</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73" s="6">
         <v>2106</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E73" s="6">
-        <v>2107</v>
-      </c>
       <c r="F73" s="6" t="s">
         <v>27</v>
       </c>
@@ -5454,7 +5458,7 @@
         <v>0.02</v>
       </c>
       <c r="I73" s="6">
-        <v>68000106</v>
+        <v>68000105</v>
       </c>
       <c r="J73" s="6">
         <v>0</v>
@@ -5477,14 +5481,14 @@
     </row>
     <row r="74" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="6">
+        <v>2106</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" s="6">
         <v>2107</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E74" s="6">
-        <v>2108</v>
-      </c>
       <c r="F74" s="6" t="s">
         <v>27</v>
       </c>
@@ -5492,10 +5496,10 @@
         <v>0</v>
       </c>
       <c r="H74" s="6">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I74" s="6">
-        <v>68000107</v>
+        <v>68000106</v>
       </c>
       <c r="J74" s="6">
         <v>0</v>
@@ -5518,14 +5522,14 @@
     </row>
     <row r="75" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="6">
+        <v>2107</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E75" s="6">
         <v>2108</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E75" s="6">
-        <v>2109</v>
-      </c>
       <c r="F75" s="6" t="s">
         <v>27</v>
       </c>
@@ -5533,10 +5537,10 @@
         <v>0</v>
       </c>
       <c r="H75" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I75" s="6">
-        <v>68000108</v>
+        <v>68000107</v>
       </c>
       <c r="J75" s="6">
         <v>0</v>
@@ -5559,14 +5563,14 @@
     </row>
     <row r="76" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="6">
+        <v>2108</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E76" s="6">
         <v>2109</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E76" s="6">
-        <v>2110</v>
-      </c>
       <c r="F76" s="6" t="s">
         <v>27</v>
       </c>
@@ -5574,10 +5578,10 @@
         <v>0</v>
       </c>
       <c r="H76" s="6">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I76" s="6">
-        <v>68000109</v>
+        <v>68000108</v>
       </c>
       <c r="J76" s="6">
         <v>0</v>
@@ -5600,25 +5604,25 @@
     </row>
     <row r="77" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="6">
+        <v>2109</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" s="6">
         <v>2110</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E77" s="6">
-        <v>2111</v>
-      </c>
       <c r="F77" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G77" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H77" s="6">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I77" s="6">
-        <v>68000110</v>
+        <v>68000109</v>
       </c>
       <c r="J77" s="6">
         <v>0</v>
@@ -5633,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="N77" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O77" s="6">
         <v>0</v>
@@ -5641,25 +5645,25 @@
     </row>
     <row r="78" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="6">
+        <v>2110</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E78" s="6">
         <v>2111</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E78" s="6">
-        <v>2112</v>
-      </c>
       <c r="F78" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G78" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H78" s="6">
         <v>0.02</v>
       </c>
       <c r="I78" s="6">
-        <v>68000111</v>
+        <v>68000110</v>
       </c>
       <c r="J78" s="6">
         <v>0</v>
@@ -5682,25 +5686,25 @@
     </row>
     <row r="79" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="6">
+        <v>2111</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79" s="6">
         <v>2112</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E79" s="6">
-        <v>2113</v>
-      </c>
       <c r="F79" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G79" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H79" s="6">
         <v>0.02</v>
       </c>
       <c r="I79" s="6">
-        <v>68000112</v>
+        <v>68000111</v>
       </c>
       <c r="J79" s="6">
         <v>0</v>
@@ -5723,25 +5727,25 @@
     </row>
     <row r="80" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="6">
+        <v>2112</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" s="6">
         <v>2113</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E80" s="6">
-        <v>0</v>
-      </c>
       <c r="F80" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G80" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H80" s="6">
         <v>0.02</v>
       </c>
       <c r="I80" s="6">
-        <v>68000113</v>
+        <v>68000112</v>
       </c>
       <c r="J80" s="6">
         <v>0</v>
@@ -5762,13 +5766,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="7"/>
+    <row r="81" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C81" s="6">
-        <v>3101</v>
+        <v>2113</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="E81" s="6">
         <v>0</v>
@@ -5777,28 +5780,28 @@
         <v>27</v>
       </c>
       <c r="G81" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H81" s="6">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="I81" s="6">
-        <v>100203</v>
+        <v>68000113</v>
       </c>
       <c r="J81" s="6">
         <v>0</v>
       </c>
       <c r="K81" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N81" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="6">
         <v>0</v>
@@ -5807,10 +5810,10 @@
     <row r="82" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="7"/>
       <c r="C82" s="6">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="E82" s="6">
         <v>0</v>
@@ -5825,7 +5828,7 @@
         <v>1</v>
       </c>
       <c r="I82" s="6">
-        <v>100403</v>
+        <v>100203</v>
       </c>
       <c r="J82" s="6">
         <v>0</v>
@@ -5849,10 +5852,10 @@
     <row r="83" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="7"/>
       <c r="C83" s="6">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E83" s="6">
         <v>0</v>
@@ -5867,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="I83" s="6">
-        <v>100603</v>
+        <v>100403</v>
       </c>
       <c r="J83" s="6">
         <v>0</v>
@@ -5891,10 +5894,10 @@
     <row r="84" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="7"/>
       <c r="C84" s="6">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E84" s="6">
         <v>0</v>
@@ -5909,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="I84" s="6">
-        <v>100803</v>
+        <v>100603</v>
       </c>
       <c r="J84" s="6">
         <v>0</v>
@@ -5933,10 +5936,10 @@
     <row r="85" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="7"/>
       <c r="C85" s="6">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E85" s="6">
         <v>0</v>
@@ -5951,7 +5954,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="6">
-        <v>101003</v>
+        <v>100803</v>
       </c>
       <c r="J85" s="6">
         <v>0</v>
@@ -5963,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="M85" s="6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N85" s="6">
         <v>0</v>
@@ -5975,10 +5978,10 @@
     <row r="86" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="7"/>
       <c r="C86" s="6">
-        <v>3201</v>
+        <v>3105</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="E86" s="6">
         <v>0</v>
@@ -5993,7 +5996,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="6">
-        <v>100203</v>
+        <v>101003</v>
       </c>
       <c r="J86" s="6">
         <v>0</v>
@@ -6017,10 +6020,10 @@
     <row r="87" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="7"/>
       <c r="C87" s="6">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="E87" s="6">
         <v>0</v>
@@ -6035,7 +6038,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="6">
-        <v>100403</v>
+        <v>100203</v>
       </c>
       <c r="J87" s="6">
         <v>0</v>
@@ -6059,10 +6062,10 @@
     <row r="88" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="7"/>
       <c r="C88" s="6">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E88" s="6">
         <v>0</v>
@@ -6077,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="6">
-        <v>100603</v>
+        <v>100403</v>
       </c>
       <c r="J88" s="6">
         <v>0</v>
@@ -6101,10 +6104,10 @@
     <row r="89" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="7"/>
       <c r="C89" s="6">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E89" s="6">
         <v>0</v>
@@ -6119,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="I89" s="6">
-        <v>100803</v>
+        <v>100603</v>
       </c>
       <c r="J89" s="6">
         <v>0</v>
@@ -6143,10 +6146,10 @@
     <row r="90" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="7"/>
       <c r="C90" s="6">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E90" s="6">
         <v>0</v>
@@ -6161,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="6">
-        <v>101003</v>
+        <v>100803</v>
       </c>
       <c r="J90" s="6">
         <v>0</v>
@@ -6173,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="M90" s="6">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N90" s="6">
         <v>0</v>
@@ -6185,10 +6188,10 @@
     <row r="91" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="7"/>
       <c r="C91" s="6">
-        <v>3301</v>
+        <v>3205</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="E91" s="6">
         <v>0</v>
@@ -6203,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="I91" s="6">
-        <v>100203</v>
+        <v>101003</v>
       </c>
       <c r="J91" s="6">
         <v>0</v>
@@ -6215,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="M91" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N91" s="6">
         <v>0</v>
@@ -6227,10 +6230,10 @@
     <row r="92" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="7"/>
       <c r="C92" s="6">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="E92" s="6">
         <v>0</v>
@@ -6245,7 +6248,7 @@
         <v>1</v>
       </c>
       <c r="I92" s="6">
-        <v>100403</v>
+        <v>100203</v>
       </c>
       <c r="J92" s="6">
         <v>0</v>
@@ -6269,10 +6272,10 @@
     <row r="93" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="7"/>
       <c r="C93" s="6">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E93" s="6">
         <v>0</v>
@@ -6287,7 +6290,7 @@
         <v>1</v>
       </c>
       <c r="I93" s="6">
-        <v>100603</v>
+        <v>100403</v>
       </c>
       <c r="J93" s="6">
         <v>0</v>
@@ -6311,10 +6314,10 @@
     <row r="94" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="7"/>
       <c r="C94" s="6">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E94" s="6">
         <v>0</v>
@@ -6329,7 +6332,7 @@
         <v>1</v>
       </c>
       <c r="I94" s="6">
-        <v>100803</v>
+        <v>100603</v>
       </c>
       <c r="J94" s="6">
         <v>0</v>
@@ -6353,10 +6356,10 @@
     <row r="95" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="7"/>
       <c r="C95" s="6">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E95" s="6">
         <v>0</v>
@@ -6371,7 +6374,7 @@
         <v>1</v>
       </c>
       <c r="I95" s="6">
-        <v>101003</v>
+        <v>100803</v>
       </c>
       <c r="J95" s="6">
         <v>0</v>
@@ -6383,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="M95" s="6">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N95" s="6">
         <v>0</v>
@@ -6395,10 +6398,10 @@
     <row r="96" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="7"/>
       <c r="C96" s="6">
-        <v>3401</v>
+        <v>3305</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="E96" s="6">
         <v>0</v>
@@ -6413,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="I96" s="6">
-        <v>100203</v>
+        <v>101003</v>
       </c>
       <c r="J96" s="6">
         <v>0</v>
@@ -6425,7 +6428,7 @@
         <v>1</v>
       </c>
       <c r="M96" s="6">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N96" s="6">
         <v>0</v>
@@ -6437,10 +6440,10 @@
     <row r="97" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="7"/>
       <c r="C97" s="6">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="E97" s="6">
         <v>0</v>
@@ -6455,7 +6458,7 @@
         <v>1</v>
       </c>
       <c r="I97" s="6">
-        <v>100403</v>
+        <v>100203</v>
       </c>
       <c r="J97" s="6">
         <v>0</v>
@@ -6479,10 +6482,10 @@
     <row r="98" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="7"/>
       <c r="C98" s="6">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E98" s="6">
         <v>0</v>
@@ -6497,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="I98" s="6">
-        <v>100603</v>
+        <v>100403</v>
       </c>
       <c r="J98" s="6">
         <v>0</v>
@@ -6521,10 +6524,10 @@
     <row r="99" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="7"/>
       <c r="C99" s="6">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E99" s="6">
         <v>0</v>
@@ -6539,7 +6542,7 @@
         <v>1</v>
       </c>
       <c r="I99" s="6">
-        <v>100803</v>
+        <v>100603</v>
       </c>
       <c r="J99" s="6">
         <v>0</v>
@@ -6563,10 +6566,10 @@
     <row r="100" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="7"/>
       <c r="C100" s="6">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E100" s="6">
         <v>0</v>
@@ -6581,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="6">
-        <v>101003</v>
+        <v>100803</v>
       </c>
       <c r="J100" s="6">
         <v>0</v>
@@ -6593,7 +6596,7 @@
         <v>1</v>
       </c>
       <c r="M100" s="6">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N100" s="6">
         <v>0</v>
@@ -6605,10 +6608,10 @@
     <row r="101" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="7"/>
       <c r="C101" s="6">
-        <v>3501</v>
+        <v>3405</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E101" s="6">
         <v>0</v>
@@ -6623,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="I101" s="6">
-        <v>100203</v>
+        <v>101003</v>
       </c>
       <c r="J101" s="6">
         <v>0</v>
@@ -6635,7 +6638,7 @@
         <v>1</v>
       </c>
       <c r="M101" s="6">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N101" s="6">
         <v>0</v>
@@ -6647,10 +6650,10 @@
     <row r="102" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="7"/>
       <c r="C102" s="6">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E102" s="6">
         <v>0</v>
@@ -6665,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="I102" s="6">
-        <v>100403</v>
+        <v>100203</v>
       </c>
       <c r="J102" s="6">
         <v>0</v>
@@ -6689,10 +6692,10 @@
     <row r="103" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="7"/>
       <c r="C103" s="6">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E103" s="6">
         <v>0</v>
@@ -6707,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="6">
-        <v>100603</v>
+        <v>100403</v>
       </c>
       <c r="J103" s="6">
         <v>0</v>
@@ -6731,10 +6734,10 @@
     <row r="104" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="7"/>
       <c r="C104" s="6">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E104" s="6">
         <v>0</v>
@@ -6749,7 +6752,7 @@
         <v>1</v>
       </c>
       <c r="I104" s="6">
-        <v>100803</v>
+        <v>100603</v>
       </c>
       <c r="J104" s="6">
         <v>0</v>
@@ -6773,10 +6776,10 @@
     <row r="105" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="7"/>
       <c r="C105" s="6">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E105" s="6">
         <v>0</v>
@@ -6791,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="I105" s="6">
-        <v>101003</v>
+        <v>100803</v>
       </c>
       <c r="J105" s="6">
         <v>0</v>
@@ -6803,7 +6806,7 @@
         <v>1</v>
       </c>
       <c r="M105" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N105" s="6">
         <v>0</v>
@@ -6815,10 +6818,10 @@
     <row r="106" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="7"/>
       <c r="C106" s="6">
-        <v>3601</v>
+        <v>3505</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="E106" s="6">
         <v>0</v>
@@ -6833,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="I106" s="6">
-        <v>100203</v>
+        <v>101003</v>
       </c>
       <c r="J106" s="6">
         <v>0</v>
@@ -6845,7 +6848,7 @@
         <v>1</v>
       </c>
       <c r="M106" s="6">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N106" s="6">
         <v>0</v>
@@ -6857,10 +6860,10 @@
     <row r="107" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="7"/>
       <c r="C107" s="6">
-        <v>3602</v>
+        <v>3601</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="E107" s="6">
         <v>0</v>
@@ -6875,7 +6878,7 @@
         <v>1</v>
       </c>
       <c r="I107" s="6">
-        <v>100403</v>
+        <v>100203</v>
       </c>
       <c r="J107" s="6">
         <v>0</v>
@@ -6899,10 +6902,10 @@
     <row r="108" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="7"/>
       <c r="C108" s="6">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E108" s="6">
         <v>0</v>
@@ -6917,7 +6920,7 @@
         <v>1</v>
       </c>
       <c r="I108" s="6">
-        <v>100603</v>
+        <v>100403</v>
       </c>
       <c r="J108" s="6">
         <v>0</v>
@@ -6941,10 +6944,10 @@
     <row r="109" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B109" s="7"/>
       <c r="C109" s="6">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E109" s="6">
         <v>0</v>
@@ -6959,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="I109" s="6">
-        <v>100803</v>
+        <v>100603</v>
       </c>
       <c r="J109" s="6">
         <v>0</v>
@@ -6983,95 +6986,96 @@
     <row r="110" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" s="7"/>
       <c r="C110" s="6">
+        <v>3604</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E110" s="6">
+        <v>0</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G110" s="6">
+        <v>0</v>
+      </c>
+      <c r="H110" s="6">
+        <v>1</v>
+      </c>
+      <c r="I110" s="6">
+        <v>100803</v>
+      </c>
+      <c r="J110" s="6">
+        <v>0</v>
+      </c>
+      <c r="K110" s="6">
+        <v>1</v>
+      </c>
+      <c r="L110" s="6">
+        <v>1</v>
+      </c>
+      <c r="M110" s="6">
+        <v>120</v>
+      </c>
+      <c r="N110" s="6">
+        <v>0</v>
+      </c>
+      <c r="O110" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="7"/>
+      <c r="C111" s="6">
         <v>3605</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D111" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E110" s="6">
-        <v>0</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G110" s="6">
-        <v>0</v>
-      </c>
-      <c r="H110" s="6">
-        <v>1</v>
-      </c>
-      <c r="I110" s="6">
+      <c r="E111" s="6">
+        <v>0</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G111" s="6">
+        <v>0</v>
+      </c>
+      <c r="H111" s="6">
+        <v>1</v>
+      </c>
+      <c r="I111" s="6">
         <v>101003</v>
       </c>
-      <c r="J110" s="6">
-        <v>0</v>
-      </c>
-      <c r="K110" s="6">
-        <v>1</v>
-      </c>
-      <c r="L110" s="6">
-        <v>1</v>
-      </c>
-      <c r="M110" s="6">
+      <c r="J111" s="6">
+        <v>0</v>
+      </c>
+      <c r="K111" s="6">
+        <v>1</v>
+      </c>
+      <c r="L111" s="6">
+        <v>1</v>
+      </c>
+      <c r="M111" s="6">
         <v>240</v>
       </c>
-      <c r="N110" s="6">
-        <v>0</v>
-      </c>
-      <c r="O110" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="6">
-        <v>3901</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E111" s="6">
-        <v>1013</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G111" s="6">
-        <v>0</v>
-      </c>
-      <c r="H111" s="6">
-        <v>1</v>
-      </c>
-      <c r="I111" s="6">
-        <v>120101</v>
-      </c>
-      <c r="J111" s="6">
-        <v>0</v>
-      </c>
-      <c r="K111" s="6">
-        <v>1</v>
-      </c>
-      <c r="L111" s="6">
-        <v>1</v>
-      </c>
-      <c r="M111" s="6">
-        <v>1</v>
-      </c>
       <c r="N111" s="6">
         <v>0</v>
       </c>
       <c r="O111" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C112" s="6">
-        <v>3902</v>
+        <v>3901</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E112" s="6">
-        <v>2109</v>
+        <v>1013</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>27</v>
@@ -7083,19 +7087,19 @@
         <v>1</v>
       </c>
       <c r="I112" s="6">
-        <v>68000108</v>
+        <v>120101</v>
       </c>
       <c r="J112" s="6">
         <v>0</v>
       </c>
       <c r="K112" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N112" s="6">
         <v>0</v>
@@ -7106,13 +7110,13 @@
     </row>
     <row r="113" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C113" s="6">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E113" s="6">
-        <v>2105</v>
+        <v>2109</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>27</v>
@@ -7124,7 +7128,7 @@
         <v>1</v>
       </c>
       <c r="I113" s="6">
-        <v>68000104</v>
+        <v>68000108</v>
       </c>
       <c r="J113" s="6">
         <v>0</v>
@@ -7147,120 +7151,120 @@
     </row>
     <row r="114" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C114" s="6">
+        <v>3903</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E114" s="6">
+        <v>2105</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G114" s="6">
+        <v>0</v>
+      </c>
+      <c r="H114" s="6">
+        <v>1</v>
+      </c>
+      <c r="I114" s="6">
+        <v>68000104</v>
+      </c>
+      <c r="J114" s="6">
+        <v>0</v>
+      </c>
+      <c r="K114" s="6">
+        <v>0</v>
+      </c>
+      <c r="L114" s="6">
+        <v>0</v>
+      </c>
+      <c r="M114" s="6">
+        <v>0</v>
+      </c>
+      <c r="N114" s="6">
+        <v>0</v>
+      </c>
+      <c r="O114" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C115" s="6">
         <v>3904</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D115" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E115" s="6">
         <v>2106</v>
       </c>
-      <c r="F114" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G114" s="6">
-        <v>0</v>
-      </c>
-      <c r="H114" s="6">
-        <v>1</v>
-      </c>
-      <c r="I114" s="6">
+      <c r="F115" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G115" s="6">
+        <v>0</v>
+      </c>
+      <c r="H115" s="6">
+        <v>1</v>
+      </c>
+      <c r="I115" s="6">
         <v>68000105</v>
       </c>
-      <c r="J114" s="6">
-        <v>0</v>
-      </c>
-      <c r="K114" s="6">
-        <v>0</v>
-      </c>
-      <c r="L114" s="6">
-        <v>0</v>
-      </c>
-      <c r="M114" s="6">
-        <v>0</v>
-      </c>
-      <c r="N114" s="6">
-        <v>0</v>
-      </c>
-      <c r="O114" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="7"/>
-      <c r="C115" s="6">
+      <c r="J115" s="6">
+        <v>0</v>
+      </c>
+      <c r="K115" s="6">
+        <v>0</v>
+      </c>
+      <c r="L115" s="6">
+        <v>0</v>
+      </c>
+      <c r="M115" s="6">
+        <v>0</v>
+      </c>
+      <c r="N115" s="6">
+        <v>0</v>
+      </c>
+      <c r="O115" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B116" s="7"/>
+      <c r="C116" s="6">
         <v>3905</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D116" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E115" s="6">
-        <v>0</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G115" s="6">
-        <v>0</v>
-      </c>
-      <c r="H115" s="6">
-        <v>1</v>
-      </c>
-      <c r="I115" s="6">
+      <c r="E116" s="6">
+        <v>0</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G116" s="6">
+        <v>0</v>
+      </c>
+      <c r="H116" s="6">
+        <v>1</v>
+      </c>
+      <c r="I116" s="6">
         <v>100403</v>
       </c>
-      <c r="J115" s="6">
-        <v>0</v>
-      </c>
-      <c r="K115" s="6">
-        <v>1</v>
-      </c>
-      <c r="L115" s="6">
+      <c r="J116" s="6">
+        <v>0</v>
+      </c>
+      <c r="K116" s="6">
+        <v>1</v>
+      </c>
+      <c r="L116" s="6">
         <v>120</v>
       </c>
-      <c r="M115" s="6">
+      <c r="M116" s="6">
         <v>120</v>
-      </c>
-      <c r="N115" s="6">
-        <v>0</v>
-      </c>
-      <c r="O115" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="6">
-        <v>3906</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E116" s="6">
-        <v>1018</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G116" s="6">
-        <v>0</v>
-      </c>
-      <c r="H116" s="6">
-        <v>1</v>
-      </c>
-      <c r="I116" s="6">
-        <v>200101</v>
-      </c>
-      <c r="J116" s="6">
-        <v>0</v>
-      </c>
-      <c r="K116" s="6">
-        <v>0</v>
-      </c>
-      <c r="L116" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="M116" s="6">
-        <v>0.02</v>
       </c>
       <c r="N116" s="6">
         <v>0</v>
@@ -7271,13 +7275,13 @@
     </row>
     <row r="117" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C117" s="6">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E117" s="6">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>27</v>
@@ -7289,7 +7293,7 @@
         <v>1</v>
       </c>
       <c r="I117" s="6">
-        <v>200201</v>
+        <v>200101</v>
       </c>
       <c r="J117" s="6">
         <v>0</v>
@@ -7312,13 +7316,13 @@
     </row>
     <row r="118" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C118" s="6">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E118" s="6">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>27</v>
@@ -7330,7 +7334,7 @@
         <v>1</v>
       </c>
       <c r="I118" s="6">
-        <v>200301</v>
+        <v>200201</v>
       </c>
       <c r="J118" s="6">
         <v>0</v>
@@ -7353,83 +7357,124 @@
     </row>
     <row r="119" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C119" s="6">
+        <v>3908</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E119" s="6">
+        <v>1020</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G119" s="6">
+        <v>0</v>
+      </c>
+      <c r="H119" s="6">
+        <v>1</v>
+      </c>
+      <c r="I119" s="6">
+        <v>200301</v>
+      </c>
+      <c r="J119" s="6">
+        <v>0</v>
+      </c>
+      <c r="K119" s="6">
+        <v>0</v>
+      </c>
+      <c r="L119" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="M119" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="N119" s="6">
+        <v>0</v>
+      </c>
+      <c r="O119" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C120" s="6">
         <v>3909</v>
       </c>
-      <c r="D119" s="6" t="s">
+      <c r="D120" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E119" s="6">
+      <c r="E120" s="6">
         <v>1021</v>
       </c>
-      <c r="F119" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G119" s="6">
-        <v>0</v>
-      </c>
-      <c r="H119" s="6">
-        <v>1</v>
-      </c>
-      <c r="I119" s="6">
+      <c r="F120" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G120" s="6">
+        <v>0</v>
+      </c>
+      <c r="H120" s="6">
+        <v>1</v>
+      </c>
+      <c r="I120" s="6">
         <v>200401</v>
       </c>
-      <c r="J119" s="6">
-        <v>0</v>
-      </c>
-      <c r="K119" s="6">
-        <v>0</v>
-      </c>
-      <c r="L119" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="M119" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="N119" s="6">
-        <v>0</v>
-      </c>
-      <c r="O119" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="6">
+      <c r="J120" s="6">
+        <v>0</v>
+      </c>
+      <c r="K120" s="6">
+        <v>0</v>
+      </c>
+      <c r="L120" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="M120" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="N120" s="6">
+        <v>0</v>
+      </c>
+      <c r="O120" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C121" s="6">
         <v>3910</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D121" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E120" s="6">
+      <c r="E121" s="6">
         <v>1008</v>
       </c>
-      <c r="F120" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G120" s="6">
-        <v>0</v>
-      </c>
-      <c r="H120" s="6">
-        <v>1</v>
-      </c>
-      <c r="I120" s="6">
+      <c r="F121" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G121" s="6">
+        <v>0</v>
+      </c>
+      <c r="H121" s="6">
+        <v>1</v>
+      </c>
+      <c r="I121" s="6">
         <v>202101</v>
       </c>
-      <c r="J120" s="6">
-        <v>0</v>
-      </c>
-      <c r="K120" s="6">
-        <v>0</v>
-      </c>
-      <c r="L120" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="M120" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="N120" s="6">
-        <v>0</v>
-      </c>
-      <c r="O120" s="6">
+      <c r="J121" s="6">
+        <v>0</v>
+      </c>
+      <c r="K121" s="6">
+        <v>0</v>
+      </c>
+      <c r="L121" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="M121" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="N121" s="6">
+        <v>0</v>
+      </c>
+      <c r="O121" s="6">
         <v>1</v>
       </c>
     </row>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE02C8F-1E13-4BD8-A2FF-81E8816C8D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CED221-30CB-4B2E-BAA8-AF303C2712E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
   <authors>
     <author>作者</author>
     <author>Administrator</author>
+    <author>Admin</author>
   </authors>
   <commentList>
     <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -319,6 +320,23 @@
         </r>
       </text>
     </comment>
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{94D12ACB-280D-4514-BDFF-1B24A2F737B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Admin:
+需要都少个同id条目才能激活
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -332,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="114">
   <si>
     <t>Id</t>
   </si>
@@ -673,6 +691,18 @@
   </si>
   <si>
     <t>弓箭武器攻击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物极品</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活条件</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedNumber</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -871,7 +901,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -948,6 +978,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1880,7 +1921,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1899,6 +1940,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2546,10 +2590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O121"/>
+  <dimension ref="B1:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:XFD123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2563,12 +2607,12 @@
     <col min="10" max="11" width="15" customWidth="1"/>
     <col min="12" max="13" width="17.125" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="13.25" customWidth="1"/>
+    <col min="15" max="16" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2608,8 +2652,11 @@
       <c r="O3" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P3" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2649,8 +2696,11 @@
       <c r="O4" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="5" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P4" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
@@ -2690,8 +2740,11 @@
       <c r="O5" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="6">
         <v>1001</v>
       </c>
@@ -2731,8 +2784,11 @@
       <c r="O6" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="6">
         <v>1002</v>
       </c>
@@ -2772,8 +2828,11 @@
       <c r="O7" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="6">
         <v>1003</v>
       </c>
@@ -2813,8 +2872,11 @@
       <c r="O8" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="6">
         <v>1004</v>
       </c>
@@ -2854,8 +2916,11 @@
       <c r="O9" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="6">
         <v>1005</v>
       </c>
@@ -2895,8 +2960,11 @@
       <c r="O10" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="6">
         <v>1006</v>
       </c>
@@ -2936,8 +3004,11 @@
       <c r="O11" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="6">
         <v>1007</v>
       </c>
@@ -2977,8 +3048,11 @@
       <c r="O12" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="6">
         <v>1008</v>
       </c>
@@ -3018,8 +3092,11 @@
       <c r="O13" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="6">
         <v>1009</v>
       </c>
@@ -3059,8 +3136,11 @@
       <c r="O14" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="6">
         <v>1010</v>
       </c>
@@ -3100,8 +3180,11 @@
       <c r="O15" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="6">
         <v>1011</v>
       </c>
@@ -3141,8 +3224,11 @@
       <c r="O16" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="6">
         <v>1012</v>
       </c>
@@ -3182,8 +3268,11 @@
       <c r="O17" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="6">
         <v>1013</v>
       </c>
@@ -3223,8 +3312,11 @@
       <c r="O18" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="6">
         <v>1014</v>
       </c>
@@ -3264,8 +3356,11 @@
       <c r="O19" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="6">
         <v>1015</v>
       </c>
@@ -3305,8 +3400,11 @@
       <c r="O20" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="6">
         <v>1016</v>
       </c>
@@ -3346,8 +3444,11 @@
       <c r="O21" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="6">
         <v>1017</v>
       </c>
@@ -3387,8 +3488,11 @@
       <c r="O22" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="6">
         <v>1018</v>
       </c>
@@ -3428,8 +3532,11 @@
       <c r="O23" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="6">
         <v>1019</v>
       </c>
@@ -3469,8 +3576,11 @@
       <c r="O24" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="6">
         <v>1020</v>
       </c>
@@ -3510,8 +3620,11 @@
       <c r="O25" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="6">
         <v>1021</v>
       </c>
@@ -3551,8 +3664,11 @@
       <c r="O26" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="6">
         <v>1022</v>
       </c>
@@ -3592,8 +3708,11 @@
       <c r="O27" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="6">
         <v>1023</v>
       </c>
@@ -3633,8 +3752,11 @@
       <c r="O28" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="6">
         <v>1024</v>
       </c>
@@ -3674,8 +3796,11 @@
       <c r="O29" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="6">
         <v>1025</v>
       </c>
@@ -3715,8 +3840,11 @@
       <c r="O30" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="6">
         <v>1026</v>
       </c>
@@ -3756,8 +3884,11 @@
       <c r="O31" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="6">
         <v>1027</v>
       </c>
@@ -3797,8 +3928,11 @@
       <c r="O32" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="6">
         <v>1028</v>
       </c>
@@ -3838,8 +3972,11 @@
       <c r="O33" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="6">
         <v>1030</v>
       </c>
@@ -3879,8 +4016,11 @@
       <c r="O34" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P34" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="6">
         <v>1031</v>
       </c>
@@ -3920,8 +4060,11 @@
       <c r="O35" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="6">
         <v>1032</v>
       </c>
@@ -3961,8 +4104,11 @@
       <c r="O36" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="6">
         <v>1033</v>
       </c>
@@ -4002,8 +4148,11 @@
       <c r="O37" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="6">
         <v>1034</v>
       </c>
@@ -4043,8 +4192,11 @@
       <c r="O38" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P38" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="6">
         <v>1035</v>
       </c>
@@ -4084,8 +4236,11 @@
       <c r="O39" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="6">
         <v>1036</v>
       </c>
@@ -4125,8 +4280,11 @@
       <c r="O40" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="6">
         <v>1037</v>
       </c>
@@ -4166,8 +4324,11 @@
       <c r="O41" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="6">
         <v>1038</v>
       </c>
@@ -4207,8 +4368,11 @@
       <c r="O42" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="6">
         <v>1039</v>
       </c>
@@ -4248,8 +4412,11 @@
       <c r="O43" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P43" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="6">
         <v>1040</v>
       </c>
@@ -4289,8 +4456,11 @@
       <c r="O44" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="6">
         <v>1041</v>
       </c>
@@ -4330,8 +4500,11 @@
       <c r="O45" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="6">
         <v>1042</v>
       </c>
@@ -4371,8 +4544,11 @@
       <c r="O46" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P46" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="6">
         <v>1043</v>
       </c>
@@ -4412,8 +4588,11 @@
       <c r="O47" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="6">
         <v>1044</v>
       </c>
@@ -4453,8 +4632,11 @@
       <c r="O48" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="6">
         <v>1045</v>
       </c>
@@ -4494,8 +4676,11 @@
       <c r="O49" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="6">
         <v>1046</v>
       </c>
@@ -4535,8 +4720,11 @@
       <c r="O50" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="6">
         <v>1047</v>
       </c>
@@ -4576,8 +4764,11 @@
       <c r="O51" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="6">
         <v>2001</v>
       </c>
@@ -4617,8 +4808,11 @@
       <c r="O52" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P52" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="6">
         <v>2002</v>
       </c>
@@ -4658,8 +4852,11 @@
       <c r="O53" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P53" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="6">
         <v>2003</v>
       </c>
@@ -4699,8 +4896,11 @@
       <c r="O54" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P54" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="6">
         <v>2004</v>
       </c>
@@ -4740,8 +4940,11 @@
       <c r="O55" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P55" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="6">
         <v>2005</v>
       </c>
@@ -4781,8 +4984,11 @@
       <c r="O56" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P56" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="6">
         <v>2006</v>
       </c>
@@ -4822,8 +5028,11 @@
       <c r="O57" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P57" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="6">
         <v>2007</v>
       </c>
@@ -4863,8 +5072,11 @@
       <c r="O58" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P58" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="6">
         <v>2008</v>
       </c>
@@ -4904,8 +5116,11 @@
       <c r="O59" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P59" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="6">
         <v>2009</v>
       </c>
@@ -4945,8 +5160,11 @@
       <c r="O60" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P60" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="6">
         <v>2010</v>
       </c>
@@ -4986,8 +5204,11 @@
       <c r="O61" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P61" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="6">
         <v>2011</v>
       </c>
@@ -5027,8 +5248,11 @@
       <c r="O62" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P62" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="6">
         <v>2012</v>
       </c>
@@ -5068,8 +5292,11 @@
       <c r="O63" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P63" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="6">
         <v>2013</v>
       </c>
@@ -5109,8 +5336,11 @@
       <c r="O64" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P64" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="6">
         <v>2014</v>
       </c>
@@ -5150,8 +5380,11 @@
       <c r="O65" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P65" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="6">
         <v>2015</v>
       </c>
@@ -5191,8 +5424,11 @@
       <c r="O66" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P66" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="6">
         <v>2016</v>
       </c>
@@ -5232,8 +5468,11 @@
       <c r="O67" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P67" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="6">
         <v>2017</v>
       </c>
@@ -5273,8 +5512,11 @@
       <c r="O68" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P68" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="6">
         <v>2101</v>
       </c>
@@ -5314,8 +5556,11 @@
       <c r="O69" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P69" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="6">
         <v>2102</v>
       </c>
@@ -5355,8 +5600,11 @@
       <c r="O70" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="6">
         <v>2103</v>
       </c>
@@ -5396,8 +5644,11 @@
       <c r="O71" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P71" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="6">
         <v>2104</v>
       </c>
@@ -5437,8 +5688,11 @@
       <c r="O72" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P72" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="6">
         <v>2105</v>
       </c>
@@ -5478,8 +5732,11 @@
       <c r="O73" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="6">
         <v>2106</v>
       </c>
@@ -5519,8 +5776,11 @@
       <c r="O74" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="6">
         <v>2107</v>
       </c>
@@ -5560,8 +5820,11 @@
       <c r="O75" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P75" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="6">
         <v>2108</v>
       </c>
@@ -5601,8 +5864,11 @@
       <c r="O76" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="6">
         <v>2109</v>
       </c>
@@ -5642,8 +5908,11 @@
       <c r="O77" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P77" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="6">
         <v>2110</v>
       </c>
@@ -5683,8 +5952,11 @@
       <c r="O78" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P78" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="6">
         <v>2111</v>
       </c>
@@ -5724,8 +5996,11 @@
       <c r="O79" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P79" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="6">
         <v>2112</v>
       </c>
@@ -5765,8 +6040,11 @@
       <c r="O80" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P80" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C81" s="6">
         <v>2113</v>
       </c>
@@ -5806,8 +6084,11 @@
       <c r="O81" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P81" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="7"/>
       <c r="C82" s="6">
         <v>3101</v>
@@ -5848,8 +6129,11 @@
       <c r="O82" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P82" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="7"/>
       <c r="C83" s="6">
         <v>3102</v>
@@ -5890,8 +6174,11 @@
       <c r="O83" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P83" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="7"/>
       <c r="C84" s="6">
         <v>3103</v>
@@ -5932,8 +6219,11 @@
       <c r="O84" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P84" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="7"/>
       <c r="C85" s="6">
         <v>3104</v>
@@ -5974,8 +6264,11 @@
       <c r="O85" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P85" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="7"/>
       <c r="C86" s="6">
         <v>3105</v>
@@ -6016,8 +6309,11 @@
       <c r="O86" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P86" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="7"/>
       <c r="C87" s="6">
         <v>3201</v>
@@ -6058,8 +6354,11 @@
       <c r="O87" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P87" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="7"/>
       <c r="C88" s="6">
         <v>3202</v>
@@ -6100,8 +6399,11 @@
       <c r="O88" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P88" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="7"/>
       <c r="C89" s="6">
         <v>3203</v>
@@ -6142,8 +6444,11 @@
       <c r="O89" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P89" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="7"/>
       <c r="C90" s="6">
         <v>3204</v>
@@ -6184,8 +6489,11 @@
       <c r="O90" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P90" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="7"/>
       <c r="C91" s="6">
         <v>3205</v>
@@ -6226,8 +6534,11 @@
       <c r="O91" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P91" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="7"/>
       <c r="C92" s="6">
         <v>3301</v>
@@ -6268,8 +6579,11 @@
       <c r="O92" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P92" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="7"/>
       <c r="C93" s="6">
         <v>3302</v>
@@ -6310,8 +6624,11 @@
       <c r="O93" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P93" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="7"/>
       <c r="C94" s="6">
         <v>3303</v>
@@ -6352,8 +6669,11 @@
       <c r="O94" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P94" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="7"/>
       <c r="C95" s="6">
         <v>3304</v>
@@ -6394,8 +6714,11 @@
       <c r="O95" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P95" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="7"/>
       <c r="C96" s="6">
         <v>3305</v>
@@ -6436,8 +6759,11 @@
       <c r="O96" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P96" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="7"/>
       <c r="C97" s="6">
         <v>3401</v>
@@ -6478,8 +6804,11 @@
       <c r="O97" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P97" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="7"/>
       <c r="C98" s="6">
         <v>3402</v>
@@ -6520,8 +6849,11 @@
       <c r="O98" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P98" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="7"/>
       <c r="C99" s="6">
         <v>3403</v>
@@ -6562,8 +6894,11 @@
       <c r="O99" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P99" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="7"/>
       <c r="C100" s="6">
         <v>3404</v>
@@ -6604,8 +6939,11 @@
       <c r="O100" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P100" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="7"/>
       <c r="C101" s="6">
         <v>3405</v>
@@ -6646,8 +6984,11 @@
       <c r="O101" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P101" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="7"/>
       <c r="C102" s="6">
         <v>3501</v>
@@ -6688,8 +7029,11 @@
       <c r="O102" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P102" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="7"/>
       <c r="C103" s="6">
         <v>3502</v>
@@ -6730,8 +7074,11 @@
       <c r="O103" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P103" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="7"/>
       <c r="C104" s="6">
         <v>3503</v>
@@ -6772,8 +7119,11 @@
       <c r="O104" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P104" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="7"/>
       <c r="C105" s="6">
         <v>3504</v>
@@ -6814,8 +7164,11 @@
       <c r="O105" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P105" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="7"/>
       <c r="C106" s="6">
         <v>3505</v>
@@ -6856,8 +7209,11 @@
       <c r="O106" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P106" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="7"/>
       <c r="C107" s="6">
         <v>3601</v>
@@ -6898,8 +7254,11 @@
       <c r="O107" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P107" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="7"/>
       <c r="C108" s="6">
         <v>3602</v>
@@ -6940,8 +7299,11 @@
       <c r="O108" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P108" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B109" s="7"/>
       <c r="C109" s="6">
         <v>3603</v>
@@ -6982,8 +7344,11 @@
       <c r="O109" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P109" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" s="7"/>
       <c r="C110" s="6">
         <v>3604</v>
@@ -7024,8 +7389,11 @@
       <c r="O110" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P110" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="7"/>
       <c r="C111" s="6">
         <v>3605</v>
@@ -7066,8 +7434,11 @@
       <c r="O111" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P111" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C112" s="6">
         <v>3901</v>
       </c>
@@ -7107,8 +7478,11 @@
       <c r="O112" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P112" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C113" s="6">
         <v>3902</v>
       </c>
@@ -7148,8 +7522,11 @@
       <c r="O113" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P113" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C114" s="6">
         <v>3903</v>
       </c>
@@ -7189,8 +7566,11 @@
       <c r="O114" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P114" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C115" s="6">
         <v>3904</v>
       </c>
@@ -7230,8 +7610,11 @@
       <c r="O115" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P115" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B116" s="7"/>
       <c r="C116" s="6">
         <v>3905</v>
@@ -7272,8 +7655,11 @@
       <c r="O116" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P116" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C117" s="6">
         <v>3906</v>
       </c>
@@ -7313,8 +7699,11 @@
       <c r="O117" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P117" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C118" s="6">
         <v>3907</v>
       </c>
@@ -7354,8 +7743,11 @@
       <c r="O118" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P118" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C119" s="6">
         <v>3908</v>
       </c>
@@ -7395,8 +7787,11 @@
       <c r="O119" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P119" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C120" s="6">
         <v>3909</v>
       </c>
@@ -7436,8 +7831,11 @@
       <c r="O120" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P120" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C121" s="6">
         <v>3910</v>
       </c>
@@ -7476,6 +7874,97 @@
       </c>
       <c r="O121" s="6">
         <v>1</v>
+      </c>
+      <c r="P121" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C122" s="8">
+        <v>30001</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E122" s="6">
+        <v>0</v>
+      </c>
+      <c r="F122" s="6">
+        <v>0</v>
+      </c>
+      <c r="G122" s="6">
+        <v>0</v>
+      </c>
+      <c r="H122" s="6">
+        <v>1</v>
+      </c>
+      <c r="I122" s="6">
+        <v>100403</v>
+      </c>
+      <c r="J122" s="6">
+        <v>0</v>
+      </c>
+      <c r="K122" s="6">
+        <v>1</v>
+      </c>
+      <c r="L122" s="6">
+        <v>1</v>
+      </c>
+      <c r="M122" s="6">
+        <v>40</v>
+      </c>
+      <c r="N122" s="6">
+        <v>0</v>
+      </c>
+      <c r="O122" s="6">
+        <v>0</v>
+      </c>
+      <c r="P122" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C123" s="8">
+        <v>40001</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E123" s="6">
+        <v>0</v>
+      </c>
+      <c r="F123" s="6">
+        <v>0</v>
+      </c>
+      <c r="G123" s="6">
+        <v>0</v>
+      </c>
+      <c r="H123" s="6">
+        <v>1</v>
+      </c>
+      <c r="I123" s="6">
+        <v>68000104</v>
+      </c>
+      <c r="J123" s="6">
+        <v>0</v>
+      </c>
+      <c r="K123" s="6">
+        <v>0</v>
+      </c>
+      <c r="L123" s="6">
+        <v>0</v>
+      </c>
+      <c r="M123" s="6">
+        <v>0</v>
+      </c>
+      <c r="N123" s="6">
+        <v>0</v>
+      </c>
+      <c r="O123" s="6">
+        <v>1</v>
+      </c>
+      <c r="P123" s="6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CED221-30CB-4B2E-BAA8-AF303C2712E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CEBF5E-F911-4BCF-8F6E-68777F6B7EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HideProListProto" sheetId="1" r:id="rId1"/>
@@ -2592,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:XFD123"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4688,7 +4688,7 @@
         <v>71</v>
       </c>
       <c r="E50" s="6">
-        <v>0</v>
+        <v>1047</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>27</v>
@@ -4732,7 +4732,7 @@
         <v>110</v>
       </c>
       <c r="E51" s="6">
-        <v>1045</v>
+        <v>0</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>27</v>

--- a/Excel/HideProListConfig.xlsx
+++ b/Excel/HideProListConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CEBF5E-F911-4BCF-8F6E-68777F6B7EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7F7C97-3846-4EF8-AEDB-E00EED41190B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2592,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3304,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N18" s="6">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N19" s="6">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N20" s="6">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N21" s="6">
         <v>0</v>
